--- a/HE/W_in_progress/Analisi_ClaudeSonnet.xlsx
+++ b/HE/W_in_progress/Analisi_ClaudeSonnet.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28318"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FFFE82DB-D814-4ECC-8F0B-286488729A1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1BD16D20-8803-4BDB-8C4C-9498C80F1CF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1645" uniqueCount="1287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1658" uniqueCount="1294">
   <si>
     <t>IN</t>
   </si>
@@ -309,7 +309,7 @@
     <t>0.0</t>
   </si>
   <si>
-    <t>Proprio un altra cosa</t>
+    <t>RIFERIMENTO ERRATO</t>
   </si>
   <si>
     <t>rst_n is an input signal of type std_logic</t>
@@ -690,6 +690,9 @@
     <t>0.5999999952</t>
   </si>
   <si>
+    <t>Non fa l'inizializzazion come richiesto</t>
+  </si>
+  <si>
     <t>Declare and initialize i_stb_cpy as a signal of type std_logic with default value '0'.</t>
   </si>
   <si>
@@ -702,6 +705,9 @@
     <t>0.8055555555555556</t>
   </si>
   <si>
+    <t>Fa qualcosa in più ma va bene</t>
+  </si>
+  <si>
     <t>i_stb_cpy is a signal of type std_logic</t>
   </si>
   <si>
@@ -810,6 +816,9 @@
     <t>0.5660377358490566</t>
   </si>
   <si>
+    <t>Più o meno va bene</t>
+  </si>
+  <si>
     <t>sck_gen is a process that operates sequentially on the rising edges of the clk_i signal</t>
   </si>
   <si>
@@ -858,6 +867,9 @@
     <t>0.8749999950781251</t>
   </si>
   <si>
+    <t>Qualche errore sintattico, però va bene</t>
+  </si>
+  <si>
     <t>if voltage value is greater than or equal to ref_voltage</t>
   </si>
   <si>
@@ -930,6 +942,9 @@
     <t>0.38461537964497045</t>
   </si>
   <si>
+    <t>Non riespetta ciò che ho chiesto</t>
+  </si>
+  <si>
     <t>if the xor operation between d and d_reg is high</t>
   </si>
   <si>
@@ -1158,6 +1173,9 @@
     <t>0.8148148099862826</t>
   </si>
   <si>
+    <t>Roba in più ma va bene</t>
+  </si>
+  <si>
     <t>define a conditional generation clk2xgen: if clk2xen is different from 0, generate signal clkena of type std_logic_vector of two bit and set it to "11"</t>
   </si>
   <si>
@@ -1351,6 +1369,9 @@
   </si>
   <si>
     <t>0.536585360856633</t>
+  </si>
+  <si>
+    <t>Meglio del riferimento</t>
   </si>
   <si>
     <t>in the case of done_st, do something</t>
@@ -3898,7 +3919,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3916,6 +3937,14 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -3954,12 +3983,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4264,14 +4294,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L327"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="L130" sqref="L130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="2" max="2" width="70.7109375" customWidth="1"/>
+    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="2" max="2" width="98.7109375" customWidth="1"/>
     <col min="3" max="3" width="73.28515625" customWidth="1"/>
     <col min="4" max="4" width="3.42578125" customWidth="1"/>
     <col min="5" max="5" width="4.85546875" customWidth="1"/>
@@ -5058,9 +5088,9 @@
         <v>91</v>
       </c>
       <c r="K22">
-        <v>0</v>
-      </c>
-      <c r="L22" t="s">
+        <v>1</v>
+      </c>
+      <c r="L22" s="3" t="s">
         <v>92</v>
       </c>
     </row>
@@ -5446,7 +5476,7 @@
         <v>132</v>
       </c>
       <c r="K33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -5516,7 +5546,7 @@
         <v>139</v>
       </c>
       <c r="K35">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -5586,7 +5616,7 @@
         <v>146</v>
       </c>
       <c r="K37">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -5621,7 +5651,7 @@
         <v>146</v>
       </c>
       <c r="K38">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -5691,7 +5721,7 @@
         <v>157</v>
       </c>
       <c r="K40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -5761,7 +5791,7 @@
         <v>146</v>
       </c>
       <c r="K42">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -5796,7 +5826,7 @@
         <v>167</v>
       </c>
       <c r="K43">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -5831,7 +5861,7 @@
         <v>146</v>
       </c>
       <c r="K44">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -5901,7 +5931,7 @@
         <v>178</v>
       </c>
       <c r="K46">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -5974,7 +6004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:12">
       <c r="A49" t="s">
         <v>183</v>
       </c>
@@ -6009,7 +6039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:11">
+    <row r="50" spans="1:12">
       <c r="A50" t="s">
         <v>185</v>
       </c>
@@ -6041,10 +6071,10 @@
         <v>106</v>
       </c>
       <c r="K50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
       <c r="A51" t="s">
         <v>188</v>
       </c>
@@ -6076,10 +6106,10 @@
         <v>146</v>
       </c>
       <c r="K51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
       <c r="A52" t="s">
         <v>191</v>
       </c>
@@ -6111,10 +6141,10 @@
         <v>195</v>
       </c>
       <c r="K52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
       <c r="A53" t="s">
         <v>196</v>
       </c>
@@ -6146,10 +6176,10 @@
         <v>79</v>
       </c>
       <c r="K53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
       <c r="A54" t="s">
         <v>200</v>
       </c>
@@ -6181,10 +6211,10 @@
         <v>204</v>
       </c>
       <c r="K54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
       <c r="A55" t="s">
         <v>205</v>
       </c>
@@ -6219,7 +6249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:11">
+    <row r="56" spans="1:12">
       <c r="A56" t="s">
         <v>207</v>
       </c>
@@ -6254,7 +6284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:11">
+    <row r="57" spans="1:12">
       <c r="A57" t="s">
         <v>209</v>
       </c>
@@ -6286,10 +6316,10 @@
         <v>146</v>
       </c>
       <c r="K57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
       <c r="A58" t="s">
         <v>212</v>
       </c>
@@ -6324,7 +6354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:11">
+    <row r="59" spans="1:12">
       <c r="A59" t="s">
         <v>214</v>
       </c>
@@ -6358,16 +6388,19 @@
       <c r="K59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:11">
+      <c r="L59" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
       <c r="A60" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B60" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C60" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D60">
         <v>0</v>
@@ -6379,7 +6412,7 @@
         <v>0.67636363636363639</v>
       </c>
       <c r="G60" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H60">
         <v>0.48</v>
@@ -6391,18 +6424,21 @@
         <v>218</v>
       </c>
       <c r="K60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11">
+        <v>1</v>
+      </c>
+      <c r="L60" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
       <c r="A61" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B61" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C61" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D61">
         <v>1</v>
@@ -6429,15 +6465,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:11">
+    <row r="62" spans="1:12">
       <c r="A62" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B62" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C62" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D62">
         <v>1</v>
@@ -6464,15 +6500,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:11">
+    <row r="63" spans="1:12">
       <c r="A63" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B63" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C63" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D63">
         <v>1</v>
@@ -6499,15 +6535,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:11">
+    <row r="64" spans="1:12">
       <c r="A64" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B64" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C64" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D64">
         <v>0</v>
@@ -6519,7 +6555,7 @@
         <v>0.99950000000000006</v>
       </c>
       <c r="G64" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="H64">
         <v>1</v>
@@ -6531,18 +6567,18 @@
         <v>79</v>
       </c>
       <c r="K64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12">
       <c r="A65" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B65" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C65" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D65">
         <v>0</v>
@@ -6554,7 +6590,7 @@
         <v>0.996</v>
       </c>
       <c r="G65" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="H65">
         <v>1</v>
@@ -6566,18 +6602,18 @@
         <v>106</v>
       </c>
       <c r="K65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12">
       <c r="A66" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B66" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C66" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D66">
         <v>1</v>
@@ -6604,15 +6640,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:11">
+    <row r="67" spans="1:12">
       <c r="A67" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B67" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C67" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D67">
         <v>1</v>
@@ -6639,15 +6675,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:11">
+    <row r="68" spans="1:12">
       <c r="A68" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B68" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C68" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D68">
         <v>0</v>
@@ -6659,7 +6695,7 @@
         <v>0.99989822918786897</v>
       </c>
       <c r="G68" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="H68">
         <v>0.25</v>
@@ -6668,21 +6704,21 @@
         <v>0.63969999999999994</v>
       </c>
       <c r="J68" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="K68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12">
       <c r="A69" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B69" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C69" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D69">
         <v>0</v>
@@ -6694,7 +6730,7 @@
         <v>0.93197278911564618</v>
       </c>
       <c r="G69" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="H69">
         <v>0.78</v>
@@ -6703,21 +6739,21 @@
         <v>0.80030000000000001</v>
       </c>
       <c r="J69" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="K69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12">
       <c r="A70" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B70" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C70" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D70">
         <v>0</v>
@@ -6729,7 +6765,7 @@
         <v>0.44834307992202732</v>
       </c>
       <c r="G70" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="H70">
         <v>0.37</v>
@@ -6738,21 +6774,21 @@
         <v>1</v>
       </c>
       <c r="J70" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="K70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12">
       <c r="A71" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B71" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C71" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D71">
         <v>0</v>
@@ -6764,7 +6800,7 @@
         <v>0.5859375</v>
       </c>
       <c r="G71" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="H71">
         <v>0.51</v>
@@ -6776,18 +6812,21 @@
         <v>91</v>
       </c>
       <c r="K71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11">
+        <v>1</v>
+      </c>
+      <c r="L71" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12">
       <c r="A72" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="B72" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C72" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="D72">
         <v>0</v>
@@ -6799,7 +6838,7 @@
         <v>0.99768518518518523</v>
       </c>
       <c r="G72" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="H72">
         <v>1</v>
@@ -6811,18 +6850,18 @@
         <v>106</v>
       </c>
       <c r="K72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12">
       <c r="A73" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="B73" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="C73" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="D73">
         <v>1</v>
@@ -6849,15 +6888,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:11">
+    <row r="74" spans="1:12">
       <c r="A74" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="B74" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="C74" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="D74">
         <v>0</v>
@@ -6869,7 +6908,7 @@
         <v>0.87587084887373423</v>
       </c>
       <c r="G74" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="H74">
         <v>0.63</v>
@@ -6878,21 +6917,21 @@
         <v>0.78060000000000007</v>
       </c>
       <c r="J74" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="K74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12">
       <c r="A75" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="B75" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="C75" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="D75">
         <v>0</v>
@@ -6904,7 +6943,7 @@
         <v>0.78170670849076773</v>
       </c>
       <c r="G75" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="H75">
         <v>0.67</v>
@@ -6913,21 +6952,24 @@
         <v>1</v>
       </c>
       <c r="J75" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="K75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11">
+        <v>1</v>
+      </c>
+      <c r="L75" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12">
       <c r="A76" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="B76" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="C76" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="D76">
         <v>0</v>
@@ -6939,7 +6981,7 @@
         <v>0.20833333333333329</v>
       </c>
       <c r="G76" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="H76">
         <v>0.09</v>
@@ -6948,21 +6990,24 @@
         <v>0.29070000000000001</v>
       </c>
       <c r="J76" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="K76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11">
+        <v>1</v>
+      </c>
+      <c r="L76" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12">
       <c r="A77" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="B77" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="C77" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="D77">
         <v>0</v>
@@ -6974,7 +7019,7 @@
         <v>0.78170670849076773</v>
       </c>
       <c r="G77" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="H77">
         <v>0.67</v>
@@ -6983,21 +7028,24 @@
         <v>1</v>
       </c>
       <c r="J77" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="K77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11">
+        <v>1</v>
+      </c>
+      <c r="L77" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12">
       <c r="A78" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="B78" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="C78" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="D78">
         <v>0</v>
@@ -7009,7 +7057,7 @@
         <v>0.91787007200541015</v>
       </c>
       <c r="G78" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="H78">
         <v>0.77</v>
@@ -7018,21 +7066,21 @@
         <v>0.98250000000000004</v>
       </c>
       <c r="J78" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="K78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12">
       <c r="A79" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="B79" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="C79" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="D79">
         <v>0</v>
@@ -7044,7 +7092,7 @@
         <v>0.72115384615384615</v>
       </c>
       <c r="G79" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="H79">
         <v>0</v>
@@ -7053,21 +7101,21 @@
         <v>1</v>
       </c>
       <c r="J79" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="K79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12">
       <c r="A80" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="B80" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="C80" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="D80">
         <v>0</v>
@@ -7079,7 +7127,7 @@
         <v>0.36300842651110032</v>
       </c>
       <c r="G80" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="H80">
         <v>0.18</v>
@@ -7088,21 +7136,24 @@
         <v>0.82650000000000001</v>
       </c>
       <c r="J80" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="K80">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:11">
+      <c r="L80" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12">
       <c r="A81" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="B81" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="C81" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="D81">
         <v>0</v>
@@ -7114,7 +7165,7 @@
         <v>0.63923604112074184</v>
       </c>
       <c r="G81" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="H81">
         <v>0.44</v>
@@ -7123,21 +7174,21 @@
         <v>0.93909999999999993</v>
       </c>
       <c r="J81" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="K81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12">
       <c r="A82" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="B82" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="C82" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="D82">
         <v>0</v>
@@ -7149,7 +7200,7 @@
         <v>0.9375</v>
       </c>
       <c r="G82" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="H82">
         <v>0.36</v>
@@ -7158,21 +7209,21 @@
         <v>0.85939999999999994</v>
       </c>
       <c r="J82" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="K82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12">
       <c r="A83" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="B83" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="C83" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="D83">
         <v>0</v>
@@ -7184,7 +7235,7 @@
         <v>0.69142857142857139</v>
       </c>
       <c r="G83" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="H83">
         <v>0.2</v>
@@ -7193,21 +7244,21 @@
         <v>0.81969999999999998</v>
       </c>
       <c r="J83" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="K83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12">
       <c r="A84" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="B84" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="C84" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="D84">
         <v>0</v>
@@ -7219,7 +7270,7 @@
         <v>0.71667729591836737</v>
       </c>
       <c r="G84" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="H84">
         <v>0.21</v>
@@ -7228,21 +7279,21 @@
         <v>0.49390000000000001</v>
       </c>
       <c r="J84" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="K84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12">
       <c r="A85" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="B85" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="C85" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="D85">
         <v>1</v>
@@ -7269,15 +7320,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:11">
+    <row r="86" spans="1:12">
       <c r="A86" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="B86" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="C86" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="D86">
         <v>1</v>
@@ -7304,15 +7355,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:11">
+    <row r="87" spans="1:12">
       <c r="A87" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="B87" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="C87" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="D87">
         <v>0</v>
@@ -7324,7 +7375,7 @@
         <v>0.4543245869776481</v>
       </c>
       <c r="G87" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="H87">
         <v>0</v>
@@ -7336,18 +7387,21 @@
         <v>204</v>
       </c>
       <c r="K87">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11">
+        <v>1</v>
+      </c>
+      <c r="L87" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12">
       <c r="A88" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="B88" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="C88" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="D88">
         <v>1</v>
@@ -7374,15 +7428,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:11">
+    <row r="89" spans="1:12">
       <c r="A89" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="B89" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="C89" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="D89">
         <v>0</v>
@@ -7394,7 +7448,7 @@
         <v>0.9921875</v>
       </c>
       <c r="G89" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="H89">
         <v>0</v>
@@ -7406,18 +7460,18 @@
         <v>91</v>
       </c>
       <c r="K89">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12">
       <c r="A90" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="B90" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="C90" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="D90">
         <v>1</v>
@@ -7444,15 +7498,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:11">
+    <row r="91" spans="1:12">
       <c r="A91" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="B91" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="C91" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="D91">
         <v>1</v>
@@ -7479,15 +7533,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:11">
+    <row r="92" spans="1:12">
       <c r="A92" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="B92" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="C92" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="D92">
         <v>1</v>
@@ -7514,15 +7568,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:11">
+    <row r="93" spans="1:12">
       <c r="A93" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="B93" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="C93" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="D93">
         <v>0</v>
@@ -7534,7 +7588,7 @@
         <v>0.96798780487804881</v>
       </c>
       <c r="G93" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="H93">
         <v>0</v>
@@ -7546,18 +7600,18 @@
         <v>70</v>
       </c>
       <c r="K93">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12">
       <c r="A94" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="B94" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="C94" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="D94">
         <v>1</v>
@@ -7584,15 +7638,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:11">
+    <row r="95" spans="1:12">
       <c r="A95" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="B95" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="C95" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="D95">
         <v>1</v>
@@ -7619,15 +7673,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:11">
+    <row r="96" spans="1:12">
       <c r="A96" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="B96" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="C96" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="D96">
         <v>1</v>
@@ -7654,15 +7708,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:11">
+    <row r="97" spans="1:12">
       <c r="A97" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="B97" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="C97" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="D97">
         <v>1</v>
@@ -7689,15 +7743,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:11">
+    <row r="98" spans="1:12">
       <c r="A98" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="B98" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="C98" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="D98">
         <v>1</v>
@@ -7724,15 +7778,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:11">
+    <row r="99" spans="1:12">
       <c r="A99" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="B99" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="C99" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="D99">
         <v>1</v>
@@ -7759,15 +7813,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:11">
+    <row r="100" spans="1:12">
       <c r="A100" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="B100" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="C100" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="D100">
         <v>0</v>
@@ -7779,7 +7833,7 @@
         <v>0.62330623306233057</v>
       </c>
       <c r="G100" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="H100">
         <v>0</v>
@@ -7788,21 +7842,21 @@
         <v>0.63890000000000002</v>
       </c>
       <c r="J100" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="K100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12">
       <c r="A101" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="B101" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="C101" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="D101">
         <v>1</v>
@@ -7829,15 +7883,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:11">
+    <row r="102" spans="1:12">
       <c r="A102" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="B102" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="C102" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="D102">
         <v>1</v>
@@ -7864,15 +7918,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:11">
+    <row r="103" spans="1:12">
       <c r="A103" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="B103" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="C103" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="D103">
         <v>0</v>
@@ -7884,7 +7938,7 @@
         <v>0.26589958158995808</v>
       </c>
       <c r="G103" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="H103">
         <v>0.14000000000000001</v>
@@ -7893,21 +7947,24 @@
         <v>0.58279999999999998</v>
       </c>
       <c r="J103" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="K103">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11">
+        <v>1</v>
+      </c>
+      <c r="L103" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12">
       <c r="A104" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="B104" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="C104" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="D104">
         <v>0</v>
@@ -7919,7 +7976,7 @@
         <v>0.93642344497607655</v>
       </c>
       <c r="G104" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="H104">
         <v>0.63</v>
@@ -7928,21 +7985,21 @@
         <v>0.87219999999999998</v>
       </c>
       <c r="J104" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="K104">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12">
       <c r="A105" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="B105" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="C105" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="D105">
         <v>0</v>
@@ -7954,7 +8011,7 @@
         <v>0.93657575757575762</v>
       </c>
       <c r="G105" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="H105">
         <v>0.94</v>
@@ -7963,21 +8020,24 @@
         <v>1</v>
       </c>
       <c r="J105" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="K105">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11">
+        <v>1</v>
+      </c>
+      <c r="L105" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12">
       <c r="A106" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="B106" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="C106" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="D106">
         <v>0</v>
@@ -7989,7 +8049,7 @@
         <v>0.84728220472144589</v>
       </c>
       <c r="G106" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="H106">
         <v>0.53</v>
@@ -7998,21 +8058,21 @@
         <v>0.79069999999999996</v>
       </c>
       <c r="J106" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="K106">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12">
       <c r="A107" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="B107" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="C107" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="D107">
         <v>0</v>
@@ -8024,7 +8084,7 @@
         <v>0.96798780487804881</v>
       </c>
       <c r="G107" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="H107">
         <v>0.93</v>
@@ -8033,21 +8093,21 @@
         <v>1</v>
       </c>
       <c r="J107" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="K107">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12">
       <c r="A108" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="B108" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="C108" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="D108">
         <v>1</v>
@@ -8074,15 +8134,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:11">
+    <row r="109" spans="1:12">
       <c r="A109" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="B109" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="C109" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="D109">
         <v>0</v>
@@ -8094,7 +8154,7 @@
         <v>0.86681283422459887</v>
       </c>
       <c r="G109" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="H109">
         <v>0</v>
@@ -8103,21 +8163,21 @@
         <v>0.8347</v>
       </c>
       <c r="J109" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="K109">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12">
       <c r="A110" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="B110" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="C110" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="D110">
         <v>0</v>
@@ -8129,7 +8189,7 @@
         <v>0.97127791563275423</v>
       </c>
       <c r="G110" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="H110">
         <v>0.97</v>
@@ -8138,21 +8198,21 @@
         <v>1</v>
       </c>
       <c r="J110" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="K110">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12">
       <c r="A111" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="B111" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="C111" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="D111">
         <v>0</v>
@@ -8164,7 +8224,7 @@
         <v>0.94033251231527093</v>
       </c>
       <c r="G111" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="H111">
         <v>0.78</v>
@@ -8173,21 +8233,21 @@
         <v>0.95239999999999991</v>
       </c>
       <c r="J111" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="K111">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12">
       <c r="A112" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="B112" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="C112" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="D112">
         <v>0</v>
@@ -8199,7 +8259,7 @@
         <v>0.85262690366169269</v>
       </c>
       <c r="G112" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="H112">
         <v>0</v>
@@ -8208,21 +8268,21 @@
         <v>0.95609999999999995</v>
       </c>
       <c r="J112" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="K112">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12">
       <c r="A113" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="B113" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="C113" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="D113">
         <v>1</v>
@@ -8249,15 +8309,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:11">
+    <row r="114" spans="1:12">
       <c r="A114" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="B114" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="C114" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="D114">
         <v>1</v>
@@ -8284,15 +8344,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:11">
+    <row r="115" spans="1:12">
       <c r="A115" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="B115" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="C115" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="D115">
         <v>1</v>
@@ -8319,15 +8379,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:11">
+    <row r="116" spans="1:12">
       <c r="A116" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="B116" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="C116" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="D116">
         <v>1</v>
@@ -8354,15 +8414,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:11">
+    <row r="117" spans="1:12">
       <c r="A117" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="B117" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="C117" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="D117">
         <v>1</v>
@@ -8389,15 +8449,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:11">
+    <row r="118" spans="1:12">
       <c r="A118" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="B118" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="C118" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="D118">
         <v>0</v>
@@ -8409,7 +8469,7 @@
         <v>0.8622451151504833</v>
       </c>
       <c r="G118" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="H118">
         <v>0</v>
@@ -8418,21 +8478,24 @@
         <v>0.95540000000000003</v>
       </c>
       <c r="J118" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="K118">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:11">
+        <v>1</v>
+      </c>
+      <c r="L118" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12">
       <c r="A119" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="B119" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="C119" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="D119">
         <v>1</v>
@@ -8459,15 +8522,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:11">
+    <row r="120" spans="1:12">
       <c r="A120" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="B120" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="C120" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="D120">
         <v>0</v>
@@ -8479,7 +8542,7 @@
         <v>0.99563007880588228</v>
       </c>
       <c r="G120" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="H120">
         <v>0.54</v>
@@ -8491,18 +8554,18 @@
         <v>111</v>
       </c>
       <c r="K120">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12">
       <c r="A121" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="B121" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="C121" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="D121">
         <v>1</v>
@@ -8529,15 +8592,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:11">
+    <row r="122" spans="1:12">
       <c r="A122" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="B122" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="C122" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="D122">
         <v>1</v>
@@ -8564,15 +8627,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:11">
+    <row r="123" spans="1:12">
       <c r="A123" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="B123" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="C123" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="D123">
         <v>0</v>
@@ -8584,7 +8647,7 @@
         <v>0.63672057329562615</v>
       </c>
       <c r="G123" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="H123">
         <v>0.46</v>
@@ -8593,21 +8656,21 @@
         <v>0.65040000000000009</v>
       </c>
       <c r="J123" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="K123">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12">
       <c r="A124" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="B124" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="C124" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="D124">
         <v>0</v>
@@ -8619,7 +8682,7 @@
         <v>0.35887474402058722</v>
       </c>
       <c r="G124" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="H124">
         <v>0.19</v>
@@ -8628,21 +8691,24 @@
         <v>0.66920000000000002</v>
       </c>
       <c r="J124" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="K124">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:11">
+        <v>1</v>
+      </c>
+      <c r="L124" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12">
       <c r="A125" t="s">
-        <v>440</v>
+        <v>447</v>
       </c>
       <c r="B125" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="C125" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="D125">
         <v>1</v>
@@ -8669,15 +8735,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:11">
+    <row r="126" spans="1:12">
       <c r="A126" t="s">
-        <v>442</v>
+        <v>449</v>
       </c>
       <c r="B126" t="s">
-        <v>443</v>
+        <v>450</v>
       </c>
       <c r="C126" t="s">
-        <v>444</v>
+        <v>451</v>
       </c>
       <c r="D126">
         <v>0</v>
@@ -8689,7 +8755,7 @@
         <v>0.84358836206896548</v>
       </c>
       <c r="G126" t="s">
-        <v>445</v>
+        <v>452</v>
       </c>
       <c r="H126">
         <v>0.68</v>
@@ -8698,21 +8764,21 @@
         <v>0.85109999999999997</v>
       </c>
       <c r="J126" t="s">
-        <v>446</v>
+        <v>453</v>
       </c>
       <c r="K126">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12">
       <c r="A127" t="s">
-        <v>447</v>
+        <v>454</v>
       </c>
       <c r="B127" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
       <c r="C127" t="s">
-        <v>449</v>
+        <v>456</v>
       </c>
       <c r="D127">
         <v>0</v>
@@ -8724,7 +8790,7 @@
         <v>0.85568227290916377</v>
       </c>
       <c r="G127" t="s">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="H127">
         <v>0.75</v>
@@ -8733,21 +8799,24 @@
         <v>0.84279999999999999</v>
       </c>
       <c r="J127" t="s">
-        <v>451</v>
+        <v>458</v>
       </c>
       <c r="K127">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:11">
+        <v>1</v>
+      </c>
+      <c r="L127" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12">
       <c r="A128" t="s">
-        <v>452</v>
+        <v>459</v>
       </c>
       <c r="B128" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
       <c r="C128" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="D128">
         <v>0</v>
@@ -8759,7 +8828,7 @@
         <v>0.95453896908364533</v>
       </c>
       <c r="G128" t="s">
-        <v>455</v>
+        <v>462</v>
       </c>
       <c r="H128">
         <v>0.83</v>
@@ -8768,21 +8837,21 @@
         <v>0.94469999999999998</v>
       </c>
       <c r="J128" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="K128">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:11">
       <c r="A129" t="s">
-        <v>457</v>
+        <v>464</v>
       </c>
       <c r="B129" t="s">
-        <v>458</v>
+        <v>465</v>
       </c>
       <c r="C129" t="s">
-        <v>459</v>
+        <v>466</v>
       </c>
       <c r="D129">
         <v>0</v>
@@ -8794,7 +8863,7 @@
         <v>0.13081039667928329</v>
       </c>
       <c r="G129" t="s">
-        <v>460</v>
+        <v>467</v>
       </c>
       <c r="H129">
         <v>0</v>
@@ -8803,7 +8872,7 @@
         <v>0.64739999999999998</v>
       </c>
       <c r="J129" t="s">
-        <v>461</v>
+        <v>468</v>
       </c>
       <c r="K129">
         <v>0</v>
@@ -8811,13 +8880,13 @@
     </row>
     <row r="130" spans="1:11">
       <c r="A130" t="s">
-        <v>462</v>
+        <v>469</v>
       </c>
       <c r="B130" t="s">
-        <v>463</v>
+        <v>470</v>
       </c>
       <c r="C130" t="s">
-        <v>464</v>
+        <v>471</v>
       </c>
       <c r="D130">
         <v>0</v>
@@ -8829,7 +8898,7 @@
         <v>0.73646769230769238</v>
       </c>
       <c r="G130" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="H130">
         <v>0.32</v>
@@ -8838,7 +8907,7 @@
         <v>0.68940000000000001</v>
       </c>
       <c r="J130" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="K130">
         <v>0</v>
@@ -8846,13 +8915,13 @@
     </row>
     <row r="131" spans="1:11">
       <c r="A131" t="s">
-        <v>465</v>
+        <v>472</v>
       </c>
       <c r="B131" t="s">
-        <v>466</v>
+        <v>473</v>
       </c>
       <c r="C131" t="s">
-        <v>466</v>
+        <v>473</v>
       </c>
       <c r="D131">
         <v>1</v>
@@ -8881,13 +8950,13 @@
     </row>
     <row r="132" spans="1:11">
       <c r="A132" t="s">
-        <v>467</v>
+        <v>474</v>
       </c>
       <c r="B132" t="s">
-        <v>468</v>
+        <v>475</v>
       </c>
       <c r="C132" t="s">
-        <v>468</v>
+        <v>475</v>
       </c>
       <c r="D132">
         <v>1</v>
@@ -8916,13 +8985,13 @@
     </row>
     <row r="133" spans="1:11">
       <c r="A133" t="s">
-        <v>469</v>
+        <v>476</v>
       </c>
       <c r="B133" t="s">
-        <v>470</v>
+        <v>477</v>
       </c>
       <c r="C133" t="s">
-        <v>470</v>
+        <v>477</v>
       </c>
       <c r="D133">
         <v>1</v>
@@ -8951,13 +9020,13 @@
     </row>
     <row r="134" spans="1:11">
       <c r="A134" t="s">
-        <v>471</v>
+        <v>478</v>
       </c>
       <c r="B134" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="C134" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="D134">
         <v>1</v>
@@ -8986,13 +9055,13 @@
     </row>
     <row r="135" spans="1:11">
       <c r="A135" t="s">
-        <v>473</v>
+        <v>480</v>
       </c>
       <c r="B135" t="s">
-        <v>474</v>
+        <v>481</v>
       </c>
       <c r="C135" t="s">
-        <v>475</v>
+        <v>482</v>
       </c>
       <c r="D135">
         <v>0</v>
@@ -9004,7 +9073,7 @@
         <v>0.77335953369248434</v>
       </c>
       <c r="G135" t="s">
-        <v>476</v>
+        <v>483</v>
       </c>
       <c r="H135">
         <v>0.43</v>
@@ -9013,7 +9082,7 @@
         <v>0.86250000000000004</v>
       </c>
       <c r="J135" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
       <c r="K135">
         <v>0</v>
@@ -9021,13 +9090,13 @@
     </row>
     <row r="136" spans="1:11">
       <c r="A136" t="s">
-        <v>478</v>
+        <v>485</v>
       </c>
       <c r="B136" t="s">
-        <v>479</v>
+        <v>486</v>
       </c>
       <c r="C136" t="s">
-        <v>480</v>
+        <v>487</v>
       </c>
       <c r="D136">
         <v>0</v>
@@ -9039,7 +9108,7 @@
         <v>0.99763488543976353</v>
       </c>
       <c r="G136" t="s">
-        <v>481</v>
+        <v>488</v>
       </c>
       <c r="H136">
         <v>0.8</v>
@@ -9048,7 +9117,7 @@
         <v>0.9506</v>
       </c>
       <c r="J136" t="s">
-        <v>482</v>
+        <v>489</v>
       </c>
       <c r="K136">
         <v>0</v>
@@ -9056,13 +9125,13 @@
     </row>
     <row r="137" spans="1:11">
       <c r="A137" t="s">
-        <v>483</v>
+        <v>490</v>
       </c>
       <c r="B137" t="s">
-        <v>484</v>
+        <v>491</v>
       </c>
       <c r="C137" t="s">
-        <v>485</v>
+        <v>492</v>
       </c>
       <c r="D137">
         <v>0</v>
@@ -9074,7 +9143,7 @@
         <v>0.80165631469979293</v>
       </c>
       <c r="G137" t="s">
-        <v>486</v>
+        <v>493</v>
       </c>
       <c r="H137">
         <v>0.6</v>
@@ -9083,7 +9152,7 @@
         <v>0.90700000000000003</v>
       </c>
       <c r="J137" t="s">
-        <v>487</v>
+        <v>494</v>
       </c>
       <c r="K137">
         <v>0</v>
@@ -9091,13 +9160,13 @@
     </row>
     <row r="138" spans="1:11">
       <c r="A138" t="s">
-        <v>488</v>
+        <v>495</v>
       </c>
       <c r="B138" t="s">
-        <v>489</v>
+        <v>496</v>
       </c>
       <c r="C138" t="s">
-        <v>490</v>
+        <v>497</v>
       </c>
       <c r="D138">
         <v>0</v>
@@ -9109,7 +9178,7 @@
         <v>0.98833265499932177</v>
       </c>
       <c r="G138" t="s">
-        <v>491</v>
+        <v>498</v>
       </c>
       <c r="H138">
         <v>0</v>
@@ -9126,13 +9195,13 @@
     </row>
     <row r="139" spans="1:11">
       <c r="A139" t="s">
-        <v>492</v>
+        <v>499</v>
       </c>
       <c r="B139" t="s">
-        <v>493</v>
+        <v>500</v>
       </c>
       <c r="C139" t="s">
-        <v>494</v>
+        <v>501</v>
       </c>
       <c r="D139">
         <v>0</v>
@@ -9144,7 +9213,7 @@
         <v>0.99582849153896436</v>
       </c>
       <c r="G139" t="s">
-        <v>495</v>
+        <v>502</v>
       </c>
       <c r="H139">
         <v>0.92</v>
@@ -9153,7 +9222,7 @@
         <v>0.95609999999999995</v>
       </c>
       <c r="J139" t="s">
-        <v>496</v>
+        <v>503</v>
       </c>
       <c r="K139">
         <v>0</v>
@@ -9161,13 +9230,13 @@
     </row>
     <row r="140" spans="1:11">
       <c r="A140" t="s">
-        <v>497</v>
+        <v>504</v>
       </c>
       <c r="B140" t="s">
-        <v>498</v>
+        <v>505</v>
       </c>
       <c r="C140" t="s">
-        <v>499</v>
+        <v>506</v>
       </c>
       <c r="D140">
         <v>0</v>
@@ -9179,7 +9248,7 @@
         <v>0.99784882571840816</v>
       </c>
       <c r="G140" t="s">
-        <v>500</v>
+        <v>507</v>
       </c>
       <c r="H140">
         <v>0.77</v>
@@ -9188,7 +9257,7 @@
         <v>0.95069999999999988</v>
       </c>
       <c r="J140" t="s">
-        <v>501</v>
+        <v>508</v>
       </c>
       <c r="K140">
         <v>0</v>
@@ -9196,13 +9265,13 @@
     </row>
     <row r="141" spans="1:11">
       <c r="A141" t="s">
-        <v>502</v>
+        <v>509</v>
       </c>
       <c r="B141" t="s">
-        <v>498</v>
+        <v>505</v>
       </c>
       <c r="C141" t="s">
-        <v>499</v>
+        <v>506</v>
       </c>
       <c r="D141">
         <v>0</v>
@@ -9214,7 +9283,7 @@
         <v>0.99784882571840816</v>
       </c>
       <c r="G141" t="s">
-        <v>500</v>
+        <v>507</v>
       </c>
       <c r="H141">
         <v>0.77</v>
@@ -9223,7 +9292,7 @@
         <v>0.95069999999999988</v>
       </c>
       <c r="J141" t="s">
-        <v>501</v>
+        <v>508</v>
       </c>
       <c r="K141">
         <v>0</v>
@@ -9231,13 +9300,13 @@
     </row>
     <row r="142" spans="1:11">
       <c r="A142" t="s">
-        <v>503</v>
+        <v>510</v>
       </c>
       <c r="B142" t="s">
-        <v>504</v>
+        <v>511</v>
       </c>
       <c r="C142" t="s">
-        <v>505</v>
+        <v>512</v>
       </c>
       <c r="D142">
         <v>0</v>
@@ -9249,7 +9318,7 @@
         <v>0.6762540466437631</v>
       </c>
       <c r="G142" t="s">
-        <v>506</v>
+        <v>513</v>
       </c>
       <c r="H142">
         <v>0.56999999999999995</v>
@@ -9258,7 +9327,7 @@
         <v>0.97250000000000003</v>
       </c>
       <c r="J142" t="s">
-        <v>507</v>
+        <v>514</v>
       </c>
       <c r="K142">
         <v>0</v>
@@ -9266,13 +9335,13 @@
     </row>
     <row r="143" spans="1:11">
       <c r="A143" t="s">
-        <v>508</v>
+        <v>515</v>
       </c>
       <c r="B143" t="s">
-        <v>509</v>
+        <v>516</v>
       </c>
       <c r="C143" t="s">
-        <v>510</v>
+        <v>517</v>
       </c>
       <c r="D143">
         <v>0</v>
@@ -9284,7 +9353,7 @@
         <v>0.99690437876548454</v>
       </c>
       <c r="G143" t="s">
-        <v>511</v>
+        <v>518</v>
       </c>
       <c r="H143">
         <v>0.76</v>
@@ -9293,7 +9362,7 @@
         <v>0.97629999999999995</v>
       </c>
       <c r="J143" t="s">
-        <v>512</v>
+        <v>519</v>
       </c>
       <c r="K143">
         <v>0</v>
@@ -9301,13 +9370,13 @@
     </row>
     <row r="144" spans="1:11">
       <c r="A144" t="s">
-        <v>513</v>
+        <v>520</v>
       </c>
       <c r="B144" t="s">
-        <v>514</v>
+        <v>521</v>
       </c>
       <c r="C144" t="s">
-        <v>515</v>
+        <v>522</v>
       </c>
       <c r="D144">
         <v>0</v>
@@ -9319,7 +9388,7 @@
         <v>0.43050730930670128</v>
       </c>
       <c r="G144" t="s">
-        <v>516</v>
+        <v>523</v>
       </c>
       <c r="H144">
         <v>0.22</v>
@@ -9328,7 +9397,7 @@
         <v>0.81120000000000003</v>
       </c>
       <c r="J144" t="s">
-        <v>517</v>
+        <v>524</v>
       </c>
       <c r="K144">
         <v>0</v>
@@ -9336,13 +9405,13 @@
     </row>
     <row r="145" spans="1:11">
       <c r="A145" t="s">
-        <v>518</v>
+        <v>525</v>
       </c>
       <c r="B145" t="s">
-        <v>519</v>
+        <v>526</v>
       </c>
       <c r="C145" t="s">
-        <v>520</v>
+        <v>527</v>
       </c>
       <c r="D145">
         <v>0</v>
@@ -9363,7 +9432,7 @@
         <v>0.92370000000000008</v>
       </c>
       <c r="J145" t="s">
-        <v>521</v>
+        <v>528</v>
       </c>
       <c r="K145">
         <v>0</v>
@@ -9371,13 +9440,13 @@
     </row>
     <row r="146" spans="1:11">
       <c r="A146" t="s">
-        <v>522</v>
+        <v>529</v>
       </c>
       <c r="B146" t="s">
-        <v>523</v>
+        <v>530</v>
       </c>
       <c r="C146" t="s">
-        <v>524</v>
+        <v>531</v>
       </c>
       <c r="D146">
         <v>0</v>
@@ -9389,7 +9458,7 @@
         <v>0.48453282828282829</v>
       </c>
       <c r="G146" t="s">
-        <v>525</v>
+        <v>532</v>
       </c>
       <c r="H146">
         <v>0.19</v>
@@ -9406,13 +9475,13 @@
     </row>
     <row r="147" spans="1:11">
       <c r="A147" t="s">
-        <v>526</v>
+        <v>533</v>
       </c>
       <c r="B147" t="s">
-        <v>527</v>
+        <v>534</v>
       </c>
       <c r="C147" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="D147">
         <v>0</v>
@@ -9424,7 +9493,7 @@
         <v>0.69024937734981062</v>
       </c>
       <c r="G147" t="s">
-        <v>529</v>
+        <v>536</v>
       </c>
       <c r="H147">
         <v>0.33</v>
@@ -9441,13 +9510,13 @@
     </row>
     <row r="148" spans="1:11">
       <c r="A148" t="s">
-        <v>530</v>
+        <v>537</v>
       </c>
       <c r="B148" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="C148" t="s">
-        <v>532</v>
+        <v>539</v>
       </c>
       <c r="D148">
         <v>0</v>
@@ -9459,7 +9528,7 @@
         <v>0.99309082058260589</v>
       </c>
       <c r="G148" t="s">
-        <v>533</v>
+        <v>540</v>
       </c>
       <c r="H148">
         <v>0.72</v>
@@ -9468,7 +9537,7 @@
         <v>0.89629999999999999</v>
       </c>
       <c r="J148" t="s">
-        <v>534</v>
+        <v>541</v>
       </c>
       <c r="K148">
         <v>0</v>
@@ -9476,13 +9545,13 @@
     </row>
     <row r="149" spans="1:11">
       <c r="A149" t="s">
-        <v>535</v>
+        <v>542</v>
       </c>
       <c r="B149" t="s">
-        <v>536</v>
+        <v>543</v>
       </c>
       <c r="C149" t="s">
-        <v>537</v>
+        <v>544</v>
       </c>
       <c r="D149">
         <v>0</v>
@@ -9494,7 +9563,7 @@
         <v>0.7382993344907407</v>
       </c>
       <c r="G149" t="s">
-        <v>538</v>
+        <v>545</v>
       </c>
       <c r="H149">
         <v>0.45</v>
@@ -9511,13 +9580,13 @@
     </row>
     <row r="150" spans="1:11">
       <c r="A150" t="s">
-        <v>539</v>
+        <v>546</v>
       </c>
       <c r="B150" t="s">
-        <v>540</v>
+        <v>547</v>
       </c>
       <c r="C150" t="s">
-        <v>541</v>
+        <v>548</v>
       </c>
       <c r="D150">
         <v>0</v>
@@ -9529,7 +9598,7 @@
         <v>0.99146041395281514</v>
       </c>
       <c r="G150" t="s">
-        <v>542</v>
+        <v>549</v>
       </c>
       <c r="H150">
         <v>0.6</v>
@@ -9538,7 +9607,7 @@
         <v>0.87560000000000004</v>
       </c>
       <c r="J150" t="s">
-        <v>543</v>
+        <v>550</v>
       </c>
       <c r="K150">
         <v>0</v>
@@ -9546,13 +9615,13 @@
     </row>
     <row r="151" spans="1:11">
       <c r="A151" t="s">
-        <v>544</v>
+        <v>551</v>
       </c>
       <c r="B151" t="s">
-        <v>545</v>
+        <v>552</v>
       </c>
       <c r="C151" t="s">
-        <v>545</v>
+        <v>552</v>
       </c>
       <c r="D151">
         <v>1</v>
@@ -9581,13 +9650,13 @@
     </row>
     <row r="152" spans="1:11">
       <c r="A152" t="s">
-        <v>546</v>
+        <v>553</v>
       </c>
       <c r="B152" t="s">
-        <v>547</v>
+        <v>554</v>
       </c>
       <c r="C152" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="D152">
         <v>0</v>
@@ -9599,7 +9668,7 @@
         <v>0.99989822918786897</v>
       </c>
       <c r="G152" t="s">
-        <v>491</v>
+        <v>498</v>
       </c>
       <c r="H152">
         <v>1</v>
@@ -9608,7 +9677,7 @@
         <v>1</v>
       </c>
       <c r="J152" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
       <c r="K152">
         <v>0</v>
@@ -9616,13 +9685,13 @@
     </row>
     <row r="153" spans="1:11">
       <c r="A153" t="s">
-        <v>550</v>
+        <v>557</v>
       </c>
       <c r="B153" t="s">
-        <v>551</v>
+        <v>558</v>
       </c>
       <c r="C153" t="s">
-        <v>552</v>
+        <v>559</v>
       </c>
       <c r="D153">
         <v>0</v>
@@ -9634,7 +9703,7 @@
         <v>0.92162956025711973</v>
       </c>
       <c r="G153" t="s">
-        <v>553</v>
+        <v>560</v>
       </c>
       <c r="H153">
         <v>0.46</v>
@@ -9643,7 +9712,7 @@
         <v>0.79090000000000005</v>
       </c>
       <c r="J153" t="s">
-        <v>554</v>
+        <v>561</v>
       </c>
       <c r="K153">
         <v>0</v>
@@ -9651,13 +9720,13 @@
     </row>
     <row r="154" spans="1:11">
       <c r="A154" t="s">
-        <v>555</v>
+        <v>562</v>
       </c>
       <c r="B154" t="s">
-        <v>556</v>
+        <v>563</v>
       </c>
       <c r="C154" t="s">
-        <v>557</v>
+        <v>564</v>
       </c>
       <c r="D154">
         <v>0</v>
@@ -9669,7 +9738,7 @@
         <v>0.99989822918786897</v>
       </c>
       <c r="G154" t="s">
-        <v>558</v>
+        <v>565</v>
       </c>
       <c r="H154">
         <v>1</v>
@@ -9686,13 +9755,13 @@
     </row>
     <row r="155" spans="1:11">
       <c r="A155" t="s">
-        <v>559</v>
+        <v>566</v>
       </c>
       <c r="B155" t="s">
-        <v>560</v>
+        <v>567</v>
       </c>
       <c r="C155" t="s">
-        <v>561</v>
+        <v>568</v>
       </c>
       <c r="D155">
         <v>0</v>
@@ -9704,7 +9773,7 @@
         <v>0.89871878799214444</v>
       </c>
       <c r="G155" t="s">
-        <v>562</v>
+        <v>569</v>
       </c>
       <c r="H155">
         <v>0.34</v>
@@ -9713,7 +9782,7 @@
         <v>0.70310000000000006</v>
       </c>
       <c r="J155" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="K155">
         <v>0</v>
@@ -9721,13 +9790,13 @@
     </row>
     <row r="156" spans="1:11">
       <c r="A156" t="s">
-        <v>564</v>
+        <v>571</v>
       </c>
       <c r="B156" t="s">
-        <v>565</v>
+        <v>572</v>
       </c>
       <c r="C156" t="s">
-        <v>552</v>
+        <v>559</v>
       </c>
       <c r="D156">
         <v>0</v>
@@ -9739,7 +9808,7 @@
         <v>0.84441489361702138</v>
       </c>
       <c r="G156" t="s">
-        <v>566</v>
+        <v>573</v>
       </c>
       <c r="H156">
         <v>0.27</v>
@@ -9748,7 +9817,7 @@
         <v>0.79090000000000005</v>
       </c>
       <c r="J156" t="s">
-        <v>554</v>
+        <v>561</v>
       </c>
       <c r="K156">
         <v>0</v>
@@ -9756,13 +9825,13 @@
     </row>
     <row r="157" spans="1:11">
       <c r="A157" t="s">
-        <v>567</v>
+        <v>574</v>
       </c>
       <c r="B157" t="s">
-        <v>568</v>
+        <v>575</v>
       </c>
       <c r="C157" t="s">
-        <v>569</v>
+        <v>576</v>
       </c>
       <c r="D157">
         <v>0</v>
@@ -9774,7 +9843,7 @@
         <v>0.75498575498575504</v>
       </c>
       <c r="G157" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
       <c r="H157">
         <v>0.56000000000000005</v>
@@ -9783,7 +9852,7 @@
         <v>0.86939999999999995</v>
       </c>
       <c r="J157" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
       <c r="K157">
         <v>0</v>
@@ -9791,13 +9860,13 @@
     </row>
     <row r="158" spans="1:11">
       <c r="A158" t="s">
-        <v>572</v>
+        <v>579</v>
       </c>
       <c r="B158" t="s">
-        <v>573</v>
+        <v>580</v>
       </c>
       <c r="C158" t="s">
-        <v>574</v>
+        <v>581</v>
       </c>
       <c r="D158">
         <v>0</v>
@@ -9809,7 +9878,7 @@
         <v>0.95031946435780013</v>
       </c>
       <c r="G158" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="H158">
         <v>0.44</v>
@@ -9818,7 +9887,7 @@
         <v>0.6653</v>
       </c>
       <c r="J158" t="s">
-        <v>576</v>
+        <v>583</v>
       </c>
       <c r="K158">
         <v>0</v>
@@ -9826,13 +9895,13 @@
     </row>
     <row r="159" spans="1:11">
       <c r="A159" t="s">
-        <v>577</v>
+        <v>584</v>
       </c>
       <c r="B159" t="s">
-        <v>578</v>
+        <v>585</v>
       </c>
       <c r="C159" t="s">
-        <v>579</v>
+        <v>586</v>
       </c>
       <c r="D159">
         <v>0</v>
@@ -9844,7 +9913,7 @@
         <v>0.9729625458792126</v>
       </c>
       <c r="G159" t="s">
-        <v>580</v>
+        <v>587</v>
       </c>
       <c r="H159">
         <v>0.94</v>
@@ -9853,7 +9922,7 @@
         <v>0.98819999999999997</v>
       </c>
       <c r="J159" t="s">
-        <v>581</v>
+        <v>588</v>
       </c>
       <c r="K159">
         <v>0</v>
@@ -9861,13 +9930,13 @@
     </row>
     <row r="160" spans="1:11">
       <c r="A160" t="s">
-        <v>582</v>
+        <v>589</v>
       </c>
       <c r="B160" t="s">
-        <v>583</v>
+        <v>590</v>
       </c>
       <c r="C160" t="s">
-        <v>584</v>
+        <v>591</v>
       </c>
       <c r="D160">
         <v>0</v>
@@ -9879,7 +9948,7 @@
         <v>0.99997459736828731</v>
       </c>
       <c r="G160" t="s">
-        <v>585</v>
+        <v>592</v>
       </c>
       <c r="H160">
         <v>1</v>
@@ -9896,13 +9965,13 @@
     </row>
     <row r="161" spans="1:11">
       <c r="A161" t="s">
-        <v>586</v>
+        <v>593</v>
       </c>
       <c r="B161" t="s">
-        <v>587</v>
+        <v>594</v>
       </c>
       <c r="C161" t="s">
-        <v>587</v>
+        <v>594</v>
       </c>
       <c r="D161">
         <v>1</v>
@@ -9931,13 +10000,13 @@
     </row>
     <row r="162" spans="1:11">
       <c r="A162" t="s">
-        <v>588</v>
+        <v>595</v>
       </c>
       <c r="B162" t="s">
-        <v>589</v>
+        <v>596</v>
       </c>
       <c r="C162" t="s">
-        <v>590</v>
+        <v>597</v>
       </c>
       <c r="D162">
         <v>0</v>
@@ -9949,7 +10018,7 @@
         <v>0.99768518518518523</v>
       </c>
       <c r="G162" t="s">
-        <v>591</v>
+        <v>598</v>
       </c>
       <c r="H162">
         <v>1</v>
@@ -9958,7 +10027,7 @@
         <v>1</v>
       </c>
       <c r="J162" t="s">
-        <v>592</v>
+        <v>599</v>
       </c>
       <c r="K162">
         <v>0</v>
@@ -9966,13 +10035,13 @@
     </row>
     <row r="163" spans="1:11">
       <c r="A163" t="s">
-        <v>593</v>
+        <v>600</v>
       </c>
       <c r="B163" t="s">
-        <v>594</v>
+        <v>601</v>
       </c>
       <c r="C163" t="s">
-        <v>595</v>
+        <v>602</v>
       </c>
       <c r="D163">
         <v>0</v>
@@ -9984,7 +10053,7 @@
         <v>0.96293556870479957</v>
       </c>
       <c r="G163" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="H163">
         <v>0.81</v>
@@ -9993,7 +10062,7 @@
         <v>0.96499999999999997</v>
       </c>
       <c r="J163" t="s">
-        <v>597</v>
+        <v>604</v>
       </c>
       <c r="K163">
         <v>0</v>
@@ -10001,13 +10070,13 @@
     </row>
     <row r="164" spans="1:11">
       <c r="A164" t="s">
-        <v>598</v>
+        <v>605</v>
       </c>
       <c r="B164" t="s">
-        <v>599</v>
+        <v>606</v>
       </c>
       <c r="C164" t="s">
-        <v>600</v>
+        <v>607</v>
       </c>
       <c r="D164">
         <v>0</v>
@@ -10019,7 +10088,7 @@
         <v>0.6110630526720493</v>
       </c>
       <c r="G164" t="s">
-        <v>601</v>
+        <v>608</v>
       </c>
       <c r="H164">
         <v>0.44</v>
@@ -10028,7 +10097,7 @@
         <v>0.73980000000000001</v>
       </c>
       <c r="J164" t="s">
-        <v>602</v>
+        <v>609</v>
       </c>
       <c r="K164">
         <v>0</v>
@@ -10036,13 +10105,13 @@
     </row>
     <row r="165" spans="1:11">
       <c r="A165" t="s">
-        <v>603</v>
+        <v>610</v>
       </c>
       <c r="B165" t="s">
-        <v>604</v>
+        <v>611</v>
       </c>
       <c r="C165" t="s">
-        <v>604</v>
+        <v>611</v>
       </c>
       <c r="D165">
         <v>1</v>
@@ -10071,13 +10140,13 @@
     </row>
     <row r="166" spans="1:11">
       <c r="A166" t="s">
-        <v>605</v>
+        <v>612</v>
       </c>
       <c r="B166" t="s">
-        <v>606</v>
+        <v>613</v>
       </c>
       <c r="C166" t="s">
-        <v>606</v>
+        <v>613</v>
       </c>
       <c r="D166">
         <v>1</v>
@@ -10106,13 +10175,13 @@
     </row>
     <row r="167" spans="1:11">
       <c r="A167" t="s">
-        <v>607</v>
+        <v>614</v>
       </c>
       <c r="B167" t="s">
-        <v>608</v>
+        <v>615</v>
       </c>
       <c r="C167" t="s">
-        <v>608</v>
+        <v>615</v>
       </c>
       <c r="D167">
         <v>1</v>
@@ -10141,13 +10210,13 @@
     </row>
     <row r="168" spans="1:11">
       <c r="A168" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="B168" t="s">
-        <v>610</v>
+        <v>617</v>
       </c>
       <c r="C168" t="s">
-        <v>611</v>
+        <v>618</v>
       </c>
       <c r="D168">
         <v>0</v>
@@ -10159,7 +10228,7 @@
         <v>0.84370333499253347</v>
       </c>
       <c r="G168" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="H168">
         <v>1</v>
@@ -10176,13 +10245,13 @@
     </row>
     <row r="169" spans="1:11">
       <c r="A169" t="s">
-        <v>613</v>
+        <v>620</v>
       </c>
       <c r="B169" t="s">
-        <v>614</v>
+        <v>621</v>
       </c>
       <c r="C169" t="s">
-        <v>614</v>
+        <v>621</v>
       </c>
       <c r="D169">
         <v>1</v>
@@ -10211,13 +10280,13 @@
     </row>
     <row r="170" spans="1:11">
       <c r="A170" t="s">
-        <v>615</v>
+        <v>622</v>
       </c>
       <c r="B170" t="s">
-        <v>616</v>
+        <v>623</v>
       </c>
       <c r="C170" t="s">
-        <v>616</v>
+        <v>623</v>
       </c>
       <c r="D170">
         <v>1</v>
@@ -10246,13 +10315,13 @@
     </row>
     <row r="171" spans="1:11">
       <c r="A171" t="s">
-        <v>617</v>
+        <v>624</v>
       </c>
       <c r="B171" t="s">
-        <v>618</v>
+        <v>625</v>
       </c>
       <c r="C171" t="s">
-        <v>618</v>
+        <v>625</v>
       </c>
       <c r="D171">
         <v>1</v>
@@ -10281,13 +10350,13 @@
     </row>
     <row r="172" spans="1:11">
       <c r="A172" t="s">
-        <v>619</v>
+        <v>626</v>
       </c>
       <c r="B172" t="s">
-        <v>620</v>
+        <v>627</v>
       </c>
       <c r="C172" t="s">
-        <v>620</v>
+        <v>627</v>
       </c>
       <c r="D172">
         <v>1</v>
@@ -10316,13 +10385,13 @@
     </row>
     <row r="173" spans="1:11">
       <c r="A173" t="s">
-        <v>621</v>
+        <v>628</v>
       </c>
       <c r="B173" t="s">
-        <v>622</v>
+        <v>629</v>
       </c>
       <c r="C173" t="s">
-        <v>622</v>
+        <v>629</v>
       </c>
       <c r="D173">
         <v>1</v>
@@ -10351,13 +10420,13 @@
     </row>
     <row r="174" spans="1:11">
       <c r="A174" t="s">
-        <v>623</v>
+        <v>630</v>
       </c>
       <c r="B174" t="s">
-        <v>624</v>
+        <v>631</v>
       </c>
       <c r="C174" t="s">
-        <v>624</v>
+        <v>631</v>
       </c>
       <c r="D174">
         <v>1</v>
@@ -10386,13 +10455,13 @@
     </row>
     <row r="175" spans="1:11">
       <c r="A175" t="s">
-        <v>625</v>
+        <v>632</v>
       </c>
       <c r="B175" t="s">
-        <v>626</v>
+        <v>633</v>
       </c>
       <c r="C175" t="s">
-        <v>627</v>
+        <v>634</v>
       </c>
       <c r="D175">
         <v>0</v>
@@ -10404,7 +10473,7 @@
         <v>0.80942443581920065</v>
       </c>
       <c r="G175" t="s">
-        <v>628</v>
+        <v>635</v>
       </c>
       <c r="H175">
         <v>0.65</v>
@@ -10413,7 +10482,7 @@
         <v>0.70829999999999993</v>
       </c>
       <c r="J175" t="s">
-        <v>629</v>
+        <v>636</v>
       </c>
       <c r="K175">
         <v>0</v>
@@ -10421,13 +10490,13 @@
     </row>
     <row r="176" spans="1:11">
       <c r="A176" t="s">
-        <v>630</v>
+        <v>637</v>
       </c>
       <c r="B176" t="s">
-        <v>631</v>
+        <v>638</v>
       </c>
       <c r="C176" t="s">
-        <v>631</v>
+        <v>638</v>
       </c>
       <c r="D176">
         <v>1</v>
@@ -10456,13 +10525,13 @@
     </row>
     <row r="177" spans="1:11">
       <c r="A177" t="s">
-        <v>632</v>
+        <v>639</v>
       </c>
       <c r="B177" t="s">
-        <v>633</v>
+        <v>640</v>
       </c>
       <c r="C177" t="s">
-        <v>634</v>
+        <v>641</v>
       </c>
       <c r="D177">
         <v>0</v>
@@ -10474,7 +10543,7 @@
         <v>0.99971064814814814</v>
       </c>
       <c r="G177" t="s">
-        <v>635</v>
+        <v>642</v>
       </c>
       <c r="H177">
         <v>1</v>
@@ -10483,7 +10552,7 @@
         <v>1</v>
       </c>
       <c r="J177" t="s">
-        <v>636</v>
+        <v>643</v>
       </c>
       <c r="K177">
         <v>0</v>
@@ -10491,13 +10560,13 @@
     </row>
     <row r="178" spans="1:11">
       <c r="A178" t="s">
-        <v>637</v>
+        <v>644</v>
       </c>
       <c r="B178" t="s">
-        <v>638</v>
+        <v>645</v>
       </c>
       <c r="C178" t="s">
-        <v>639</v>
+        <v>646</v>
       </c>
       <c r="D178">
         <v>0</v>
@@ -10509,7 +10578,7 @@
         <v>0.99989822918786897</v>
       </c>
       <c r="G178" t="s">
-        <v>640</v>
+        <v>647</v>
       </c>
       <c r="H178">
         <v>1</v>
@@ -10526,13 +10595,13 @@
     </row>
     <row r="179" spans="1:11">
       <c r="A179" t="s">
-        <v>641</v>
+        <v>648</v>
       </c>
       <c r="B179" t="s">
-        <v>642</v>
+        <v>649</v>
       </c>
       <c r="C179" t="s">
-        <v>642</v>
+        <v>649</v>
       </c>
       <c r="D179">
         <v>1</v>
@@ -10561,13 +10630,13 @@
     </row>
     <row r="180" spans="1:11">
       <c r="A180" t="s">
-        <v>643</v>
+        <v>650</v>
       </c>
       <c r="B180" t="s">
-        <v>644</v>
+        <v>651</v>
       </c>
       <c r="C180" t="s">
-        <v>645</v>
+        <v>652</v>
       </c>
       <c r="D180">
         <v>0</v>
@@ -10579,7 +10648,7 @@
         <v>0.86601307189542487</v>
       </c>
       <c r="G180" t="s">
-        <v>646</v>
+        <v>653</v>
       </c>
       <c r="H180">
         <v>0</v>
@@ -10588,7 +10657,7 @@
         <v>0.93900000000000006</v>
       </c>
       <c r="J180" t="s">
-        <v>647</v>
+        <v>654</v>
       </c>
       <c r="K180">
         <v>0</v>
@@ -10596,13 +10665,13 @@
     </row>
     <row r="181" spans="1:11">
       <c r="A181" t="s">
-        <v>648</v>
+        <v>655</v>
       </c>
       <c r="B181" t="s">
-        <v>649</v>
+        <v>656</v>
       </c>
       <c r="C181" t="s">
-        <v>649</v>
+        <v>656</v>
       </c>
       <c r="D181">
         <v>1</v>
@@ -10631,13 +10700,13 @@
     </row>
     <row r="182" spans="1:11">
       <c r="A182" t="s">
-        <v>650</v>
+        <v>657</v>
       </c>
       <c r="B182" t="s">
-        <v>651</v>
+        <v>658</v>
       </c>
       <c r="C182" t="s">
-        <v>651</v>
+        <v>658</v>
       </c>
       <c r="D182">
         <v>1</v>
@@ -10666,13 +10735,13 @@
     </row>
     <row r="183" spans="1:11">
       <c r="A183" t="s">
-        <v>652</v>
+        <v>659</v>
       </c>
       <c r="B183" t="s">
-        <v>653</v>
+        <v>660</v>
       </c>
       <c r="C183" t="s">
-        <v>653</v>
+        <v>660</v>
       </c>
       <c r="D183">
         <v>1</v>
@@ -10701,13 +10770,13 @@
     </row>
     <row r="184" spans="1:11">
       <c r="A184" t="s">
-        <v>654</v>
+        <v>661</v>
       </c>
       <c r="B184" t="s">
-        <v>655</v>
+        <v>662</v>
       </c>
       <c r="C184" t="s">
-        <v>656</v>
+        <v>663</v>
       </c>
       <c r="D184">
         <v>0</v>
@@ -10719,7 +10788,7 @@
         <v>0.93532986111111116</v>
       </c>
       <c r="G184" t="s">
-        <v>657</v>
+        <v>664</v>
       </c>
       <c r="H184">
         <v>0.49</v>
@@ -10736,13 +10805,13 @@
     </row>
     <row r="185" spans="1:11">
       <c r="A185" t="s">
-        <v>658</v>
+        <v>665</v>
       </c>
       <c r="B185" t="s">
-        <v>659</v>
+        <v>666</v>
       </c>
       <c r="C185" t="s">
-        <v>660</v>
+        <v>667</v>
       </c>
       <c r="D185">
         <v>0</v>
@@ -10754,7 +10823,7 @@
         <v>0.93532986111111116</v>
       </c>
       <c r="G185" t="s">
-        <v>525</v>
+        <v>532</v>
       </c>
       <c r="H185">
         <v>0.49</v>
@@ -10771,13 +10840,13 @@
     </row>
     <row r="186" spans="1:11">
       <c r="A186" t="s">
-        <v>661</v>
+        <v>668</v>
       </c>
       <c r="B186" t="s">
-        <v>662</v>
+        <v>669</v>
       </c>
       <c r="C186" t="s">
-        <v>662</v>
+        <v>669</v>
       </c>
       <c r="D186">
         <v>1</v>
@@ -10806,13 +10875,13 @@
     </row>
     <row r="187" spans="1:11">
       <c r="A187" t="s">
-        <v>663</v>
+        <v>670</v>
       </c>
       <c r="B187" t="s">
-        <v>664</v>
+        <v>671</v>
       </c>
       <c r="C187" t="s">
-        <v>664</v>
+        <v>671</v>
       </c>
       <c r="D187">
         <v>1</v>
@@ -10841,13 +10910,13 @@
     </row>
     <row r="188" spans="1:11">
       <c r="A188" t="s">
-        <v>665</v>
+        <v>672</v>
       </c>
       <c r="B188" t="s">
-        <v>666</v>
+        <v>673</v>
       </c>
       <c r="C188" t="s">
-        <v>666</v>
+        <v>673</v>
       </c>
       <c r="D188">
         <v>1</v>
@@ -10876,13 +10945,13 @@
     </row>
     <row r="189" spans="1:11">
       <c r="A189" t="s">
-        <v>667</v>
+        <v>674</v>
       </c>
       <c r="B189" t="s">
-        <v>668</v>
+        <v>675</v>
       </c>
       <c r="C189" t="s">
-        <v>668</v>
+        <v>675</v>
       </c>
       <c r="D189">
         <v>1</v>
@@ -10911,13 +10980,13 @@
     </row>
     <row r="190" spans="1:11">
       <c r="A190" t="s">
-        <v>669</v>
+        <v>676</v>
       </c>
       <c r="B190" t="s">
-        <v>670</v>
+        <v>677</v>
       </c>
       <c r="C190" t="s">
-        <v>670</v>
+        <v>677</v>
       </c>
       <c r="D190">
         <v>1</v>
@@ -10946,13 +11015,13 @@
     </row>
     <row r="191" spans="1:11">
       <c r="A191" t="s">
-        <v>671</v>
+        <v>678</v>
       </c>
       <c r="B191" t="s">
-        <v>672</v>
+        <v>679</v>
       </c>
       <c r="C191" t="s">
-        <v>673</v>
+        <v>680</v>
       </c>
       <c r="D191">
         <v>0</v>
@@ -10964,7 +11033,7 @@
         <v>0.9244156318480643</v>
       </c>
       <c r="G191" t="s">
-        <v>674</v>
+        <v>681</v>
       </c>
       <c r="H191">
         <v>0.64</v>
@@ -10981,13 +11050,13 @@
     </row>
     <row r="192" spans="1:11">
       <c r="A192" t="s">
-        <v>675</v>
+        <v>682</v>
       </c>
       <c r="B192" t="s">
-        <v>676</v>
+        <v>683</v>
       </c>
       <c r="C192" t="s">
-        <v>676</v>
+        <v>683</v>
       </c>
       <c r="D192">
         <v>1</v>
@@ -11016,13 +11085,13 @@
     </row>
     <row r="193" spans="1:11">
       <c r="A193" t="s">
-        <v>677</v>
+        <v>684</v>
       </c>
       <c r="B193" t="s">
-        <v>678</v>
+        <v>685</v>
       </c>
       <c r="C193" t="s">
-        <v>678</v>
+        <v>685</v>
       </c>
       <c r="D193">
         <v>1</v>
@@ -11051,13 +11120,13 @@
     </row>
     <row r="194" spans="1:11">
       <c r="A194" t="s">
-        <v>679</v>
+        <v>686</v>
       </c>
       <c r="B194" t="s">
-        <v>680</v>
+        <v>687</v>
       </c>
       <c r="C194" t="s">
-        <v>680</v>
+        <v>687</v>
       </c>
       <c r="D194">
         <v>1</v>
@@ -11086,13 +11155,13 @@
     </row>
     <row r="195" spans="1:11">
       <c r="A195" t="s">
-        <v>681</v>
+        <v>688</v>
       </c>
       <c r="B195" t="s">
-        <v>682</v>
+        <v>689</v>
       </c>
       <c r="C195" t="s">
-        <v>682</v>
+        <v>689</v>
       </c>
       <c r="D195">
         <v>1</v>
@@ -11121,13 +11190,13 @@
     </row>
     <row r="196" spans="1:11">
       <c r="A196" t="s">
-        <v>683</v>
+        <v>690</v>
       </c>
       <c r="B196" t="s">
-        <v>684</v>
+        <v>691</v>
       </c>
       <c r="C196" t="s">
-        <v>684</v>
+        <v>691</v>
       </c>
       <c r="D196">
         <v>1</v>
@@ -11156,13 +11225,13 @@
     </row>
     <row r="197" spans="1:11">
       <c r="A197" t="s">
-        <v>685</v>
+        <v>692</v>
       </c>
       <c r="B197" t="s">
-        <v>686</v>
+        <v>693</v>
       </c>
       <c r="C197" t="s">
-        <v>686</v>
+        <v>693</v>
       </c>
       <c r="D197">
         <v>1</v>
@@ -11191,13 +11260,13 @@
     </row>
     <row r="198" spans="1:11">
       <c r="A198" t="s">
-        <v>687</v>
+        <v>694</v>
       </c>
       <c r="B198" t="s">
-        <v>688</v>
+        <v>695</v>
       </c>
       <c r="C198" t="s">
-        <v>688</v>
+        <v>695</v>
       </c>
       <c r="D198">
         <v>1</v>
@@ -11226,13 +11295,13 @@
     </row>
     <row r="199" spans="1:11">
       <c r="A199" t="s">
-        <v>689</v>
+        <v>696</v>
       </c>
       <c r="B199" t="s">
-        <v>690</v>
+        <v>697</v>
       </c>
       <c r="C199" t="s">
-        <v>691</v>
+        <v>698</v>
       </c>
       <c r="D199">
         <v>0</v>
@@ -11244,7 +11313,7 @@
         <v>0.88554720133667497</v>
       </c>
       <c r="G199" t="s">
-        <v>692</v>
+        <v>699</v>
       </c>
       <c r="H199">
         <v>0.41</v>
@@ -11253,7 +11322,7 @@
         <v>0.59560000000000002</v>
       </c>
       <c r="J199" t="s">
-        <v>693</v>
+        <v>700</v>
       </c>
       <c r="K199">
         <v>0</v>
@@ -11261,13 +11330,13 @@
     </row>
     <row r="200" spans="1:11">
       <c r="A200" t="s">
-        <v>694</v>
+        <v>701</v>
       </c>
       <c r="B200" t="s">
-        <v>695</v>
+        <v>702</v>
       </c>
       <c r="C200" t="s">
-        <v>696</v>
+        <v>703</v>
       </c>
       <c r="D200">
         <v>0</v>
@@ -11279,7 +11348,7 @@
         <v>0.44856459330143528</v>
       </c>
       <c r="G200" t="s">
-        <v>697</v>
+        <v>704</v>
       </c>
       <c r="H200">
         <v>0</v>
@@ -11288,7 +11357,7 @@
         <v>0.82550000000000001</v>
       </c>
       <c r="J200" t="s">
-        <v>698</v>
+        <v>705</v>
       </c>
       <c r="K200">
         <v>0</v>
@@ -11296,13 +11365,13 @@
     </row>
     <row r="201" spans="1:11">
       <c r="A201" t="s">
-        <v>699</v>
+        <v>706</v>
       </c>
       <c r="B201" t="s">
-        <v>700</v>
+        <v>707</v>
       </c>
       <c r="C201" t="s">
-        <v>701</v>
+        <v>708</v>
       </c>
       <c r="D201">
         <v>0</v>
@@ -11314,7 +11383,7 @@
         <v>0.93829296424452135</v>
       </c>
       <c r="G201" t="s">
-        <v>702</v>
+        <v>709</v>
       </c>
       <c r="H201">
         <v>0.68</v>
@@ -11323,7 +11392,7 @@
         <v>1</v>
       </c>
       <c r="J201" t="s">
-        <v>703</v>
+        <v>710</v>
       </c>
       <c r="K201">
         <v>0</v>
@@ -11331,13 +11400,13 @@
     </row>
     <row r="202" spans="1:11">
       <c r="A202" t="s">
-        <v>704</v>
+        <v>711</v>
       </c>
       <c r="B202" t="s">
-        <v>705</v>
+        <v>712</v>
       </c>
       <c r="C202" t="s">
-        <v>706</v>
+        <v>713</v>
       </c>
       <c r="D202">
         <v>0</v>
@@ -11349,7 +11418,7 @@
         <v>0.76138561631791823</v>
       </c>
       <c r="G202" t="s">
-        <v>707</v>
+        <v>714</v>
       </c>
       <c r="H202">
         <v>0.28000000000000003</v>
@@ -11358,7 +11427,7 @@
         <v>0.51049999999999995</v>
       </c>
       <c r="J202" t="s">
-        <v>708</v>
+        <v>715</v>
       </c>
       <c r="K202">
         <v>0</v>
@@ -11366,13 +11435,13 @@
     </row>
     <row r="203" spans="1:11">
       <c r="A203" t="s">
-        <v>709</v>
+        <v>716</v>
       </c>
       <c r="B203" t="s">
-        <v>710</v>
+        <v>717</v>
       </c>
       <c r="C203" t="s">
-        <v>711</v>
+        <v>718</v>
       </c>
       <c r="D203">
         <v>0</v>
@@ -11384,7 +11453,7 @@
         <v>0.71009825633550128</v>
       </c>
       <c r="G203" t="s">
-        <v>712</v>
+        <v>719</v>
       </c>
       <c r="H203">
         <v>0.3</v>
@@ -11393,7 +11462,7 @@
         <v>0.69379999999999997</v>
       </c>
       <c r="J203" t="s">
-        <v>713</v>
+        <v>720</v>
       </c>
       <c r="K203">
         <v>0</v>
@@ -11401,13 +11470,13 @@
     </row>
     <row r="204" spans="1:11">
       <c r="A204" t="s">
-        <v>714</v>
+        <v>721</v>
       </c>
       <c r="B204" t="s">
-        <v>715</v>
+        <v>722</v>
       </c>
       <c r="C204" t="s">
-        <v>716</v>
+        <v>723</v>
       </c>
       <c r="D204">
         <v>0</v>
@@ -11419,7 +11488,7 @@
         <v>0.91097560975609748</v>
       </c>
       <c r="G204" t="s">
-        <v>635</v>
+        <v>642</v>
       </c>
       <c r="H204">
         <v>0.74</v>
@@ -11428,7 +11497,7 @@
         <v>0.87780000000000002</v>
       </c>
       <c r="J204" t="s">
-        <v>717</v>
+        <v>724</v>
       </c>
       <c r="K204">
         <v>0</v>
@@ -11436,13 +11505,13 @@
     </row>
     <row r="205" spans="1:11">
       <c r="A205" t="s">
-        <v>718</v>
+        <v>725</v>
       </c>
       <c r="B205" t="s">
-        <v>719</v>
+        <v>726</v>
       </c>
       <c r="C205" t="s">
-        <v>720</v>
+        <v>727</v>
       </c>
       <c r="D205">
         <v>0</v>
@@ -11454,7 +11523,7 @@
         <v>8.8888888888888892E-2</v>
       </c>
       <c r="G205" t="s">
-        <v>721</v>
+        <v>728</v>
       </c>
       <c r="H205">
         <v>0.08</v>
@@ -11463,7 +11532,7 @@
         <v>0.87819999999999998</v>
       </c>
       <c r="J205" t="s">
-        <v>722</v>
+        <v>729</v>
       </c>
       <c r="K205">
         <v>0</v>
@@ -11471,13 +11540,13 @@
     </row>
     <row r="206" spans="1:11">
       <c r="A206" t="s">
-        <v>723</v>
+        <v>730</v>
       </c>
       <c r="B206" t="s">
-        <v>719</v>
+        <v>726</v>
       </c>
       <c r="C206" t="s">
-        <v>724</v>
+        <v>731</v>
       </c>
       <c r="D206">
         <v>0</v>
@@ -11489,7 +11558,7 @@
         <v>6.6518847006651879E-2</v>
       </c>
       <c r="G206" t="s">
-        <v>721</v>
+        <v>728</v>
       </c>
       <c r="H206">
         <v>0.08</v>
@@ -11498,7 +11567,7 @@
         <v>0.4642</v>
       </c>
       <c r="J206" t="s">
-        <v>725</v>
+        <v>732</v>
       </c>
       <c r="K206">
         <v>0</v>
@@ -11506,13 +11575,13 @@
     </row>
     <row r="207" spans="1:11">
       <c r="A207" t="s">
-        <v>726</v>
+        <v>733</v>
       </c>
       <c r="B207" t="s">
-        <v>727</v>
+        <v>734</v>
       </c>
       <c r="C207" t="s">
-        <v>728</v>
+        <v>735</v>
       </c>
       <c r="D207">
         <v>0</v>
@@ -11524,7 +11593,7 @@
         <v>0.83604522267319026</v>
       </c>
       <c r="G207" t="s">
-        <v>729</v>
+        <v>736</v>
       </c>
       <c r="H207">
         <v>0.68</v>
@@ -11533,7 +11602,7 @@
         <v>0.89659999999999995</v>
       </c>
       <c r="J207" t="s">
-        <v>730</v>
+        <v>737</v>
       </c>
       <c r="K207">
         <v>0</v>
@@ -11541,13 +11610,13 @@
     </row>
     <row r="208" spans="1:11">
       <c r="A208" t="s">
-        <v>731</v>
+        <v>738</v>
       </c>
       <c r="B208" t="s">
-        <v>732</v>
+        <v>739</v>
       </c>
       <c r="C208" t="s">
-        <v>733</v>
+        <v>740</v>
       </c>
       <c r="D208">
         <v>0</v>
@@ -11559,7 +11628,7 @@
         <v>0.40426361627453522</v>
       </c>
       <c r="G208" t="s">
-        <v>734</v>
+        <v>741</v>
       </c>
       <c r="H208">
         <v>0.14000000000000001</v>
@@ -11568,7 +11637,7 @@
         <v>0.39850000000000002</v>
       </c>
       <c r="J208" t="s">
-        <v>735</v>
+        <v>742</v>
       </c>
       <c r="K208">
         <v>0</v>
@@ -11576,13 +11645,13 @@
     </row>
     <row r="209" spans="1:11">
       <c r="A209" t="s">
-        <v>736</v>
+        <v>743</v>
       </c>
       <c r="B209" t="s">
-        <v>737</v>
+        <v>744</v>
       </c>
       <c r="C209" t="s">
-        <v>738</v>
+        <v>745</v>
       </c>
       <c r="D209">
         <v>0</v>
@@ -11594,7 +11663,7 @@
         <v>0.42501822157434388</v>
       </c>
       <c r="G209" t="s">
-        <v>739</v>
+        <v>746</v>
       </c>
       <c r="H209">
         <v>0.13</v>
@@ -11603,7 +11672,7 @@
         <v>0.74309999999999998</v>
       </c>
       <c r="J209" t="s">
-        <v>740</v>
+        <v>747</v>
       </c>
       <c r="K209">
         <v>0</v>
@@ -11611,13 +11680,13 @@
     </row>
     <row r="210" spans="1:11">
       <c r="A210" t="s">
-        <v>741</v>
+        <v>748</v>
       </c>
       <c r="B210" t="s">
-        <v>742</v>
+        <v>749</v>
       </c>
       <c r="C210" t="s">
-        <v>743</v>
+        <v>750</v>
       </c>
       <c r="D210">
         <v>0</v>
@@ -11629,7 +11698,7 @@
         <v>0.76005746690954712</v>
       </c>
       <c r="G210" t="s">
-        <v>744</v>
+        <v>751</v>
       </c>
       <c r="H210">
         <v>0.54</v>
@@ -11638,7 +11707,7 @@
         <v>0.88890000000000002</v>
       </c>
       <c r="J210" t="s">
-        <v>745</v>
+        <v>752</v>
       </c>
       <c r="K210">
         <v>0</v>
@@ -11646,13 +11715,13 @@
     </row>
     <row r="211" spans="1:11">
       <c r="A211" t="s">
-        <v>746</v>
+        <v>753</v>
       </c>
       <c r="B211" t="s">
-        <v>747</v>
+        <v>754</v>
       </c>
       <c r="C211" t="s">
-        <v>747</v>
+        <v>754</v>
       </c>
       <c r="D211">
         <v>1</v>
@@ -11681,13 +11750,13 @@
     </row>
     <row r="212" spans="1:11">
       <c r="A212" t="s">
-        <v>748</v>
+        <v>755</v>
       </c>
       <c r="B212" t="s">
-        <v>749</v>
+        <v>756</v>
       </c>
       <c r="C212" t="s">
-        <v>749</v>
+        <v>756</v>
       </c>
       <c r="D212">
         <v>1</v>
@@ -11716,13 +11785,13 @@
     </row>
     <row r="213" spans="1:11">
       <c r="A213" t="s">
-        <v>750</v>
+        <v>757</v>
       </c>
       <c r="B213" t="s">
-        <v>751</v>
+        <v>758</v>
       </c>
       <c r="C213" t="s">
-        <v>751</v>
+        <v>758</v>
       </c>
       <c r="D213">
         <v>1</v>
@@ -11751,13 +11820,13 @@
     </row>
     <row r="214" spans="1:11">
       <c r="A214" t="s">
-        <v>752</v>
+        <v>759</v>
       </c>
       <c r="B214" t="s">
-        <v>753</v>
+        <v>760</v>
       </c>
       <c r="C214" t="s">
-        <v>754</v>
+        <v>761</v>
       </c>
       <c r="D214">
         <v>0</v>
@@ -11769,7 +11838,7 @@
         <v>0.92688081149619617</v>
       </c>
       <c r="G214" t="s">
-        <v>755</v>
+        <v>762</v>
       </c>
       <c r="H214">
         <v>0.69</v>
@@ -11778,7 +11847,7 @@
         <v>0.89500000000000002</v>
       </c>
       <c r="J214" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="K214">
         <v>0</v>
@@ -11786,13 +11855,13 @@
     </row>
     <row r="215" spans="1:11">
       <c r="A215" t="s">
-        <v>756</v>
+        <v>763</v>
       </c>
       <c r="B215" t="s">
-        <v>757</v>
+        <v>764</v>
       </c>
       <c r="C215" t="s">
-        <v>758</v>
+        <v>765</v>
       </c>
       <c r="D215">
         <v>0</v>
@@ -11804,7 +11873,7 @@
         <v>0.6463768115942029</v>
       </c>
       <c r="G215" t="s">
-        <v>759</v>
+        <v>766</v>
       </c>
       <c r="H215">
         <v>0.14000000000000001</v>
@@ -11813,7 +11882,7 @@
         <v>0.88170000000000004</v>
       </c>
       <c r="J215" t="s">
-        <v>760</v>
+        <v>767</v>
       </c>
       <c r="K215">
         <v>0</v>
@@ -11821,13 +11890,13 @@
     </row>
     <row r="216" spans="1:11">
       <c r="A216" t="s">
-        <v>761</v>
+        <v>768</v>
       </c>
       <c r="B216" t="s">
-        <v>762</v>
+        <v>769</v>
       </c>
       <c r="C216" t="s">
-        <v>763</v>
+        <v>770</v>
       </c>
       <c r="D216">
         <v>0</v>
@@ -11839,7 +11908,7 @@
         <v>0.7947059528087197</v>
       </c>
       <c r="G216" t="s">
-        <v>764</v>
+        <v>771</v>
       </c>
       <c r="H216">
         <v>0.69</v>
@@ -11848,7 +11917,7 @@
         <v>0.90959999999999996</v>
       </c>
       <c r="J216" t="s">
-        <v>765</v>
+        <v>772</v>
       </c>
       <c r="K216">
         <v>0</v>
@@ -11856,13 +11925,13 @@
     </row>
     <row r="217" spans="1:11">
       <c r="A217" t="s">
-        <v>766</v>
+        <v>773</v>
       </c>
       <c r="B217" t="s">
-        <v>767</v>
+        <v>774</v>
       </c>
       <c r="C217" t="s">
-        <v>768</v>
+        <v>775</v>
       </c>
       <c r="D217">
         <v>0</v>
@@ -11874,7 +11943,7 @@
         <v>0.52686803357644141</v>
       </c>
       <c r="G217" t="s">
-        <v>769</v>
+        <v>776</v>
       </c>
       <c r="H217">
         <v>0.33</v>
@@ -11883,7 +11952,7 @@
         <v>0.78839999999999999</v>
       </c>
       <c r="J217" t="s">
-        <v>770</v>
+        <v>777</v>
       </c>
       <c r="K217">
         <v>0</v>
@@ -11891,13 +11960,13 @@
     </row>
     <row r="218" spans="1:11">
       <c r="A218" t="s">
-        <v>771</v>
+        <v>778</v>
       </c>
       <c r="B218" t="s">
-        <v>772</v>
+        <v>779</v>
       </c>
       <c r="C218" t="s">
-        <v>773</v>
+        <v>780</v>
       </c>
       <c r="D218">
         <v>0</v>
@@ -11909,7 +11978,7 @@
         <v>0.73827261087184259</v>
       </c>
       <c r="G218" t="s">
-        <v>774</v>
+        <v>781</v>
       </c>
       <c r="H218">
         <v>0.45</v>
@@ -11918,7 +11987,7 @@
         <v>0.82950000000000002</v>
       </c>
       <c r="J218" t="s">
-        <v>770</v>
+        <v>777</v>
       </c>
       <c r="K218">
         <v>0</v>
@@ -11926,13 +11995,13 @@
     </row>
     <row r="219" spans="1:11">
       <c r="A219" t="s">
-        <v>775</v>
+        <v>782</v>
       </c>
       <c r="B219" t="s">
-        <v>776</v>
+        <v>783</v>
       </c>
       <c r="C219" t="s">
-        <v>777</v>
+        <v>784</v>
       </c>
       <c r="D219">
         <v>0</v>
@@ -11944,7 +12013,7 @@
         <v>0.73827261087184259</v>
       </c>
       <c r="G219" t="s">
-        <v>778</v>
+        <v>785</v>
       </c>
       <c r="H219">
         <v>0.51</v>
@@ -11953,7 +12022,7 @@
         <v>0.73080000000000001</v>
       </c>
       <c r="J219" t="s">
-        <v>770</v>
+        <v>777</v>
       </c>
       <c r="K219">
         <v>0</v>
@@ -11961,13 +12030,13 @@
     </row>
     <row r="220" spans="1:11">
       <c r="A220" t="s">
-        <v>779</v>
+        <v>786</v>
       </c>
       <c r="B220" t="s">
-        <v>780</v>
+        <v>787</v>
       </c>
       <c r="C220" t="s">
-        <v>781</v>
+        <v>788</v>
       </c>
       <c r="D220">
         <v>0</v>
@@ -11979,7 +12048,7 @@
         <v>0.7947059528087197</v>
       </c>
       <c r="G220" t="s">
-        <v>782</v>
+        <v>789</v>
       </c>
       <c r="H220">
         <v>0.69</v>
@@ -11988,7 +12057,7 @@
         <v>0.83939999999999992</v>
       </c>
       <c r="J220" t="s">
-        <v>765</v>
+        <v>772</v>
       </c>
       <c r="K220">
         <v>0</v>
@@ -11996,13 +12065,13 @@
     </row>
     <row r="221" spans="1:11">
       <c r="A221" t="s">
-        <v>783</v>
+        <v>790</v>
       </c>
       <c r="B221" t="s">
-        <v>784</v>
+        <v>791</v>
       </c>
       <c r="C221" t="s">
-        <v>784</v>
+        <v>791</v>
       </c>
       <c r="D221">
         <v>1</v>
@@ -12031,13 +12100,13 @@
     </row>
     <row r="222" spans="1:11">
       <c r="A222" t="s">
-        <v>785</v>
+        <v>792</v>
       </c>
       <c r="B222" t="s">
-        <v>786</v>
+        <v>793</v>
       </c>
       <c r="C222" t="s">
-        <v>787</v>
+        <v>794</v>
       </c>
       <c r="D222">
         <v>0</v>
@@ -12049,7 +12118,7 @@
         <v>0.98148148148148151</v>
       </c>
       <c r="G222" t="s">
-        <v>788</v>
+        <v>795</v>
       </c>
       <c r="H222">
         <v>0.59</v>
@@ -12066,13 +12135,13 @@
     </row>
     <row r="223" spans="1:11">
       <c r="A223" t="s">
-        <v>789</v>
+        <v>796</v>
       </c>
       <c r="B223" t="s">
-        <v>784</v>
+        <v>791</v>
       </c>
       <c r="C223" t="s">
-        <v>790</v>
+        <v>797</v>
       </c>
       <c r="D223">
         <v>0</v>
@@ -12093,7 +12162,7 @@
         <v>0.95540000000000003</v>
       </c>
       <c r="J223" t="s">
-        <v>791</v>
+        <v>798</v>
       </c>
       <c r="K223">
         <v>0</v>
@@ -12101,13 +12170,13 @@
     </row>
     <row r="224" spans="1:11">
       <c r="A224" t="s">
-        <v>792</v>
+        <v>799</v>
       </c>
       <c r="B224" t="s">
-        <v>793</v>
+        <v>800</v>
       </c>
       <c r="C224" t="s">
-        <v>794</v>
+        <v>801</v>
       </c>
       <c r="D224">
         <v>0</v>
@@ -12119,7 +12188,7 @@
         <v>0.49097772930794348</v>
       </c>
       <c r="G224" t="s">
-        <v>795</v>
+        <v>802</v>
       </c>
       <c r="H224">
         <v>0.2</v>
@@ -12128,7 +12197,7 @@
         <v>0.95180000000000009</v>
       </c>
       <c r="J224" t="s">
-        <v>796</v>
+        <v>803</v>
       </c>
       <c r="K224">
         <v>0</v>
@@ -12136,13 +12205,13 @@
     </row>
     <row r="225" spans="1:11">
       <c r="A225" t="s">
-        <v>797</v>
+        <v>804</v>
       </c>
       <c r="B225" t="s">
-        <v>798</v>
+        <v>805</v>
       </c>
       <c r="C225" t="s">
-        <v>799</v>
+        <v>806</v>
       </c>
       <c r="D225">
         <v>0</v>
@@ -12154,7 +12223,7 @@
         <v>0.27755604075691409</v>
       </c>
       <c r="G225" t="s">
-        <v>800</v>
+        <v>807</v>
       </c>
       <c r="H225">
         <v>0.05</v>
@@ -12163,7 +12232,7 @@
         <v>0.87049999999999994</v>
       </c>
       <c r="J225" t="s">
-        <v>801</v>
+        <v>808</v>
       </c>
       <c r="K225">
         <v>0</v>
@@ -12171,13 +12240,13 @@
     </row>
     <row r="226" spans="1:11">
       <c r="A226" t="s">
-        <v>802</v>
+        <v>809</v>
       </c>
       <c r="B226" t="s">
-        <v>803</v>
+        <v>810</v>
       </c>
       <c r="C226" t="s">
-        <v>804</v>
+        <v>811</v>
       </c>
       <c r="D226">
         <v>0</v>
@@ -12189,7 +12258,7 @@
         <v>0.65867520412974945</v>
       </c>
       <c r="G226" t="s">
-        <v>805</v>
+        <v>812</v>
       </c>
       <c r="H226">
         <v>0.37</v>
@@ -12198,7 +12267,7 @@
         <v>0.96889999999999998</v>
       </c>
       <c r="J226" t="s">
-        <v>806</v>
+        <v>813</v>
       </c>
       <c r="K226">
         <v>0</v>
@@ -12206,13 +12275,13 @@
     </row>
     <row r="227" spans="1:11">
       <c r="A227" t="s">
-        <v>807</v>
+        <v>814</v>
       </c>
       <c r="B227" t="s">
-        <v>808</v>
+        <v>815</v>
       </c>
       <c r="C227" t="s">
-        <v>808</v>
+        <v>815</v>
       </c>
       <c r="D227">
         <v>1</v>
@@ -12241,13 +12310,13 @@
     </row>
     <row r="228" spans="1:11">
       <c r="A228" t="s">
-        <v>809</v>
+        <v>816</v>
       </c>
       <c r="B228" t="s">
-        <v>810</v>
+        <v>817</v>
       </c>
       <c r="C228" t="s">
-        <v>811</v>
+        <v>818</v>
       </c>
       <c r="D228">
         <v>0</v>
@@ -12259,7 +12328,7 @@
         <v>0.16682546586852809</v>
       </c>
       <c r="G228" t="s">
-        <v>812</v>
+        <v>819</v>
       </c>
       <c r="H228">
         <v>0.03</v>
@@ -12268,7 +12337,7 @@
         <v>0.71569999999999989</v>
       </c>
       <c r="J228" t="s">
-        <v>813</v>
+        <v>820</v>
       </c>
       <c r="K228">
         <v>0</v>
@@ -12276,13 +12345,13 @@
     </row>
     <row r="229" spans="1:11">
       <c r="A229" t="s">
-        <v>814</v>
+        <v>821</v>
       </c>
       <c r="B229" t="s">
-        <v>815</v>
+        <v>822</v>
       </c>
       <c r="C229" t="s">
-        <v>816</v>
+        <v>823</v>
       </c>
       <c r="D229">
         <v>0</v>
@@ -12294,7 +12363,7 @@
         <v>0.82096733176166536</v>
       </c>
       <c r="G229" t="s">
-        <v>817</v>
+        <v>824</v>
       </c>
       <c r="H229">
         <v>0</v>
@@ -12303,7 +12372,7 @@
         <v>0.93730000000000002</v>
       </c>
       <c r="J229" t="s">
-        <v>818</v>
+        <v>825</v>
       </c>
       <c r="K229">
         <v>0</v>
@@ -12311,13 +12380,13 @@
     </row>
     <row r="230" spans="1:11">
       <c r="A230" t="s">
-        <v>819</v>
+        <v>826</v>
       </c>
       <c r="B230" t="s">
-        <v>820</v>
+        <v>827</v>
       </c>
       <c r="C230" t="s">
-        <v>821</v>
+        <v>828</v>
       </c>
       <c r="D230">
         <v>0</v>
@@ -12329,7 +12398,7 @@
         <v>0.27737352968664458</v>
       </c>
       <c r="G230" t="s">
-        <v>822</v>
+        <v>829</v>
       </c>
       <c r="H230">
         <v>0</v>
@@ -12338,7 +12407,7 @@
         <v>0.61799999999999999</v>
       </c>
       <c r="J230" t="s">
-        <v>823</v>
+        <v>830</v>
       </c>
       <c r="K230">
         <v>0</v>
@@ -12346,13 +12415,13 @@
     </row>
     <row r="231" spans="1:11">
       <c r="A231" t="s">
-        <v>824</v>
+        <v>831</v>
       </c>
       <c r="B231" t="s">
-        <v>825</v>
+        <v>832</v>
       </c>
       <c r="C231" t="s">
-        <v>826</v>
+        <v>833</v>
       </c>
       <c r="D231">
         <v>0</v>
@@ -12364,7 +12433,7 @@
         <v>0.89534564636420666</v>
       </c>
       <c r="G231" t="s">
-        <v>827</v>
+        <v>834</v>
       </c>
       <c r="H231">
         <v>0.51</v>
@@ -12373,7 +12442,7 @@
         <v>0.90599999999999992</v>
       </c>
       <c r="J231" t="s">
-        <v>828</v>
+        <v>835</v>
       </c>
       <c r="K231">
         <v>0</v>
@@ -12381,13 +12450,13 @@
     </row>
     <row r="232" spans="1:11">
       <c r="A232" t="s">
-        <v>829</v>
+        <v>836</v>
       </c>
       <c r="B232" t="s">
-        <v>830</v>
+        <v>837</v>
       </c>
       <c r="C232" t="s">
-        <v>831</v>
+        <v>838</v>
       </c>
       <c r="D232">
         <v>0</v>
@@ -12399,7 +12468,7 @@
         <v>0.16981635668396081</v>
       </c>
       <c r="G232" t="s">
-        <v>832</v>
+        <v>839</v>
       </c>
       <c r="H232">
         <v>0.03</v>
@@ -12408,7 +12477,7 @@
         <v>0.83550000000000002</v>
       </c>
       <c r="J232" t="s">
-        <v>833</v>
+        <v>840</v>
       </c>
       <c r="K232">
         <v>0</v>
@@ -12416,13 +12485,13 @@
     </row>
     <row r="233" spans="1:11">
       <c r="A233" t="s">
-        <v>834</v>
+        <v>841</v>
       </c>
       <c r="B233" t="s">
-        <v>835</v>
+        <v>842</v>
       </c>
       <c r="C233" t="s">
-        <v>836</v>
+        <v>843</v>
       </c>
       <c r="D233">
         <v>0</v>
@@ -12434,7 +12503,7 @@
         <v>0.1004648975558651</v>
       </c>
       <c r="G233" t="s">
-        <v>837</v>
+        <v>844</v>
       </c>
       <c r="H233">
         <v>0</v>
@@ -12443,7 +12512,7 @@
         <v>0.92189999999999994</v>
       </c>
       <c r="J233" t="s">
-        <v>838</v>
+        <v>845</v>
       </c>
       <c r="K233">
         <v>0</v>
@@ -12451,13 +12520,13 @@
     </row>
     <row r="234" spans="1:11">
       <c r="A234" t="s">
-        <v>839</v>
+        <v>846</v>
       </c>
       <c r="B234" t="s">
-        <v>840</v>
+        <v>847</v>
       </c>
       <c r="C234" t="s">
-        <v>841</v>
+        <v>848</v>
       </c>
       <c r="D234">
         <v>0</v>
@@ -12469,7 +12538,7 @@
         <v>0.124827859121488</v>
       </c>
       <c r="G234" t="s">
-        <v>842</v>
+        <v>849</v>
       </c>
       <c r="H234">
         <v>7.0000000000000007E-2</v>
@@ -12478,7 +12547,7 @@
         <v>0.83930000000000005</v>
       </c>
       <c r="J234" t="s">
-        <v>843</v>
+        <v>850</v>
       </c>
       <c r="K234">
         <v>0</v>
@@ -12486,13 +12555,13 @@
     </row>
     <row r="235" spans="1:11">
       <c r="A235" t="s">
-        <v>844</v>
+        <v>851</v>
       </c>
       <c r="B235" t="s">
-        <v>845</v>
+        <v>852</v>
       </c>
       <c r="C235" t="s">
-        <v>846</v>
+        <v>853</v>
       </c>
       <c r="D235">
         <v>0</v>
@@ -12504,7 +12573,7 @@
         <v>0.298013533069102</v>
       </c>
       <c r="G235" t="s">
-        <v>847</v>
+        <v>854</v>
       </c>
       <c r="H235">
         <v>0</v>
@@ -12513,7 +12582,7 @@
         <v>0.74250000000000005</v>
       </c>
       <c r="J235" t="s">
-        <v>848</v>
+        <v>855</v>
       </c>
       <c r="K235">
         <v>0</v>
@@ -12521,13 +12590,13 @@
     </row>
     <row r="236" spans="1:11">
       <c r="A236" t="s">
-        <v>849</v>
+        <v>856</v>
       </c>
       <c r="B236" t="s">
-        <v>850</v>
+        <v>857</v>
       </c>
       <c r="C236" t="s">
-        <v>851</v>
+        <v>858</v>
       </c>
       <c r="D236">
         <v>0</v>
@@ -12539,7 +12608,7 @@
         <v>0.37996325255940638</v>
       </c>
       <c r="G236" t="s">
-        <v>852</v>
+        <v>859</v>
       </c>
       <c r="H236">
         <v>0.2</v>
@@ -12548,7 +12617,7 @@
         <v>0.67830000000000001</v>
       </c>
       <c r="J236" t="s">
-        <v>853</v>
+        <v>860</v>
       </c>
       <c r="K236">
         <v>0</v>
@@ -12556,13 +12625,13 @@
     </row>
     <row r="237" spans="1:11">
       <c r="A237" t="s">
-        <v>854</v>
+        <v>861</v>
       </c>
       <c r="B237" t="s">
-        <v>855</v>
+        <v>862</v>
       </c>
       <c r="C237" t="s">
-        <v>856</v>
+        <v>863</v>
       </c>
       <c r="D237">
         <v>0</v>
@@ -12574,7 +12643,7 @@
         <v>0.45569919741260889</v>
       </c>
       <c r="G237" t="s">
-        <v>857</v>
+        <v>864</v>
       </c>
       <c r="H237">
         <v>0</v>
@@ -12583,7 +12652,7 @@
         <v>0.70950000000000002</v>
       </c>
       <c r="J237" t="s">
-        <v>858</v>
+        <v>865</v>
       </c>
       <c r="K237">
         <v>0</v>
@@ -12591,13 +12660,13 @@
     </row>
     <row r="238" spans="1:11">
       <c r="A238" t="s">
-        <v>859</v>
+        <v>866</v>
       </c>
       <c r="B238" t="s">
-        <v>860</v>
+        <v>867</v>
       </c>
       <c r="C238" t="s">
-        <v>861</v>
+        <v>868</v>
       </c>
       <c r="D238">
         <v>0</v>
@@ -12609,7 +12678,7 @@
         <v>0.70736905762791857</v>
       </c>
       <c r="G238" t="s">
-        <v>862</v>
+        <v>869</v>
       </c>
       <c r="H238">
         <v>0.16</v>
@@ -12618,7 +12687,7 @@
         <v>0.7752</v>
       </c>
       <c r="J238" t="s">
-        <v>863</v>
+        <v>870</v>
       </c>
       <c r="K238">
         <v>0</v>
@@ -12626,13 +12695,13 @@
     </row>
     <row r="239" spans="1:11">
       <c r="A239" t="s">
-        <v>864</v>
+        <v>871</v>
       </c>
       <c r="B239" t="s">
-        <v>865</v>
+        <v>872</v>
       </c>
       <c r="C239" t="s">
-        <v>866</v>
+        <v>873</v>
       </c>
       <c r="D239">
         <v>0</v>
@@ -12644,7 +12713,7 @@
         <v>0.27256789330652959</v>
       </c>
       <c r="G239" t="s">
-        <v>867</v>
+        <v>874</v>
       </c>
       <c r="H239">
         <v>0</v>
@@ -12653,7 +12722,7 @@
         <v>0.72129999999999994</v>
       </c>
       <c r="J239" t="s">
-        <v>868</v>
+        <v>875</v>
       </c>
       <c r="K239">
         <v>0</v>
@@ -12661,13 +12730,13 @@
     </row>
     <row r="240" spans="1:11">
       <c r="A240" t="s">
-        <v>869</v>
+        <v>876</v>
       </c>
       <c r="B240" t="s">
-        <v>870</v>
+        <v>877</v>
       </c>
       <c r="C240" t="s">
-        <v>871</v>
+        <v>878</v>
       </c>
       <c r="D240">
         <v>0</v>
@@ -12679,7 +12748,7 @@
         <v>0.27864545050301509</v>
       </c>
       <c r="G240" t="s">
-        <v>872</v>
+        <v>879</v>
       </c>
       <c r="H240">
         <v>0.03</v>
@@ -12688,7 +12757,7 @@
         <v>0.60870000000000002</v>
       </c>
       <c r="J240" t="s">
-        <v>873</v>
+        <v>880</v>
       </c>
       <c r="K240">
         <v>0</v>
@@ -12696,13 +12765,13 @@
     </row>
     <row r="241" spans="1:11">
       <c r="A241" t="s">
-        <v>874</v>
+        <v>881</v>
       </c>
       <c r="B241" t="s">
-        <v>875</v>
+        <v>882</v>
       </c>
       <c r="C241" t="s">
-        <v>876</v>
+        <v>883</v>
       </c>
       <c r="D241">
         <v>0</v>
@@ -12714,7 +12783,7 @@
         <v>0.96651525483381362</v>
       </c>
       <c r="G241" t="s">
-        <v>877</v>
+        <v>884</v>
       </c>
       <c r="H241">
         <v>0.86</v>
@@ -12723,7 +12792,7 @@
         <v>0.96950000000000003</v>
       </c>
       <c r="J241" t="s">
-        <v>878</v>
+        <v>885</v>
       </c>
       <c r="K241">
         <v>0</v>
@@ -12731,13 +12800,13 @@
     </row>
     <row r="242" spans="1:11">
       <c r="A242" t="s">
-        <v>879</v>
+        <v>886</v>
       </c>
       <c r="B242" t="s">
-        <v>880</v>
+        <v>887</v>
       </c>
       <c r="C242" t="s">
-        <v>881</v>
+        <v>888</v>
       </c>
       <c r="D242">
         <v>0</v>
@@ -12749,7 +12818,7 @@
         <v>8.9249754321524669E-2</v>
       </c>
       <c r="G242" t="s">
-        <v>882</v>
+        <v>889</v>
       </c>
       <c r="H242">
         <v>0</v>
@@ -12758,7 +12827,7 @@
         <v>0.73219999999999996</v>
       </c>
       <c r="J242" t="s">
-        <v>883</v>
+        <v>890</v>
       </c>
       <c r="K242">
         <v>0</v>
@@ -12766,13 +12835,13 @@
     </row>
     <row r="243" spans="1:11">
       <c r="A243" t="s">
-        <v>884</v>
+        <v>891</v>
       </c>
       <c r="B243" t="s">
-        <v>885</v>
+        <v>892</v>
       </c>
       <c r="C243" t="s">
-        <v>886</v>
+        <v>893</v>
       </c>
       <c r="D243">
         <v>0</v>
@@ -12784,7 +12853,7 @@
         <v>0.15237096840070249</v>
       </c>
       <c r="G243" t="s">
-        <v>887</v>
+        <v>894</v>
       </c>
       <c r="H243">
         <v>0</v>
@@ -12793,7 +12862,7 @@
         <v>0.70819999999999994</v>
       </c>
       <c r="J243" t="s">
-        <v>888</v>
+        <v>895</v>
       </c>
       <c r="K243">
         <v>0</v>
@@ -12801,13 +12870,13 @@
     </row>
     <row r="244" spans="1:11">
       <c r="A244" t="s">
-        <v>889</v>
+        <v>896</v>
       </c>
       <c r="B244" t="s">
-        <v>890</v>
+        <v>897</v>
       </c>
       <c r="C244" t="s">
-        <v>891</v>
+        <v>898</v>
       </c>
       <c r="D244">
         <v>0</v>
@@ -12819,7 +12888,7 @@
         <v>0.75117324462824775</v>
       </c>
       <c r="G244" t="s">
-        <v>892</v>
+        <v>899</v>
       </c>
       <c r="H244">
         <v>0.28999999999999998</v>
@@ -12828,7 +12897,7 @@
         <v>0.81129999999999991</v>
       </c>
       <c r="J244" t="s">
-        <v>893</v>
+        <v>900</v>
       </c>
       <c r="K244">
         <v>0</v>
@@ -12836,13 +12905,13 @@
     </row>
     <row r="245" spans="1:11">
       <c r="A245" t="s">
-        <v>894</v>
+        <v>901</v>
       </c>
       <c r="B245" t="s">
-        <v>895</v>
+        <v>902</v>
       </c>
       <c r="C245" t="s">
-        <v>896</v>
+        <v>903</v>
       </c>
       <c r="D245">
         <v>0</v>
@@ -12854,7 +12923,7 @@
         <v>0.29680449441082968</v>
       </c>
       <c r="G245" t="s">
-        <v>897</v>
+        <v>904</v>
       </c>
       <c r="H245">
         <v>0.04</v>
@@ -12863,7 +12932,7 @@
         <v>0.81669999999999998</v>
       </c>
       <c r="J245" t="s">
-        <v>898</v>
+        <v>905</v>
       </c>
       <c r="K245">
         <v>0</v>
@@ -12871,13 +12940,13 @@
     </row>
     <row r="246" spans="1:11">
       <c r="A246" t="s">
-        <v>899</v>
+        <v>906</v>
       </c>
       <c r="B246" t="s">
-        <v>900</v>
+        <v>907</v>
       </c>
       <c r="C246" t="s">
-        <v>901</v>
+        <v>908</v>
       </c>
       <c r="D246">
         <v>0</v>
@@ -12889,7 +12958,7 @@
         <v>0.33845776719428478</v>
       </c>
       <c r="G246" t="s">
-        <v>902</v>
+        <v>909</v>
       </c>
       <c r="H246">
         <v>0</v>
@@ -12898,7 +12967,7 @@
         <v>0.69290000000000007</v>
       </c>
       <c r="J246" t="s">
-        <v>903</v>
+        <v>910</v>
       </c>
       <c r="K246">
         <v>0</v>
@@ -12906,13 +12975,13 @@
     </row>
     <row r="247" spans="1:11">
       <c r="A247" t="s">
-        <v>904</v>
+        <v>911</v>
       </c>
       <c r="B247" t="s">
-        <v>905</v>
+        <v>912</v>
       </c>
       <c r="C247" t="s">
-        <v>906</v>
+        <v>913</v>
       </c>
       <c r="D247">
         <v>0</v>
@@ -12924,7 +12993,7 @@
         <v>8.6234675756186985E-2</v>
       </c>
       <c r="G247" t="s">
-        <v>907</v>
+        <v>914</v>
       </c>
       <c r="H247">
         <v>0</v>
@@ -12933,7 +13002,7 @@
         <v>0.8993000000000001</v>
       </c>
       <c r="J247" t="s">
-        <v>908</v>
+        <v>915</v>
       </c>
       <c r="K247">
         <v>0</v>
@@ -12941,13 +13010,13 @@
     </row>
     <row r="248" spans="1:11">
       <c r="A248" t="s">
-        <v>909</v>
+        <v>916</v>
       </c>
       <c r="B248" t="s">
-        <v>910</v>
+        <v>917</v>
       </c>
       <c r="C248" t="s">
-        <v>911</v>
+        <v>918</v>
       </c>
       <c r="D248">
         <v>0</v>
@@ -12959,7 +13028,7 @@
         <v>5.639240512414085E-2</v>
       </c>
       <c r="G248" t="s">
-        <v>912</v>
+        <v>919</v>
       </c>
       <c r="H248">
         <v>0</v>
@@ -12968,7 +13037,7 @@
         <v>0.8498</v>
       </c>
       <c r="J248" t="s">
-        <v>913</v>
+        <v>920</v>
       </c>
       <c r="K248">
         <v>0</v>
@@ -12976,13 +13045,13 @@
     </row>
     <row r="249" spans="1:11">
       <c r="A249" t="s">
-        <v>914</v>
+        <v>921</v>
       </c>
       <c r="B249" t="s">
-        <v>915</v>
+        <v>922</v>
       </c>
       <c r="C249" t="s">
-        <v>916</v>
+        <v>923</v>
       </c>
       <c r="D249">
         <v>0</v>
@@ -12994,7 +13063,7 @@
         <v>0.10007043108682449</v>
       </c>
       <c r="G249" t="s">
-        <v>917</v>
+        <v>924</v>
       </c>
       <c r="H249">
         <v>0</v>
@@ -13003,7 +13072,7 @@
         <v>0.70739999999999992</v>
       </c>
       <c r="J249" t="s">
-        <v>918</v>
+        <v>925</v>
       </c>
       <c r="K249">
         <v>0</v>
@@ -13011,13 +13080,13 @@
     </row>
     <row r="250" spans="1:11">
       <c r="A250" t="s">
-        <v>919</v>
+        <v>926</v>
       </c>
       <c r="B250" t="s">
-        <v>920</v>
+        <v>927</v>
       </c>
       <c r="C250" t="s">
-        <v>921</v>
+        <v>928</v>
       </c>
       <c r="D250">
         <v>0</v>
@@ -13029,7 +13098,7 @@
         <v>0.83747428311028627</v>
       </c>
       <c r="G250" t="s">
-        <v>922</v>
+        <v>929</v>
       </c>
       <c r="H250">
         <v>0.64</v>
@@ -13046,13 +13115,13 @@
     </row>
     <row r="251" spans="1:11">
       <c r="A251" t="s">
-        <v>923</v>
+        <v>930</v>
       </c>
       <c r="B251" t="s">
-        <v>924</v>
+        <v>931</v>
       </c>
       <c r="C251" t="s">
-        <v>925</v>
+        <v>932</v>
       </c>
       <c r="D251">
         <v>0</v>
@@ -13064,7 +13133,7 @@
         <v>0.43239795918367352</v>
       </c>
       <c r="G251" t="s">
-        <v>926</v>
+        <v>933</v>
       </c>
       <c r="H251">
         <v>0.24</v>
@@ -13073,7 +13142,7 @@
         <v>1</v>
       </c>
       <c r="J251" t="s">
-        <v>927</v>
+        <v>934</v>
       </c>
       <c r="K251">
         <v>0</v>
@@ -13081,13 +13150,13 @@
     </row>
     <row r="252" spans="1:11">
       <c r="A252" t="s">
-        <v>928</v>
+        <v>935</v>
       </c>
       <c r="B252" t="s">
-        <v>929</v>
+        <v>936</v>
       </c>
       <c r="C252" t="s">
-        <v>930</v>
+        <v>937</v>
       </c>
       <c r="D252">
         <v>0</v>
@@ -13099,7 +13168,7 @@
         <v>6.6207552980039747E-2</v>
       </c>
       <c r="G252" t="s">
-        <v>931</v>
+        <v>938</v>
       </c>
       <c r="H252">
         <v>0</v>
@@ -13108,7 +13177,7 @@
         <v>0.41860000000000003</v>
       </c>
       <c r="J252" t="s">
-        <v>932</v>
+        <v>939</v>
       </c>
       <c r="K252">
         <v>0</v>
@@ -13116,13 +13185,13 @@
     </row>
     <row r="253" spans="1:11">
       <c r="A253" t="s">
-        <v>933</v>
+        <v>940</v>
       </c>
       <c r="B253" t="s">
-        <v>934</v>
+        <v>941</v>
       </c>
       <c r="C253" t="s">
-        <v>935</v>
+        <v>942</v>
       </c>
       <c r="D253">
         <v>0</v>
@@ -13134,7 +13203,7 @@
         <v>0.18341659250582151</v>
       </c>
       <c r="G253" t="s">
-        <v>936</v>
+        <v>943</v>
       </c>
       <c r="H253">
         <v>0.02</v>
@@ -13143,7 +13212,7 @@
         <v>0.69359999999999999</v>
       </c>
       <c r="J253" t="s">
-        <v>937</v>
+        <v>944</v>
       </c>
       <c r="K253">
         <v>0</v>
@@ -13151,13 +13220,13 @@
     </row>
     <row r="254" spans="1:11">
       <c r="A254" t="s">
-        <v>938</v>
+        <v>945</v>
       </c>
       <c r="B254" t="s">
-        <v>939</v>
+        <v>946</v>
       </c>
       <c r="C254" t="s">
-        <v>940</v>
+        <v>947</v>
       </c>
       <c r="D254">
         <v>0</v>
@@ -13169,7 +13238,7 @@
         <v>5.4456654456654457E-2</v>
       </c>
       <c r="G254" t="s">
-        <v>941</v>
+        <v>948</v>
       </c>
       <c r="H254">
         <v>0</v>
@@ -13178,7 +13247,7 @@
         <v>0.52459999999999996</v>
       </c>
       <c r="J254" t="s">
-        <v>942</v>
+        <v>949</v>
       </c>
       <c r="K254">
         <v>0</v>
@@ -13186,13 +13255,13 @@
     </row>
     <row r="255" spans="1:11">
       <c r="A255" t="s">
-        <v>943</v>
+        <v>950</v>
       </c>
       <c r="B255" t="s">
-        <v>944</v>
+        <v>951</v>
       </c>
       <c r="C255" t="s">
-        <v>945</v>
+        <v>952</v>
       </c>
       <c r="D255">
         <v>0</v>
@@ -13204,7 +13273,7 @@
         <v>0.75857558139534875</v>
       </c>
       <c r="G255" t="s">
-        <v>946</v>
+        <v>953</v>
       </c>
       <c r="H255">
         <v>0.69</v>
@@ -13213,7 +13282,7 @@
         <v>0.93180000000000007</v>
       </c>
       <c r="J255" t="s">
-        <v>947</v>
+        <v>954</v>
       </c>
       <c r="K255">
         <v>0</v>
@@ -13221,13 +13290,13 @@
     </row>
     <row r="256" spans="1:11">
       <c r="A256" t="s">
-        <v>948</v>
+        <v>955</v>
       </c>
       <c r="B256" t="s">
-        <v>949</v>
+        <v>956</v>
       </c>
       <c r="C256" t="s">
-        <v>950</v>
+        <v>957</v>
       </c>
       <c r="D256">
         <v>0</v>
@@ -13239,7 +13308,7 @@
         <v>0.76666235488147982</v>
       </c>
       <c r="G256" t="s">
-        <v>951</v>
+        <v>958</v>
       </c>
       <c r="H256">
         <v>0</v>
@@ -13248,7 +13317,7 @@
         <v>0.4269</v>
       </c>
       <c r="J256" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="K256">
         <v>0</v>
@@ -13256,13 +13325,13 @@
     </row>
     <row r="257" spans="1:11">
       <c r="A257" t="s">
-        <v>952</v>
+        <v>959</v>
       </c>
       <c r="B257" t="s">
-        <v>953</v>
+        <v>960</v>
       </c>
       <c r="C257" t="s">
-        <v>954</v>
+        <v>961</v>
       </c>
       <c r="D257">
         <v>0</v>
@@ -13274,7 +13343,7 @@
         <v>0.62949517303113756</v>
       </c>
       <c r="G257" t="s">
-        <v>955</v>
+        <v>962</v>
       </c>
       <c r="H257">
         <v>0.43</v>
@@ -13283,7 +13352,7 @@
         <v>0.72199999999999998</v>
       </c>
       <c r="J257" t="s">
-        <v>956</v>
+        <v>963</v>
       </c>
       <c r="K257">
         <v>0</v>
@@ -13291,13 +13360,13 @@
     </row>
     <row r="258" spans="1:11">
       <c r="A258" t="s">
-        <v>957</v>
+        <v>964</v>
       </c>
       <c r="B258" t="s">
-        <v>958</v>
+        <v>965</v>
       </c>
       <c r="C258" t="s">
-        <v>959</v>
+        <v>966</v>
       </c>
       <c r="D258">
         <v>0</v>
@@ -13309,7 +13378,7 @@
         <v>0.43086150486664188</v>
       </c>
       <c r="G258" t="s">
-        <v>960</v>
+        <v>967</v>
       </c>
       <c r="H258">
         <v>7.0000000000000007E-2</v>
@@ -13318,7 +13387,7 @@
         <v>0.57320000000000004</v>
       </c>
       <c r="J258" t="s">
-        <v>961</v>
+        <v>968</v>
       </c>
       <c r="K258">
         <v>0</v>
@@ -13326,13 +13395,13 @@
     </row>
     <row r="259" spans="1:11">
       <c r="A259" t="s">
-        <v>962</v>
+        <v>969</v>
       </c>
       <c r="B259" t="s">
-        <v>963</v>
+        <v>970</v>
       </c>
       <c r="C259" t="s">
-        <v>964</v>
+        <v>971</v>
       </c>
       <c r="D259">
         <v>0</v>
@@ -13344,7 +13413,7 @@
         <v>0.13508963739573679</v>
       </c>
       <c r="G259" t="s">
-        <v>965</v>
+        <v>972</v>
       </c>
       <c r="H259">
         <v>0</v>
@@ -13353,7 +13422,7 @@
         <v>0.5998</v>
       </c>
       <c r="J259" t="s">
-        <v>966</v>
+        <v>973</v>
       </c>
       <c r="K259">
         <v>0</v>
@@ -13361,13 +13430,13 @@
     </row>
     <row r="260" spans="1:11">
       <c r="A260" t="s">
-        <v>967</v>
+        <v>974</v>
       </c>
       <c r="B260" t="s">
-        <v>968</v>
+        <v>975</v>
       </c>
       <c r="C260" t="s">
-        <v>969</v>
+        <v>976</v>
       </c>
       <c r="D260">
         <v>0</v>
@@ -13379,7 +13448,7 @@
         <v>0.18014527845036321</v>
       </c>
       <c r="G260" t="s">
-        <v>970</v>
+        <v>977</v>
       </c>
       <c r="H260">
         <v>0.01</v>
@@ -13388,7 +13457,7 @@
         <v>0.88129999999999997</v>
       </c>
       <c r="J260" t="s">
-        <v>971</v>
+        <v>978</v>
       </c>
       <c r="K260">
         <v>0</v>
@@ -13396,13 +13465,13 @@
     </row>
     <row r="261" spans="1:11">
       <c r="A261" t="s">
-        <v>972</v>
+        <v>979</v>
       </c>
       <c r="B261" t="s">
-        <v>973</v>
+        <v>980</v>
       </c>
       <c r="C261" t="s">
-        <v>974</v>
+        <v>981</v>
       </c>
       <c r="D261">
         <v>0</v>
@@ -13414,7 +13483,7 @@
         <v>0.36611125901660141</v>
       </c>
       <c r="G261" t="s">
-        <v>975</v>
+        <v>982</v>
       </c>
       <c r="H261">
         <v>0.2</v>
@@ -13423,7 +13492,7 @@
         <v>0.45760000000000001</v>
       </c>
       <c r="J261" t="s">
-        <v>976</v>
+        <v>983</v>
       </c>
       <c r="K261">
         <v>0</v>
@@ -13431,13 +13500,13 @@
     </row>
     <row r="262" spans="1:11">
       <c r="A262" t="s">
-        <v>977</v>
+        <v>984</v>
       </c>
       <c r="B262" t="s">
-        <v>978</v>
+        <v>985</v>
       </c>
       <c r="C262" t="s">
-        <v>979</v>
+        <v>986</v>
       </c>
       <c r="D262">
         <v>0</v>
@@ -13449,7 +13518,7 @@
         <v>0.31861181972789121</v>
       </c>
       <c r="G262" t="s">
-        <v>980</v>
+        <v>987</v>
       </c>
       <c r="H262">
         <v>0.1</v>
@@ -13458,7 +13527,7 @@
         <v>0.74560000000000004</v>
       </c>
       <c r="J262" t="s">
-        <v>981</v>
+        <v>988</v>
       </c>
       <c r="K262">
         <v>0</v>
@@ -13466,13 +13535,13 @@
     </row>
     <row r="263" spans="1:11">
       <c r="A263" t="s">
-        <v>982</v>
+        <v>989</v>
       </c>
       <c r="B263" t="s">
-        <v>983</v>
+        <v>990</v>
       </c>
       <c r="C263" t="s">
-        <v>984</v>
+        <v>991</v>
       </c>
       <c r="D263">
         <v>0</v>
@@ -13484,7 +13553,7 @@
         <v>0.2177152715732775</v>
       </c>
       <c r="G263" t="s">
-        <v>985</v>
+        <v>992</v>
       </c>
       <c r="H263">
         <v>0.03</v>
@@ -13493,7 +13562,7 @@
         <v>0.63719999999999999</v>
       </c>
       <c r="J263" t="s">
-        <v>986</v>
+        <v>993</v>
       </c>
       <c r="K263">
         <v>0</v>
@@ -13501,13 +13570,13 @@
     </row>
     <row r="264" spans="1:11">
       <c r="A264" t="s">
-        <v>987</v>
+        <v>994</v>
       </c>
       <c r="B264" t="s">
-        <v>988</v>
+        <v>995</v>
       </c>
       <c r="C264" t="s">
-        <v>989</v>
+        <v>996</v>
       </c>
       <c r="D264">
         <v>0</v>
@@ -13519,7 +13588,7 @@
         <v>0.84416716690964189</v>
       </c>
       <c r="G264" t="s">
-        <v>990</v>
+        <v>997</v>
       </c>
       <c r="H264">
         <v>0.35</v>
@@ -13528,7 +13597,7 @@
         <v>0.90930000000000011</v>
       </c>
       <c r="J264" t="s">
-        <v>991</v>
+        <v>998</v>
       </c>
       <c r="K264">
         <v>0</v>
@@ -13536,13 +13605,13 @@
     </row>
     <row r="265" spans="1:11">
       <c r="A265" t="s">
-        <v>992</v>
+        <v>999</v>
       </c>
       <c r="B265" t="s">
-        <v>993</v>
+        <v>1000</v>
       </c>
       <c r="C265" t="s">
-        <v>994</v>
+        <v>1001</v>
       </c>
       <c r="D265">
         <v>0</v>
@@ -13554,7 +13623,7 @@
         <v>0.1251506024096386</v>
       </c>
       <c r="G265" t="s">
-        <v>995</v>
+        <v>1002</v>
       </c>
       <c r="H265">
         <v>0.06</v>
@@ -13563,7 +13632,7 @@
         <v>0.76980000000000004</v>
       </c>
       <c r="J265" t="s">
-        <v>996</v>
+        <v>1003</v>
       </c>
       <c r="K265">
         <v>0</v>
@@ -13571,13 +13640,13 @@
     </row>
     <row r="266" spans="1:11">
       <c r="A266" t="s">
-        <v>997</v>
+        <v>1004</v>
       </c>
       <c r="B266" t="s">
-        <v>998</v>
+        <v>1005</v>
       </c>
       <c r="C266" t="s">
-        <v>999</v>
+        <v>1006</v>
       </c>
       <c r="D266">
         <v>0</v>
@@ -13589,7 +13658,7 @@
         <v>0.37008194888083268</v>
       </c>
       <c r="G266" t="s">
-        <v>1000</v>
+        <v>1007</v>
       </c>
       <c r="H266">
         <v>0</v>
@@ -13598,7 +13667,7 @@
         <v>0.63029999999999997</v>
       </c>
       <c r="J266" t="s">
-        <v>1001</v>
+        <v>1008</v>
       </c>
       <c r="K266">
         <v>0</v>
@@ -13606,13 +13675,13 @@
     </row>
     <row r="267" spans="1:11">
       <c r="A267" t="s">
-        <v>1002</v>
+        <v>1009</v>
       </c>
       <c r="B267" t="s">
-        <v>1003</v>
+        <v>1010</v>
       </c>
       <c r="C267" t="s">
-        <v>1004</v>
+        <v>1011</v>
       </c>
       <c r="D267">
         <v>0</v>
@@ -13624,7 +13693,7 @@
         <v>0.34369246118287677</v>
       </c>
       <c r="G267" t="s">
-        <v>1005</v>
+        <v>1012</v>
       </c>
       <c r="H267">
         <v>0</v>
@@ -13633,7 +13702,7 @@
         <v>0.75950000000000006</v>
       </c>
       <c r="J267" t="s">
-        <v>1006</v>
+        <v>1013</v>
       </c>
       <c r="K267">
         <v>0</v>
@@ -13641,13 +13710,13 @@
     </row>
     <row r="268" spans="1:11">
       <c r="A268" t="s">
-        <v>1007</v>
+        <v>1014</v>
       </c>
       <c r="B268" t="s">
-        <v>1008</v>
+        <v>1015</v>
       </c>
       <c r="C268" t="s">
-        <v>1009</v>
+        <v>1016</v>
       </c>
       <c r="D268">
         <v>0</v>
@@ -13659,7 +13728,7 @@
         <v>0.39675422756399409</v>
       </c>
       <c r="G268" t="s">
-        <v>1010</v>
+        <v>1017</v>
       </c>
       <c r="H268">
         <v>0.02</v>
@@ -13668,7 +13737,7 @@
         <v>0.77049999999999996</v>
       </c>
       <c r="J268" t="s">
-        <v>1011</v>
+        <v>1018</v>
       </c>
       <c r="K268">
         <v>0</v>
@@ -13676,13 +13745,13 @@
     </row>
     <row r="269" spans="1:11">
       <c r="A269" t="s">
-        <v>1012</v>
+        <v>1019</v>
       </c>
       <c r="B269" t="s">
-        <v>1013</v>
+        <v>1020</v>
       </c>
       <c r="C269" t="s">
-        <v>1014</v>
+        <v>1021</v>
       </c>
       <c r="D269">
         <v>0</v>
@@ -13694,7 +13763,7 @@
         <v>0.51819301340860968</v>
       </c>
       <c r="G269" t="s">
-        <v>1015</v>
+        <v>1022</v>
       </c>
       <c r="H269">
         <v>0.33</v>
@@ -13703,7 +13772,7 @@
         <v>0.75029999999999997</v>
       </c>
       <c r="J269" t="s">
-        <v>1016</v>
+        <v>1023</v>
       </c>
       <c r="K269">
         <v>0</v>
@@ -13711,13 +13780,13 @@
     </row>
     <row r="270" spans="1:11">
       <c r="A270" t="s">
-        <v>1017</v>
+        <v>1024</v>
       </c>
       <c r="B270" t="s">
-        <v>1018</v>
+        <v>1025</v>
       </c>
       <c r="C270" t="s">
-        <v>1019</v>
+        <v>1026</v>
       </c>
       <c r="D270">
         <v>0</v>
@@ -13729,7 +13798,7 @@
         <v>0.9534105229993699</v>
       </c>
       <c r="G270" t="s">
-        <v>1020</v>
+        <v>1027</v>
       </c>
       <c r="H270">
         <v>0</v>
@@ -13738,7 +13807,7 @@
         <v>0.77689999999999992</v>
       </c>
       <c r="J270" t="s">
-        <v>1021</v>
+        <v>1028</v>
       </c>
       <c r="K270">
         <v>0</v>
@@ -13746,13 +13815,13 @@
     </row>
     <row r="271" spans="1:11">
       <c r="A271" t="s">
-        <v>1022</v>
+        <v>1029</v>
       </c>
       <c r="B271" t="s">
-        <v>1023</v>
+        <v>1030</v>
       </c>
       <c r="C271" t="s">
-        <v>1024</v>
+        <v>1031</v>
       </c>
       <c r="D271">
         <v>0</v>
@@ -13764,7 +13833,7 @@
         <v>0.24438254450451111</v>
       </c>
       <c r="G271" t="s">
-        <v>1025</v>
+        <v>1032</v>
       </c>
       <c r="H271">
         <v>0.02</v>
@@ -13773,7 +13842,7 @@
         <v>0.47339999999999999</v>
       </c>
       <c r="J271" t="s">
-        <v>1026</v>
+        <v>1033</v>
       </c>
       <c r="K271">
         <v>0</v>
@@ -13781,13 +13850,13 @@
     </row>
     <row r="272" spans="1:11">
       <c r="A272" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="B272" t="s">
-        <v>1028</v>
+        <v>1035</v>
       </c>
       <c r="C272" t="s">
-        <v>1029</v>
+        <v>1036</v>
       </c>
       <c r="D272">
         <v>0</v>
@@ -13799,7 +13868,7 @@
         <v>0.64418346204022925</v>
       </c>
       <c r="G272" t="s">
-        <v>1030</v>
+        <v>1037</v>
       </c>
       <c r="H272">
         <v>0.31</v>
@@ -13808,7 +13877,7 @@
         <v>0.8909999999999999</v>
       </c>
       <c r="J272" t="s">
-        <v>1031</v>
+        <v>1038</v>
       </c>
       <c r="K272">
         <v>0</v>
@@ -13816,13 +13885,13 @@
     </row>
     <row r="273" spans="1:11">
       <c r="A273" t="s">
-        <v>1032</v>
+        <v>1039</v>
       </c>
       <c r="B273" t="s">
-        <v>1033</v>
+        <v>1040</v>
       </c>
       <c r="C273" t="s">
-        <v>1034</v>
+        <v>1041</v>
       </c>
       <c r="D273">
         <v>0</v>
@@ -13834,7 +13903,7 @@
         <v>6.5000763591936475E-2</v>
       </c>
       <c r="G273" t="s">
-        <v>1035</v>
+        <v>1042</v>
       </c>
       <c r="H273">
         <v>0</v>
@@ -13843,7 +13912,7 @@
         <v>0.74400000000000011</v>
       </c>
       <c r="J273" t="s">
-        <v>1036</v>
+        <v>1043</v>
       </c>
       <c r="K273">
         <v>0</v>
@@ -13851,13 +13920,13 @@
     </row>
     <row r="274" spans="1:11">
       <c r="A274" t="s">
-        <v>1037</v>
+        <v>1044</v>
       </c>
       <c r="B274" t="s">
-        <v>1038</v>
+        <v>1045</v>
       </c>
       <c r="C274" t="s">
-        <v>1039</v>
+        <v>1046</v>
       </c>
       <c r="D274">
         <v>0</v>
@@ -13869,7 +13938,7 @@
         <v>0.33160074536381162</v>
       </c>
       <c r="G274" t="s">
-        <v>1040</v>
+        <v>1047</v>
       </c>
       <c r="H274">
         <v>0</v>
@@ -13878,7 +13947,7 @@
         <v>0.76439999999999997</v>
       </c>
       <c r="J274" t="s">
-        <v>1041</v>
+        <v>1048</v>
       </c>
       <c r="K274">
         <v>0</v>
@@ -13886,13 +13955,13 @@
     </row>
     <row r="275" spans="1:11">
       <c r="A275" t="s">
-        <v>1042</v>
+        <v>1049</v>
       </c>
       <c r="B275" t="s">
-        <v>1043</v>
+        <v>1050</v>
       </c>
       <c r="C275" t="s">
-        <v>1044</v>
+        <v>1051</v>
       </c>
       <c r="D275">
         <v>0</v>
@@ -13904,7 +13973,7 @@
         <v>0.36656284712390819</v>
       </c>
       <c r="G275" t="s">
-        <v>1045</v>
+        <v>1052</v>
       </c>
       <c r="H275">
         <v>0</v>
@@ -13913,7 +13982,7 @@
         <v>0.77849999999999997</v>
       </c>
       <c r="J275" t="s">
-        <v>1046</v>
+        <v>1053</v>
       </c>
       <c r="K275">
         <v>0</v>
@@ -13921,13 +13990,13 @@
     </row>
     <row r="276" spans="1:11">
       <c r="A276" t="s">
-        <v>1047</v>
+        <v>1054</v>
       </c>
       <c r="B276" t="s">
-        <v>1048</v>
+        <v>1055</v>
       </c>
       <c r="C276" t="s">
-        <v>1049</v>
+        <v>1056</v>
       </c>
       <c r="D276">
         <v>0</v>
@@ -13939,7 +14008,7 @@
         <v>0.26366390187782968</v>
       </c>
       <c r="G276" t="s">
-        <v>1050</v>
+        <v>1057</v>
       </c>
       <c r="H276">
         <v>0</v>
@@ -13948,7 +14017,7 @@
         <v>0.22750000000000001</v>
       </c>
       <c r="J276" t="s">
-        <v>1051</v>
+        <v>1058</v>
       </c>
       <c r="K276">
         <v>0</v>
@@ -13956,13 +14025,13 @@
     </row>
     <row r="277" spans="1:11">
       <c r="A277" t="s">
-        <v>1052</v>
+        <v>1059</v>
       </c>
       <c r="B277" t="s">
-        <v>1053</v>
+        <v>1060</v>
       </c>
       <c r="C277" t="s">
-        <v>1054</v>
+        <v>1061</v>
       </c>
       <c r="D277">
         <v>0</v>
@@ -13974,7 +14043,7 @@
         <v>0.54521926556252653</v>
       </c>
       <c r="G277" t="s">
-        <v>1055</v>
+        <v>1062</v>
       </c>
       <c r="H277">
         <v>0.32</v>
@@ -13983,7 +14052,7 @@
         <v>0.64119999999999999</v>
       </c>
       <c r="J277" t="s">
-        <v>543</v>
+        <v>550</v>
       </c>
       <c r="K277">
         <v>0</v>
@@ -13991,13 +14060,13 @@
     </row>
     <row r="278" spans="1:11">
       <c r="A278" t="s">
-        <v>1056</v>
+        <v>1063</v>
       </c>
       <c r="B278" t="s">
-        <v>1057</v>
+        <v>1064</v>
       </c>
       <c r="C278" t="s">
-        <v>1058</v>
+        <v>1065</v>
       </c>
       <c r="D278">
         <v>0</v>
@@ -14009,7 +14078,7 @@
         <v>0.98151497216733619</v>
       </c>
       <c r="G278" t="s">
-        <v>1059</v>
+        <v>1066</v>
       </c>
       <c r="H278">
         <v>0.88</v>
@@ -14018,7 +14087,7 @@
         <v>0.9456</v>
       </c>
       <c r="J278" t="s">
-        <v>1060</v>
+        <v>1067</v>
       </c>
       <c r="K278">
         <v>0</v>
@@ -14026,13 +14095,13 @@
     </row>
     <row r="279" spans="1:11">
       <c r="A279" t="s">
-        <v>1061</v>
+        <v>1068</v>
       </c>
       <c r="B279" t="s">
-        <v>1062</v>
+        <v>1069</v>
       </c>
       <c r="C279" t="s">
-        <v>1063</v>
+        <v>1070</v>
       </c>
       <c r="D279">
         <v>0</v>
@@ -14044,7 +14113,7 @@
         <v>0.71942500020697597</v>
       </c>
       <c r="G279" t="s">
-        <v>1064</v>
+        <v>1071</v>
       </c>
       <c r="H279">
         <v>0.64</v>
@@ -14053,7 +14122,7 @@
         <v>0.93290000000000006</v>
       </c>
       <c r="J279" t="s">
-        <v>1065</v>
+        <v>1072</v>
       </c>
       <c r="K279">
         <v>0</v>
@@ -14061,13 +14130,13 @@
     </row>
     <row r="280" spans="1:11">
       <c r="A280" t="s">
-        <v>1066</v>
+        <v>1073</v>
       </c>
       <c r="B280" t="s">
-        <v>1067</v>
+        <v>1074</v>
       </c>
       <c r="C280" t="s">
-        <v>1068</v>
+        <v>1075</v>
       </c>
       <c r="D280">
         <v>0</v>
@@ -14079,7 +14148,7 @@
         <v>0.91697247706422014</v>
       </c>
       <c r="G280" t="s">
-        <v>1069</v>
+        <v>1076</v>
       </c>
       <c r="H280">
         <v>0.8</v>
@@ -14088,7 +14157,7 @@
         <v>0.95420000000000005</v>
       </c>
       <c r="J280" t="s">
-        <v>1070</v>
+        <v>1077</v>
       </c>
       <c r="K280">
         <v>0</v>
@@ -14096,13 +14165,13 @@
     </row>
     <row r="281" spans="1:11">
       <c r="A281" t="s">
-        <v>1071</v>
+        <v>1078</v>
       </c>
       <c r="B281" t="s">
-        <v>1072</v>
+        <v>1079</v>
       </c>
       <c r="C281" t="s">
-        <v>1073</v>
+        <v>1080</v>
       </c>
       <c r="D281">
         <v>0</v>
@@ -14114,7 +14183,7 @@
         <v>0.95888877000712913</v>
       </c>
       <c r="G281" t="s">
-        <v>1074</v>
+        <v>1081</v>
       </c>
       <c r="H281">
         <v>0.94</v>
@@ -14123,7 +14192,7 @@
         <v>0.97930000000000006</v>
       </c>
       <c r="J281" t="s">
-        <v>1075</v>
+        <v>1082</v>
       </c>
       <c r="K281">
         <v>0</v>
@@ -14131,13 +14200,13 @@
     </row>
     <row r="282" spans="1:11">
       <c r="A282" t="s">
-        <v>1076</v>
+        <v>1083</v>
       </c>
       <c r="B282" t="s">
-        <v>1077</v>
+        <v>1084</v>
       </c>
       <c r="C282" t="s">
-        <v>1078</v>
+        <v>1085</v>
       </c>
       <c r="D282">
         <v>0</v>
@@ -14149,7 +14218,7 @@
         <v>0.7648210692727796</v>
       </c>
       <c r="G282" t="s">
-        <v>1079</v>
+        <v>1086</v>
       </c>
       <c r="H282">
         <v>0.45</v>
@@ -14158,7 +14227,7 @@
         <v>0.79579999999999995</v>
       </c>
       <c r="J282" t="s">
-        <v>1080</v>
+        <v>1087</v>
       </c>
       <c r="K282">
         <v>0</v>
@@ -14166,13 +14235,13 @@
     </row>
     <row r="283" spans="1:11">
       <c r="A283" t="s">
-        <v>1081</v>
+        <v>1088</v>
       </c>
       <c r="B283" t="s">
-        <v>1082</v>
+        <v>1089</v>
       </c>
       <c r="C283" t="s">
-        <v>1083</v>
+        <v>1090</v>
       </c>
       <c r="D283">
         <v>0</v>
@@ -14184,7 +14253,7 @@
         <v>0.51308676160337541</v>
       </c>
       <c r="G283" t="s">
-        <v>1084</v>
+        <v>1091</v>
       </c>
       <c r="H283">
         <v>0.24</v>
@@ -14193,7 +14262,7 @@
         <v>0.80349999999999999</v>
       </c>
       <c r="J283" t="s">
-        <v>1085</v>
+        <v>1092</v>
       </c>
       <c r="K283">
         <v>0</v>
@@ -14201,13 +14270,13 @@
     </row>
     <row r="284" spans="1:11">
       <c r="A284" t="s">
-        <v>1086</v>
+        <v>1093</v>
       </c>
       <c r="B284" t="s">
-        <v>1087</v>
+        <v>1094</v>
       </c>
       <c r="C284" t="s">
-        <v>1088</v>
+        <v>1095</v>
       </c>
       <c r="D284">
         <v>0</v>
@@ -14219,7 +14288,7 @@
         <v>0.7903310628307747</v>
       </c>
       <c r="G284" t="s">
-        <v>1089</v>
+        <v>1096</v>
       </c>
       <c r="H284">
         <v>0.63</v>
@@ -14228,7 +14297,7 @@
         <v>0.87690000000000001</v>
       </c>
       <c r="J284" t="s">
-        <v>1090</v>
+        <v>1097</v>
       </c>
       <c r="K284">
         <v>0</v>
@@ -14236,13 +14305,13 @@
     </row>
     <row r="285" spans="1:11">
       <c r="A285" t="s">
-        <v>1091</v>
+        <v>1098</v>
       </c>
       <c r="B285" t="s">
-        <v>1092</v>
+        <v>1099</v>
       </c>
       <c r="C285" t="s">
-        <v>1093</v>
+        <v>1100</v>
       </c>
       <c r="D285">
         <v>0</v>
@@ -14254,7 +14323,7 @@
         <v>0.84015179301977827</v>
       </c>
       <c r="G285" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
       <c r="H285">
         <v>0.37</v>
@@ -14271,13 +14340,13 @@
     </row>
     <row r="286" spans="1:11">
       <c r="A286" t="s">
-        <v>1094</v>
+        <v>1101</v>
       </c>
       <c r="B286" t="s">
-        <v>1095</v>
+        <v>1102</v>
       </c>
       <c r="C286" t="s">
-        <v>1096</v>
+        <v>1103</v>
       </c>
       <c r="D286">
         <v>0</v>
@@ -14289,7 +14358,7 @@
         <v>0.99533459688001169</v>
       </c>
       <c r="G286" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="H286">
         <v>0.76</v>
@@ -14298,7 +14367,7 @@
         <v>0.92989999999999995</v>
       </c>
       <c r="J286" t="s">
-        <v>1097</v>
+        <v>1104</v>
       </c>
       <c r="K286">
         <v>0</v>
@@ -14306,13 +14375,13 @@
     </row>
     <row r="287" spans="1:11">
       <c r="A287" t="s">
-        <v>1098</v>
+        <v>1105</v>
       </c>
       <c r="B287" t="s">
-        <v>1099</v>
+        <v>1106</v>
       </c>
       <c r="C287" t="s">
-        <v>1100</v>
+        <v>1107</v>
       </c>
       <c r="D287">
         <v>0</v>
@@ -14324,7 +14393,7 @@
         <v>0.99993750000000003</v>
       </c>
       <c r="G287" t="s">
-        <v>1101</v>
+        <v>1108</v>
       </c>
       <c r="H287">
         <v>0.91</v>
@@ -14333,7 +14402,7 @@
         <v>0.98349999999999993</v>
       </c>
       <c r="J287" t="s">
-        <v>1102</v>
+        <v>1109</v>
       </c>
       <c r="K287">
         <v>0</v>
@@ -14341,13 +14410,13 @@
     </row>
     <row r="288" spans="1:11">
       <c r="A288" t="s">
-        <v>1103</v>
+        <v>1110</v>
       </c>
       <c r="B288" t="s">
-        <v>1104</v>
+        <v>1111</v>
       </c>
       <c r="C288" t="s">
-        <v>1105</v>
+        <v>1112</v>
       </c>
       <c r="D288">
         <v>0</v>
@@ -14359,7 +14428,7 @@
         <v>0.82735042735042752</v>
       </c>
       <c r="G288" t="s">
-        <v>1106</v>
+        <v>1113</v>
       </c>
       <c r="H288">
         <v>0.3</v>
@@ -14368,7 +14437,7 @@
         <v>0.63190000000000002</v>
       </c>
       <c r="J288" t="s">
-        <v>1107</v>
+        <v>1114</v>
       </c>
       <c r="K288">
         <v>0</v>
@@ -14376,13 +14445,13 @@
     </row>
     <row r="289" spans="1:11">
       <c r="A289" t="s">
-        <v>1108</v>
+        <v>1115</v>
       </c>
       <c r="B289" t="s">
-        <v>1109</v>
+        <v>1116</v>
       </c>
       <c r="C289" t="s">
-        <v>1110</v>
+        <v>1117</v>
       </c>
       <c r="D289">
         <v>0</v>
@@ -14394,7 +14463,7 @@
         <v>0.97554878048780491</v>
       </c>
       <c r="G289" t="s">
-        <v>1111</v>
+        <v>1118</v>
       </c>
       <c r="H289">
         <v>0.89</v>
@@ -14403,7 +14472,7 @@
         <v>0.96530000000000005</v>
       </c>
       <c r="J289" t="s">
-        <v>1112</v>
+        <v>1119</v>
       </c>
       <c r="K289">
         <v>0</v>
@@ -14411,13 +14480,13 @@
     </row>
     <row r="290" spans="1:11">
       <c r="A290" t="s">
-        <v>1113</v>
+        <v>1120</v>
       </c>
       <c r="B290" t="s">
-        <v>1114</v>
+        <v>1121</v>
       </c>
       <c r="C290" t="s">
-        <v>1115</v>
+        <v>1122</v>
       </c>
       <c r="D290">
         <v>0</v>
@@ -14429,7 +14498,7 @@
         <v>0.9003281771919136</v>
       </c>
       <c r="G290" t="s">
-        <v>1116</v>
+        <v>1123</v>
       </c>
       <c r="H290">
         <v>0.64</v>
@@ -14438,7 +14507,7 @@
         <v>0.8417</v>
       </c>
       <c r="J290" t="s">
-        <v>1117</v>
+        <v>1124</v>
       </c>
       <c r="K290">
         <v>0</v>
@@ -14446,13 +14515,13 @@
     </row>
     <row r="291" spans="1:11">
       <c r="A291" t="s">
-        <v>1118</v>
+        <v>1125</v>
       </c>
       <c r="B291" t="s">
-        <v>1119</v>
+        <v>1126</v>
       </c>
       <c r="C291" t="s">
-        <v>1120</v>
+        <v>1127</v>
       </c>
       <c r="D291">
         <v>0</v>
@@ -14464,7 +14533,7 @@
         <v>0.93197278911564618</v>
       </c>
       <c r="G291" t="s">
-        <v>1121</v>
+        <v>1128</v>
       </c>
       <c r="H291">
         <v>0.69</v>
@@ -14473,7 +14542,7 @@
         <v>0.95340000000000003</v>
       </c>
       <c r="J291" t="s">
-        <v>534</v>
+        <v>541</v>
       </c>
       <c r="K291">
         <v>0</v>
@@ -14481,13 +14550,13 @@
     </row>
     <row r="292" spans="1:11">
       <c r="A292" t="s">
-        <v>1122</v>
+        <v>1129</v>
       </c>
       <c r="B292" t="s">
-        <v>1123</v>
+        <v>1130</v>
       </c>
       <c r="C292" t="s">
-        <v>1124</v>
+        <v>1131</v>
       </c>
       <c r="D292">
         <v>0</v>
@@ -14499,7 +14568,7 @@
         <v>0.65260257994526893</v>
       </c>
       <c r="G292" t="s">
-        <v>1125</v>
+        <v>1132</v>
       </c>
       <c r="H292">
         <v>0.34</v>
@@ -14508,7 +14577,7 @@
         <v>0.74900000000000011</v>
       </c>
       <c r="J292" t="s">
-        <v>1126</v>
+        <v>1133</v>
       </c>
       <c r="K292">
         <v>0</v>
@@ -14516,13 +14585,13 @@
     </row>
     <row r="293" spans="1:11">
       <c r="A293" t="s">
-        <v>1127</v>
+        <v>1134</v>
       </c>
       <c r="B293" t="s">
-        <v>1128</v>
+        <v>1135</v>
       </c>
       <c r="C293" t="s">
-        <v>1129</v>
+        <v>1136</v>
       </c>
       <c r="D293">
         <v>0</v>
@@ -14534,7 +14603,7 @@
         <v>0.91703661742883691</v>
       </c>
       <c r="G293" t="s">
-        <v>1130</v>
+        <v>1137</v>
       </c>
       <c r="H293">
         <v>1</v>
@@ -14543,7 +14612,7 @@
         <v>0.94</v>
       </c>
       <c r="J293" t="s">
-        <v>1131</v>
+        <v>1138</v>
       </c>
       <c r="K293">
         <v>0</v>
@@ -14551,13 +14620,13 @@
     </row>
     <row r="294" spans="1:11">
       <c r="A294" t="s">
-        <v>1132</v>
+        <v>1139</v>
       </c>
       <c r="B294" t="s">
-        <v>1133</v>
+        <v>1140</v>
       </c>
       <c r="C294" t="s">
-        <v>1134</v>
+        <v>1141</v>
       </c>
       <c r="D294">
         <v>0</v>
@@ -14569,7 +14638,7 @@
         <v>0.73776919828678289</v>
       </c>
       <c r="G294" t="s">
-        <v>1135</v>
+        <v>1142</v>
       </c>
       <c r="H294">
         <v>0.62</v>
@@ -14578,7 +14647,7 @@
         <v>0.80400000000000005</v>
       </c>
       <c r="J294" t="s">
-        <v>1136</v>
+        <v>1143</v>
       </c>
       <c r="K294">
         <v>0</v>
@@ -14586,13 +14655,13 @@
     </row>
     <row r="295" spans="1:11">
       <c r="A295" t="s">
-        <v>1137</v>
+        <v>1144</v>
       </c>
       <c r="B295" t="s">
-        <v>1138</v>
+        <v>1145</v>
       </c>
       <c r="C295" t="s">
-        <v>1139</v>
+        <v>1146</v>
       </c>
       <c r="D295">
         <v>0</v>
@@ -14604,7 +14673,7 @@
         <v>0.89711883308721962</v>
       </c>
       <c r="G295" t="s">
-        <v>1140</v>
+        <v>1147</v>
       </c>
       <c r="H295">
         <v>0.75</v>
@@ -14613,7 +14682,7 @@
         <v>0.93019999999999992</v>
       </c>
       <c r="J295" t="s">
-        <v>1141</v>
+        <v>1148</v>
       </c>
       <c r="K295">
         <v>0</v>
@@ -14621,13 +14690,13 @@
     </row>
     <row r="296" spans="1:11">
       <c r="A296" t="s">
-        <v>1142</v>
+        <v>1149</v>
       </c>
       <c r="B296" t="s">
-        <v>1143</v>
+        <v>1150</v>
       </c>
       <c r="C296" t="s">
-        <v>1144</v>
+        <v>1151</v>
       </c>
       <c r="D296">
         <v>0</v>
@@ -14639,7 +14708,7 @@
         <v>0.79250589368334379</v>
       </c>
       <c r="G296" t="s">
-        <v>1145</v>
+        <v>1152</v>
       </c>
       <c r="H296">
         <v>0.71</v>
@@ -14648,7 +14717,7 @@
         <v>0.91689999999999994</v>
       </c>
       <c r="J296" t="s">
-        <v>1146</v>
+        <v>1153</v>
       </c>
       <c r="K296">
         <v>0</v>
@@ -14656,13 +14725,13 @@
     </row>
     <row r="297" spans="1:11">
       <c r="A297" t="s">
-        <v>1147</v>
+        <v>1154</v>
       </c>
       <c r="B297" t="s">
-        <v>1148</v>
+        <v>1155</v>
       </c>
       <c r="C297" t="s">
-        <v>1148</v>
+        <v>1155</v>
       </c>
       <c r="D297">
         <v>1</v>
@@ -14691,13 +14760,13 @@
     </row>
     <row r="298" spans="1:11">
       <c r="A298" t="s">
-        <v>1149</v>
+        <v>1156</v>
       </c>
       <c r="B298" t="s">
-        <v>1150</v>
+        <v>1157</v>
       </c>
       <c r="C298" t="s">
-        <v>1151</v>
+        <v>1158</v>
       </c>
       <c r="D298">
         <v>0</v>
@@ -14709,7 +14778,7 @@
         <v>0.99735703251328245</v>
       </c>
       <c r="G298" t="s">
-        <v>1152</v>
+        <v>1159</v>
       </c>
       <c r="H298">
         <v>0.9</v>
@@ -14718,7 +14787,7 @@
         <v>0.95909999999999995</v>
       </c>
       <c r="J298" t="s">
-        <v>1153</v>
+        <v>1160</v>
       </c>
       <c r="K298">
         <v>0</v>
@@ -14726,13 +14795,13 @@
     </row>
     <row r="299" spans="1:11">
       <c r="A299" t="s">
-        <v>1154</v>
+        <v>1161</v>
       </c>
       <c r="B299" t="s">
-        <v>1155</v>
+        <v>1162</v>
       </c>
       <c r="C299" t="s">
-        <v>1156</v>
+        <v>1163</v>
       </c>
       <c r="D299">
         <v>0</v>
@@ -14744,7 +14813,7 @@
         <v>0.85687569193583235</v>
       </c>
       <c r="G299" t="s">
-        <v>1157</v>
+        <v>1164</v>
       </c>
       <c r="H299">
         <v>0.79</v>
@@ -14753,7 +14822,7 @@
         <v>0.98640000000000005</v>
       </c>
       <c r="J299" t="s">
-        <v>1158</v>
+        <v>1165</v>
       </c>
       <c r="K299">
         <v>0</v>
@@ -14761,13 +14830,13 @@
     </row>
     <row r="300" spans="1:11">
       <c r="A300" t="s">
-        <v>1159</v>
+        <v>1166</v>
       </c>
       <c r="B300" t="s">
-        <v>1160</v>
+        <v>1167</v>
       </c>
       <c r="C300" t="s">
-        <v>1161</v>
+        <v>1168</v>
       </c>
       <c r="D300">
         <v>0</v>
@@ -14779,7 +14848,7 @@
         <v>0.86221105326895342</v>
       </c>
       <c r="G300" t="s">
-        <v>1162</v>
+        <v>1169</v>
       </c>
       <c r="H300">
         <v>0.71</v>
@@ -14788,7 +14857,7 @@
         <v>0.93730000000000002</v>
       </c>
       <c r="J300" t="s">
-        <v>1163</v>
+        <v>1170</v>
       </c>
       <c r="K300">
         <v>0</v>
@@ -14796,13 +14865,13 @@
     </row>
     <row r="301" spans="1:11">
       <c r="A301" t="s">
-        <v>1164</v>
+        <v>1171</v>
       </c>
       <c r="B301" t="s">
-        <v>1165</v>
+        <v>1172</v>
       </c>
       <c r="C301" t="s">
-        <v>1166</v>
+        <v>1173</v>
       </c>
       <c r="D301">
         <v>0</v>
@@ -14814,7 +14883,7 @@
         <v>0.99610749193911696</v>
       </c>
       <c r="G301" t="s">
-        <v>1167</v>
+        <v>1174</v>
       </c>
       <c r="H301">
         <v>0.85</v>
@@ -14823,7 +14892,7 @@
         <v>0.96879999999999999</v>
       </c>
       <c r="J301" t="s">
-        <v>1168</v>
+        <v>1175</v>
       </c>
       <c r="K301">
         <v>0</v>
@@ -14831,13 +14900,13 @@
     </row>
     <row r="302" spans="1:11">
       <c r="A302" t="s">
-        <v>1169</v>
+        <v>1176</v>
       </c>
       <c r="B302" t="s">
-        <v>1170</v>
+        <v>1177</v>
       </c>
       <c r="C302" t="s">
-        <v>1171</v>
+        <v>1178</v>
       </c>
       <c r="D302">
         <v>0</v>
@@ -14849,7 +14918,7 @@
         <v>0.78805201069249298</v>
       </c>
       <c r="G302" t="s">
-        <v>1172</v>
+        <v>1179</v>
       </c>
       <c r="H302">
         <v>0.7</v>
@@ -14858,7 +14927,7 @@
         <v>0.93129999999999991</v>
       </c>
       <c r="J302" t="s">
-        <v>1173</v>
+        <v>1180</v>
       </c>
       <c r="K302">
         <v>0</v>
@@ -14866,13 +14935,13 @@
     </row>
     <row r="303" spans="1:11">
       <c r="A303" t="s">
-        <v>1174</v>
+        <v>1181</v>
       </c>
       <c r="B303" t="s">
-        <v>1175</v>
+        <v>1182</v>
       </c>
       <c r="C303" t="s">
-        <v>1176</v>
+        <v>1183</v>
       </c>
       <c r="D303">
         <v>0</v>
@@ -14884,7 +14953,7 @@
         <v>0.96943863981762923</v>
       </c>
       <c r="G303" t="s">
-        <v>1177</v>
+        <v>1184</v>
       </c>
       <c r="H303">
         <v>0.39</v>
@@ -14893,7 +14962,7 @@
         <v>0.8</v>
       </c>
       <c r="J303" t="s">
-        <v>1178</v>
+        <v>1185</v>
       </c>
       <c r="K303">
         <v>0</v>
@@ -14901,13 +14970,13 @@
     </row>
     <row r="304" spans="1:11">
       <c r="A304" t="s">
-        <v>1179</v>
+        <v>1186</v>
       </c>
       <c r="B304" t="s">
-        <v>1180</v>
+        <v>1187</v>
       </c>
       <c r="C304" t="s">
-        <v>1181</v>
+        <v>1188</v>
       </c>
       <c r="D304">
         <v>0</v>
@@ -14919,7 +14988,7 @@
         <v>0.93118385612182153</v>
       </c>
       <c r="G304" t="s">
-        <v>1182</v>
+        <v>1189</v>
       </c>
       <c r="H304">
         <v>1</v>
@@ -14928,7 +14997,7 @@
         <v>0.97329999999999994</v>
       </c>
       <c r="J304" t="s">
-        <v>1183</v>
+        <v>1190</v>
       </c>
       <c r="K304">
         <v>0</v>
@@ -14936,13 +15005,13 @@
     </row>
     <row r="305" spans="1:11">
       <c r="A305" t="s">
-        <v>1184</v>
+        <v>1191</v>
       </c>
       <c r="B305" t="s">
-        <v>1185</v>
+        <v>1192</v>
       </c>
       <c r="C305" t="s">
-        <v>1186</v>
+        <v>1193</v>
       </c>
       <c r="D305">
         <v>0</v>
@@ -14954,7 +15023,7 @@
         <v>0.92150987268919982</v>
       </c>
       <c r="G305" t="s">
-        <v>1187</v>
+        <v>1194</v>
       </c>
       <c r="H305">
         <v>0.73</v>
@@ -14963,7 +15032,7 @@
         <v>0.86599999999999999</v>
       </c>
       <c r="J305" t="s">
-        <v>1188</v>
+        <v>1195</v>
       </c>
       <c r="K305">
         <v>0</v>
@@ -14971,13 +15040,13 @@
     </row>
     <row r="306" spans="1:11">
       <c r="A306" t="s">
-        <v>1189</v>
+        <v>1196</v>
       </c>
       <c r="B306" t="s">
-        <v>1190</v>
+        <v>1197</v>
       </c>
       <c r="C306" t="s">
-        <v>1190</v>
+        <v>1197</v>
       </c>
       <c r="D306">
         <v>1</v>
@@ -15006,13 +15075,13 @@
     </row>
     <row r="307" spans="1:11">
       <c r="A307" t="s">
-        <v>1191</v>
+        <v>1198</v>
       </c>
       <c r="B307" t="s">
-        <v>1192</v>
+        <v>1199</v>
       </c>
       <c r="C307" t="s">
-        <v>1193</v>
+        <v>1200</v>
       </c>
       <c r="D307">
         <v>0</v>
@@ -15024,7 +15093,7 @@
         <v>0.84459459459459441</v>
       </c>
       <c r="G307" t="s">
-        <v>1194</v>
+        <v>1201</v>
       </c>
       <c r="H307">
         <v>0.62</v>
@@ -15033,7 +15102,7 @@
         <v>0.95609999999999995</v>
       </c>
       <c r="J307" t="s">
-        <v>1195</v>
+        <v>1202</v>
       </c>
       <c r="K307">
         <v>0</v>
@@ -15041,13 +15110,13 @@
     </row>
     <row r="308" spans="1:11">
       <c r="A308" t="s">
-        <v>1196</v>
+        <v>1203</v>
       </c>
       <c r="B308" t="s">
-        <v>1197</v>
+        <v>1204</v>
       </c>
       <c r="C308" t="s">
-        <v>1198</v>
+        <v>1205</v>
       </c>
       <c r="D308">
         <v>0</v>
@@ -15059,7 +15128,7 @@
         <v>0.88969017094017089</v>
       </c>
       <c r="G308" t="s">
-        <v>1199</v>
+        <v>1206</v>
       </c>
       <c r="H308">
         <v>0.52</v>
@@ -15068,7 +15137,7 @@
         <v>0.79569999999999996</v>
       </c>
       <c r="J308" t="s">
-        <v>1200</v>
+        <v>1207</v>
       </c>
       <c r="K308">
         <v>0</v>
@@ -15076,13 +15145,13 @@
     </row>
     <row r="309" spans="1:11">
       <c r="A309" t="s">
-        <v>1201</v>
+        <v>1208</v>
       </c>
       <c r="B309" t="s">
-        <v>1202</v>
+        <v>1209</v>
       </c>
       <c r="C309" t="s">
-        <v>1203</v>
+        <v>1210</v>
       </c>
       <c r="D309">
         <v>0</v>
@@ -15094,7 +15163,7 @@
         <v>0.91395863315515335</v>
       </c>
       <c r="G309" t="s">
-        <v>1204</v>
+        <v>1211</v>
       </c>
       <c r="H309">
         <v>0.71</v>
@@ -15103,7 +15172,7 @@
         <v>0.9173</v>
       </c>
       <c r="J309" t="s">
-        <v>1205</v>
+        <v>1212</v>
       </c>
       <c r="K309">
         <v>0</v>
@@ -15111,13 +15180,13 @@
     </row>
     <row r="310" spans="1:11">
       <c r="A310" t="s">
-        <v>1206</v>
+        <v>1213</v>
       </c>
       <c r="B310" t="s">
-        <v>1207</v>
+        <v>1214</v>
       </c>
       <c r="C310" t="s">
-        <v>1207</v>
+        <v>1214</v>
       </c>
       <c r="D310">
         <v>1</v>
@@ -15146,13 +15215,13 @@
     </row>
     <row r="311" spans="1:11">
       <c r="A311" t="s">
-        <v>1208</v>
+        <v>1215</v>
       </c>
       <c r="B311" t="s">
-        <v>1209</v>
+        <v>1216</v>
       </c>
       <c r="C311" t="s">
-        <v>1210</v>
+        <v>1217</v>
       </c>
       <c r="D311">
         <v>0</v>
@@ -15164,7 +15233,7 @@
         <v>0.58455728246307592</v>
       </c>
       <c r="G311" t="s">
-        <v>1211</v>
+        <v>1218</v>
       </c>
       <c r="H311">
         <v>0.22</v>
@@ -15173,7 +15242,7 @@
         <v>0.86419999999999997</v>
       </c>
       <c r="J311" t="s">
-        <v>1212</v>
+        <v>1219</v>
       </c>
       <c r="K311">
         <v>0</v>
@@ -15181,13 +15250,13 @@
     </row>
     <row r="312" spans="1:11">
       <c r="A312" t="s">
-        <v>1213</v>
+        <v>1220</v>
       </c>
       <c r="B312" t="s">
-        <v>1214</v>
+        <v>1221</v>
       </c>
       <c r="C312" t="s">
-        <v>1215</v>
+        <v>1222</v>
       </c>
       <c r="D312">
         <v>0</v>
@@ -15199,7 +15268,7 @@
         <v>0.96341746046674104</v>
       </c>
       <c r="G312" t="s">
-        <v>1216</v>
+        <v>1223</v>
       </c>
       <c r="H312">
         <v>0.82</v>
@@ -15208,7 +15277,7 @@
         <v>0.9375</v>
       </c>
       <c r="J312" t="s">
-        <v>1217</v>
+        <v>1224</v>
       </c>
       <c r="K312">
         <v>0</v>
@@ -15216,13 +15285,13 @@
     </row>
     <row r="313" spans="1:11">
       <c r="A313" t="s">
-        <v>1218</v>
+        <v>1225</v>
       </c>
       <c r="B313" t="s">
-        <v>1219</v>
+        <v>1226</v>
       </c>
       <c r="C313" t="s">
-        <v>1220</v>
+        <v>1227</v>
       </c>
       <c r="D313">
         <v>0</v>
@@ -15234,7 +15303,7 @@
         <v>0.78049017672603971</v>
       </c>
       <c r="G313" t="s">
-        <v>1221</v>
+        <v>1228</v>
       </c>
       <c r="H313">
         <v>0.84</v>
@@ -15243,7 +15312,7 @@
         <v>0.94830000000000003</v>
       </c>
       <c r="J313" t="s">
-        <v>1222</v>
+        <v>1229</v>
       </c>
       <c r="K313">
         <v>0</v>
@@ -15251,13 +15320,13 @@
     </row>
     <row r="314" spans="1:11">
       <c r="A314" t="s">
-        <v>1223</v>
+        <v>1230</v>
       </c>
       <c r="B314" t="s">
-        <v>1224</v>
+        <v>1231</v>
       </c>
       <c r="C314" t="s">
-        <v>1225</v>
+        <v>1232</v>
       </c>
       <c r="D314">
         <v>0</v>
@@ -15269,7 +15338,7 @@
         <v>0.90394202898550713</v>
       </c>
       <c r="G314" t="s">
-        <v>1226</v>
+        <v>1233</v>
       </c>
       <c r="H314">
         <v>0.92</v>
@@ -15278,7 +15347,7 @@
         <v>0.96870000000000001</v>
       </c>
       <c r="J314" t="s">
-        <v>1227</v>
+        <v>1234</v>
       </c>
       <c r="K314">
         <v>0</v>
@@ -15286,13 +15355,13 @@
     </row>
     <row r="315" spans="1:11">
       <c r="A315" t="s">
-        <v>1228</v>
+        <v>1235</v>
       </c>
       <c r="B315" t="s">
-        <v>1229</v>
+        <v>1236</v>
       </c>
       <c r="C315" t="s">
-        <v>1230</v>
+        <v>1237</v>
       </c>
       <c r="D315">
         <v>0</v>
@@ -15304,7 +15373,7 @@
         <v>0.87517556179775269</v>
       </c>
       <c r="G315" t="s">
-        <v>1231</v>
+        <v>1238</v>
       </c>
       <c r="H315">
         <v>0.5</v>
@@ -15321,13 +15390,13 @@
     </row>
     <row r="316" spans="1:11">
       <c r="A316" t="s">
-        <v>1232</v>
+        <v>1239</v>
       </c>
       <c r="B316" t="s">
-        <v>1233</v>
+        <v>1240</v>
       </c>
       <c r="C316" t="s">
-        <v>1234</v>
+        <v>1241</v>
       </c>
       <c r="D316">
         <v>0</v>
@@ -15339,7 +15408,7 @@
         <v>0.77401692384270782</v>
       </c>
       <c r="G316" t="s">
-        <v>1235</v>
+        <v>1242</v>
       </c>
       <c r="H316">
         <v>0.49</v>
@@ -15348,7 +15417,7 @@
         <v>0.88280000000000003</v>
       </c>
       <c r="J316" t="s">
-        <v>1236</v>
+        <v>1243</v>
       </c>
       <c r="K316">
         <v>0</v>
@@ -15356,13 +15425,13 @@
     </row>
     <row r="317" spans="1:11">
       <c r="A317" t="s">
-        <v>1237</v>
+        <v>1244</v>
       </c>
       <c r="B317" t="s">
-        <v>1238</v>
+        <v>1245</v>
       </c>
       <c r="C317" t="s">
-        <v>1239</v>
+        <v>1246</v>
       </c>
       <c r="D317">
         <v>0</v>
@@ -15374,7 +15443,7 @@
         <v>0.70448824816204658</v>
       </c>
       <c r="G317" t="s">
-        <v>1240</v>
+        <v>1247</v>
       </c>
       <c r="H317">
         <v>0.53</v>
@@ -15383,7 +15452,7 @@
         <v>0.9103</v>
       </c>
       <c r="J317" t="s">
-        <v>1241</v>
+        <v>1248</v>
       </c>
       <c r="K317">
         <v>0</v>
@@ -15391,13 +15460,13 @@
     </row>
     <row r="318" spans="1:11">
       <c r="A318" t="s">
-        <v>1242</v>
+        <v>1249</v>
       </c>
       <c r="B318" t="s">
-        <v>1243</v>
+        <v>1250</v>
       </c>
       <c r="C318" t="s">
-        <v>1244</v>
+        <v>1251</v>
       </c>
       <c r="D318">
         <v>0</v>
@@ -15409,7 +15478,7 @@
         <v>0.8578868267449582</v>
       </c>
       <c r="G318" t="s">
-        <v>1245</v>
+        <v>1252</v>
       </c>
       <c r="H318">
         <v>1</v>
@@ -15418,7 +15487,7 @@
         <v>0.93700000000000006</v>
       </c>
       <c r="J318" t="s">
-        <v>1246</v>
+        <v>1253</v>
       </c>
       <c r="K318">
         <v>0</v>
@@ -15426,13 +15495,13 @@
     </row>
     <row r="319" spans="1:11">
       <c r="A319" t="s">
-        <v>1247</v>
+        <v>1254</v>
       </c>
       <c r="B319" t="s">
-        <v>1248</v>
+        <v>1255</v>
       </c>
       <c r="C319" t="s">
-        <v>1249</v>
+        <v>1256</v>
       </c>
       <c r="D319">
         <v>0</v>
@@ -15444,7 +15513,7 @@
         <v>0.98576950809165209</v>
       </c>
       <c r="G319" t="s">
-        <v>1250</v>
+        <v>1257</v>
       </c>
       <c r="H319">
         <v>0.91</v>
@@ -15453,7 +15522,7 @@
         <v>0.96109999999999995</v>
       </c>
       <c r="J319" t="s">
-        <v>1251</v>
+        <v>1258</v>
       </c>
       <c r="K319">
         <v>0</v>
@@ -15461,13 +15530,13 @@
     </row>
     <row r="320" spans="1:11">
       <c r="A320" t="s">
-        <v>1252</v>
+        <v>1259</v>
       </c>
       <c r="B320" t="s">
-        <v>1253</v>
+        <v>1260</v>
       </c>
       <c r="C320" t="s">
-        <v>1254</v>
+        <v>1261</v>
       </c>
       <c r="D320">
         <v>0</v>
@@ -15479,7 +15548,7 @@
         <v>0.99142030393168623</v>
       </c>
       <c r="G320" t="s">
-        <v>1255</v>
+        <v>1262</v>
       </c>
       <c r="H320">
         <v>0.84</v>
@@ -15496,13 +15565,13 @@
     </row>
     <row r="321" spans="1:11">
       <c r="A321" t="s">
-        <v>1256</v>
+        <v>1263</v>
       </c>
       <c r="B321" t="s">
-        <v>1257</v>
+        <v>1264</v>
       </c>
       <c r="C321" t="s">
-        <v>1257</v>
+        <v>1264</v>
       </c>
       <c r="D321">
         <v>1</v>
@@ -15531,13 +15600,13 @@
     </row>
     <row r="322" spans="1:11">
       <c r="A322" t="s">
-        <v>1258</v>
+        <v>1265</v>
       </c>
       <c r="B322" t="s">
-        <v>1259</v>
+        <v>1266</v>
       </c>
       <c r="C322" t="s">
-        <v>1260</v>
+        <v>1267</v>
       </c>
       <c r="D322">
         <v>0</v>
@@ -15549,7 +15618,7 @@
         <v>0.95990232827825017</v>
       </c>
       <c r="G322" t="s">
-        <v>1261</v>
+        <v>1268</v>
       </c>
       <c r="H322">
         <v>0.59</v>
@@ -15558,7 +15627,7 @@
         <v>0.8427</v>
       </c>
       <c r="J322" t="s">
-        <v>1262</v>
+        <v>1269</v>
       </c>
       <c r="K322">
         <v>0</v>
@@ -15566,13 +15635,13 @@
     </row>
     <row r="323" spans="1:11">
       <c r="A323" t="s">
-        <v>1263</v>
+        <v>1270</v>
       </c>
       <c r="B323" t="s">
-        <v>1264</v>
+        <v>1271</v>
       </c>
       <c r="C323" t="s">
-        <v>1265</v>
+        <v>1272</v>
       </c>
       <c r="D323">
         <v>0</v>
@@ -15584,7 +15653,7 @@
         <v>0.91487850396871861</v>
       </c>
       <c r="G323" t="s">
-        <v>1266</v>
+        <v>1273</v>
       </c>
       <c r="H323">
         <v>0.88</v>
@@ -15593,7 +15662,7 @@
         <v>0.95950000000000002</v>
       </c>
       <c r="J323" t="s">
-        <v>1267</v>
+        <v>1274</v>
       </c>
       <c r="K323">
         <v>0</v>
@@ -15601,13 +15670,13 @@
     </row>
     <row r="324" spans="1:11">
       <c r="A324" t="s">
-        <v>1268</v>
+        <v>1275</v>
       </c>
       <c r="B324" t="s">
-        <v>1269</v>
+        <v>1276</v>
       </c>
       <c r="C324" t="s">
-        <v>1270</v>
+        <v>1277</v>
       </c>
       <c r="D324">
         <v>0</v>
@@ -15619,7 +15688,7 @@
         <v>0.84168421052631581</v>
       </c>
       <c r="G324" t="s">
-        <v>1271</v>
+        <v>1278</v>
       </c>
       <c r="H324">
         <v>0.62</v>
@@ -15628,7 +15697,7 @@
         <v>0.92590000000000006</v>
       </c>
       <c r="J324" t="s">
-        <v>1217</v>
+        <v>1224</v>
       </c>
       <c r="K324">
         <v>0</v>
@@ -15636,13 +15705,13 @@
     </row>
     <row r="325" spans="1:11">
       <c r="A325" t="s">
-        <v>1272</v>
+        <v>1279</v>
       </c>
       <c r="B325" t="s">
-        <v>1273</v>
+        <v>1280</v>
       </c>
       <c r="C325" t="s">
-        <v>1274</v>
+        <v>1281</v>
       </c>
       <c r="D325">
         <v>0</v>
@@ -15654,7 +15723,7 @@
         <v>0.89947226617328602</v>
       </c>
       <c r="G325" t="s">
-        <v>1275</v>
+        <v>1282</v>
       </c>
       <c r="H325">
         <v>0.74</v>
@@ -15663,7 +15732,7 @@
         <v>0.93849999999999989</v>
       </c>
       <c r="J325" t="s">
-        <v>1276</v>
+        <v>1283</v>
       </c>
       <c r="K325">
         <v>0</v>
@@ -15671,13 +15740,13 @@
     </row>
     <row r="326" spans="1:11">
       <c r="A326" t="s">
-        <v>1277</v>
+        <v>1284</v>
       </c>
       <c r="B326" t="s">
-        <v>1278</v>
+        <v>1285</v>
       </c>
       <c r="C326" t="s">
-        <v>1279</v>
+        <v>1286</v>
       </c>
       <c r="D326">
         <v>0</v>
@@ -15689,7 +15758,7 @@
         <v>0.98131106566689386</v>
       </c>
       <c r="G326" t="s">
-        <v>1280</v>
+        <v>1287</v>
       </c>
       <c r="H326">
         <v>0.92</v>
@@ -15698,7 +15767,7 @@
         <v>0.98769999999999991</v>
       </c>
       <c r="J326" t="s">
-        <v>1281</v>
+        <v>1288</v>
       </c>
       <c r="K326">
         <v>0</v>
@@ -15706,13 +15775,13 @@
     </row>
     <row r="327" spans="1:11">
       <c r="A327" t="s">
-        <v>1282</v>
+        <v>1289</v>
       </c>
       <c r="B327" t="s">
-        <v>1283</v>
+        <v>1290</v>
       </c>
       <c r="C327" t="s">
-        <v>1284</v>
+        <v>1291</v>
       </c>
       <c r="D327">
         <v>0</v>
@@ -15724,7 +15793,7 @@
         <v>0.78317639673571882</v>
       </c>
       <c r="G327" t="s">
-        <v>1285</v>
+        <v>1292</v>
       </c>
       <c r="H327">
         <v>0.6</v>
@@ -15733,7 +15802,7 @@
         <v>0.7742</v>
       </c>
       <c r="J327" t="s">
-        <v>1286</v>
+        <v>1293</v>
       </c>
       <c r="K327">
         <v>0</v>

--- a/HE/W_in_progress/Analisi_ClaudeSonnet.xlsx
+++ b/HE/W_in_progress/Analisi_ClaudeSonnet.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28318"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1BD16D20-8803-4BDB-8C4C-9498C80F1CF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{080FDB42-E215-47AF-A7D3-3AACF5E8DDAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1658" uniqueCount="1294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1665" uniqueCount="1300">
   <si>
     <t>IN</t>
   </si>
@@ -1578,6 +1578,9 @@
     <t>0.38888888427469137</t>
   </si>
   <si>
+    <t>Non c'è la dichiarazione</t>
+  </si>
+  <si>
     <t>define the component key_update with reg_key_in as input std_logic_vector of 80 bit, round_counter input std_logic_vector of 5 bit and reg_key_out output std_logic_vector of 80 bit</t>
   </si>
   <si>
@@ -1632,6 +1635,9 @@
     <t>0.7755102040816326</t>
   </si>
   <si>
+    <t>Errore sintattico ma va bene</t>
+  </si>
+  <si>
     <t>sistemaTOT is a component with clkA as input std_logic signal, clkB as input std_logic signal, rst as input std_logic signal, start as input std_logic signal, data_out as output std_logic_vector of 32 bit</t>
   </si>
   <si>
@@ -1719,6 +1725,9 @@
     <t>0.24999999625000005</t>
   </si>
   <si>
+    <t xml:space="preserve">Va bene anche con a mappatura </t>
+  </si>
+  <si>
     <t>define the instance of Encoder called enc with X mapped to switch, Y mapped to ytemp</t>
   </si>
   <si>
@@ -1755,6 +1764,9 @@
     <t>0.24561403508771928</t>
   </si>
   <si>
+    <t>Ci sta anche con i parametri</t>
+  </si>
+  <si>
     <t>define an instance of perm_layer component called pl</t>
   </si>
   <si>
@@ -1785,6 +1797,9 @@
     <t>0.3529411723183391</t>
   </si>
   <si>
+    <t>RIFERIMENTO ERRATO, assegnano tutti e due un singolo valore e non un insieme di elementi</t>
+  </si>
+  <si>
     <t>uut is an instance of the implentation dataflow_v2 of entity mux_2_1 with a0 mapped to input(0), a1 mapped to input(1), s mapped to control, y mapped to output</t>
   </si>
   <si>
@@ -1861,6 +1876,9 @@
   </si>
   <si>
     <t>0.5263157845983379</t>
+  </si>
+  <si>
+    <t>RIFERIMENTO ERRATO (Non ripetono il processo)</t>
   </si>
   <si>
     <t>wait for 100 ns, set rst signal to '0'</t>
@@ -4294,8 +4312,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L327"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="L130" sqref="L130"/>
+    <sheetView tabSelected="1" topLeftCell="B137" workbookViewId="0">
+      <selection activeCell="L164" sqref="L164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8843,7 +8861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:11">
+    <row r="129" spans="1:12">
       <c r="A129" t="s">
         <v>464</v>
       </c>
@@ -8875,10 +8893,10 @@
         <v>468</v>
       </c>
       <c r="K129">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12">
       <c r="A130" t="s">
         <v>469</v>
       </c>
@@ -8910,10 +8928,10 @@
         <v>412</v>
       </c>
       <c r="K130">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12">
       <c r="A131" t="s">
         <v>472</v>
       </c>
@@ -8948,7 +8966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:11">
+    <row r="132" spans="1:12">
       <c r="A132" t="s">
         <v>474</v>
       </c>
@@ -8983,7 +9001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:11">
+    <row r="133" spans="1:12">
       <c r="A133" t="s">
         <v>476</v>
       </c>
@@ -9018,7 +9036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:11">
+    <row r="134" spans="1:12">
       <c r="A134" t="s">
         <v>478</v>
       </c>
@@ -9053,7 +9071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:11">
+    <row r="135" spans="1:12">
       <c r="A135" t="s">
         <v>480</v>
       </c>
@@ -9085,10 +9103,10 @@
         <v>484</v>
       </c>
       <c r="K135">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12">
       <c r="A136" t="s">
         <v>485</v>
       </c>
@@ -9120,10 +9138,10 @@
         <v>489</v>
       </c>
       <c r="K136">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12">
       <c r="A137" t="s">
         <v>490</v>
       </c>
@@ -9155,10 +9173,10 @@
         <v>494</v>
       </c>
       <c r="K137">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12">
       <c r="A138" t="s">
         <v>495</v>
       </c>
@@ -9190,10 +9208,10 @@
         <v>51</v>
       </c>
       <c r="K138">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12">
       <c r="A139" t="s">
         <v>499</v>
       </c>
@@ -9225,10 +9243,10 @@
         <v>503</v>
       </c>
       <c r="K139">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12">
       <c r="A140" t="s">
         <v>504</v>
       </c>
@@ -9260,10 +9278,10 @@
         <v>508</v>
       </c>
       <c r="K140">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12">
       <c r="A141" t="s">
         <v>509</v>
       </c>
@@ -9295,10 +9313,10 @@
         <v>508</v>
       </c>
       <c r="K141">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12">
       <c r="A142" t="s">
         <v>510</v>
       </c>
@@ -9332,16 +9350,19 @@
       <c r="K142">
         <v>0</v>
       </c>
-    </row>
-    <row r="143" spans="1:11">
+      <c r="L142" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12">
       <c r="A143" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B143" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C143" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="D143">
         <v>0</v>
@@ -9353,7 +9374,7 @@
         <v>0.99690437876548454</v>
       </c>
       <c r="G143" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="H143">
         <v>0.76</v>
@@ -9362,21 +9383,21 @@
         <v>0.97629999999999995</v>
       </c>
       <c r="J143" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="K143">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12">
       <c r="A144" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B144" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C144" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="D144">
         <v>0</v>
@@ -9388,7 +9409,7 @@
         <v>0.43050730930670128</v>
       </c>
       <c r="G144" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="H144">
         <v>0.22</v>
@@ -9397,21 +9418,21 @@
         <v>0.81120000000000003</v>
       </c>
       <c r="J144" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="K144">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12">
       <c r="A145" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B145" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="C145" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="D145">
         <v>0</v>
@@ -9432,21 +9453,21 @@
         <v>0.92370000000000008</v>
       </c>
       <c r="J145" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="K145">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12">
       <c r="A146" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B146" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="C146" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="D146">
         <v>0</v>
@@ -9458,7 +9479,7 @@
         <v>0.48453282828282829</v>
       </c>
       <c r="G146" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="H146">
         <v>0.19</v>
@@ -9470,18 +9491,21 @@
         <v>79</v>
       </c>
       <c r="K146">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:11">
+        <v>1</v>
+      </c>
+      <c r="L146" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12">
       <c r="A147" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="B147" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="C147" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="D147">
         <v>0</v>
@@ -9493,7 +9517,7 @@
         <v>0.69024937734981062</v>
       </c>
       <c r="G147" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="H147">
         <v>0.33</v>
@@ -9505,18 +9529,18 @@
         <v>70</v>
       </c>
       <c r="K147">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12">
       <c r="A148" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="B148" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="C148" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="D148">
         <v>0</v>
@@ -9528,7 +9552,7 @@
         <v>0.99309082058260589</v>
       </c>
       <c r="G148" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="H148">
         <v>0.72</v>
@@ -9537,21 +9561,21 @@
         <v>0.89629999999999999</v>
       </c>
       <c r="J148" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="K148">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12">
       <c r="A149" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="B149" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="C149" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="D149">
         <v>0</v>
@@ -9563,7 +9587,7 @@
         <v>0.7382993344907407</v>
       </c>
       <c r="G149" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="H149">
         <v>0.45</v>
@@ -9575,18 +9599,18 @@
         <v>195</v>
       </c>
       <c r="K149">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12">
       <c r="A150" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="B150" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="C150" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="D150">
         <v>0</v>
@@ -9598,7 +9622,7 @@
         <v>0.99146041395281514</v>
       </c>
       <c r="G150" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="H150">
         <v>0.6</v>
@@ -9607,21 +9631,21 @@
         <v>0.87560000000000004</v>
       </c>
       <c r="J150" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="K150">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12">
       <c r="A151" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="B151" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="C151" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="D151">
         <v>1</v>
@@ -9648,15 +9672,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:11">
+    <row r="152" spans="1:12">
       <c r="A152" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="B152" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="C152" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="D152">
         <v>0</v>
@@ -9677,21 +9701,21 @@
         <v>1</v>
       </c>
       <c r="J152" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="K152">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12">
       <c r="A153" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="B153" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="C153" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="D153">
         <v>0</v>
@@ -9703,7 +9727,7 @@
         <v>0.92162956025711973</v>
       </c>
       <c r="G153" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="H153">
         <v>0.46</v>
@@ -9712,21 +9736,24 @@
         <v>0.79090000000000005</v>
       </c>
       <c r="J153" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="K153">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:11">
+        <v>1</v>
+      </c>
+      <c r="L153" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12">
       <c r="A154" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="B154" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="C154" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="D154">
         <v>0</v>
@@ -9738,7 +9765,7 @@
         <v>0.99989822918786897</v>
       </c>
       <c r="G154" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="H154">
         <v>1</v>
@@ -9750,18 +9777,18 @@
         <v>204</v>
       </c>
       <c r="K154">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12">
       <c r="A155" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="B155" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="C155" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="D155">
         <v>0</v>
@@ -9773,7 +9800,7 @@
         <v>0.89871878799214444</v>
       </c>
       <c r="G155" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="H155">
         <v>0.34</v>
@@ -9782,21 +9809,24 @@
         <v>0.70310000000000006</v>
       </c>
       <c r="J155" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="K155">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:11">
+        <v>1</v>
+      </c>
+      <c r="L155" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12">
       <c r="A156" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="B156" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="C156" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="D156">
         <v>0</v>
@@ -9808,7 +9838,7 @@
         <v>0.84441489361702138</v>
       </c>
       <c r="G156" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="H156">
         <v>0.27</v>
@@ -9817,21 +9847,24 @@
         <v>0.79090000000000005</v>
       </c>
       <c r="J156" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="K156">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:11">
+        <v>1</v>
+      </c>
+      <c r="L156" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12">
       <c r="A157" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="B157" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="C157" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="D157">
         <v>0</v>
@@ -9843,7 +9876,7 @@
         <v>0.75498575498575504</v>
       </c>
       <c r="G157" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="H157">
         <v>0.56000000000000005</v>
@@ -9852,21 +9885,21 @@
         <v>0.86939999999999995</v>
       </c>
       <c r="J157" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="K157">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12">
       <c r="A158" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="B158" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="C158" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="D158">
         <v>0</v>
@@ -9878,7 +9911,7 @@
         <v>0.95031946435780013</v>
       </c>
       <c r="G158" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="H158">
         <v>0.44</v>
@@ -9887,21 +9920,24 @@
         <v>0.6653</v>
       </c>
       <c r="J158" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="K158">
         <v>0</v>
       </c>
-    </row>
-    <row r="159" spans="1:11">
+      <c r="L158" s="2" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12">
       <c r="A159" t="s">
-        <v>584</v>
+        <v>589</v>
       </c>
       <c r="B159" t="s">
-        <v>585</v>
+        <v>590</v>
       </c>
       <c r="C159" t="s">
-        <v>586</v>
+        <v>591</v>
       </c>
       <c r="D159">
         <v>0</v>
@@ -9913,7 +9949,7 @@
         <v>0.9729625458792126</v>
       </c>
       <c r="G159" t="s">
-        <v>587</v>
+        <v>592</v>
       </c>
       <c r="H159">
         <v>0.94</v>
@@ -9922,21 +9958,21 @@
         <v>0.98819999999999997</v>
       </c>
       <c r="J159" t="s">
-        <v>588</v>
+        <v>593</v>
       </c>
       <c r="K159">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="1:11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12">
       <c r="A160" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="B160" t="s">
-        <v>590</v>
+        <v>595</v>
       </c>
       <c r="C160" t="s">
-        <v>591</v>
+        <v>596</v>
       </c>
       <c r="D160">
         <v>0</v>
@@ -9948,7 +9984,7 @@
         <v>0.99997459736828731</v>
       </c>
       <c r="G160" t="s">
-        <v>592</v>
+        <v>597</v>
       </c>
       <c r="H160">
         <v>1</v>
@@ -9960,18 +9996,18 @@
         <v>58</v>
       </c>
       <c r="K160">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12">
       <c r="A161" t="s">
-        <v>593</v>
+        <v>598</v>
       </c>
       <c r="B161" t="s">
-        <v>594</v>
+        <v>599</v>
       </c>
       <c r="C161" t="s">
-        <v>594</v>
+        <v>599</v>
       </c>
       <c r="D161">
         <v>1</v>
@@ -9998,15 +10034,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:11">
+    <row r="162" spans="1:12">
       <c r="A162" t="s">
-        <v>595</v>
+        <v>600</v>
       </c>
       <c r="B162" t="s">
-        <v>596</v>
+        <v>601</v>
       </c>
       <c r="C162" t="s">
-        <v>597</v>
+        <v>602</v>
       </c>
       <c r="D162">
         <v>0</v>
@@ -10018,7 +10054,7 @@
         <v>0.99768518518518523</v>
       </c>
       <c r="G162" t="s">
-        <v>598</v>
+        <v>603</v>
       </c>
       <c r="H162">
         <v>1</v>
@@ -10027,21 +10063,21 @@
         <v>1</v>
       </c>
       <c r="J162" t="s">
-        <v>599</v>
+        <v>604</v>
       </c>
       <c r="K162">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="1:11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12">
       <c r="A163" t="s">
-        <v>600</v>
+        <v>605</v>
       </c>
       <c r="B163" t="s">
-        <v>601</v>
+        <v>606</v>
       </c>
       <c r="C163" t="s">
-        <v>602</v>
+        <v>607</v>
       </c>
       <c r="D163">
         <v>0</v>
@@ -10053,7 +10089,7 @@
         <v>0.96293556870479957</v>
       </c>
       <c r="G163" t="s">
-        <v>603</v>
+        <v>608</v>
       </c>
       <c r="H163">
         <v>0.81</v>
@@ -10062,21 +10098,21 @@
         <v>0.96499999999999997</v>
       </c>
       <c r="J163" t="s">
-        <v>604</v>
+        <v>609</v>
       </c>
       <c r="K163">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="1:11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12">
       <c r="A164" t="s">
-        <v>605</v>
+        <v>610</v>
       </c>
       <c r="B164" t="s">
-        <v>606</v>
+        <v>611</v>
       </c>
       <c r="C164" t="s">
-        <v>607</v>
+        <v>612</v>
       </c>
       <c r="D164">
         <v>0</v>
@@ -10088,7 +10124,7 @@
         <v>0.6110630526720493</v>
       </c>
       <c r="G164" t="s">
-        <v>608</v>
+        <v>613</v>
       </c>
       <c r="H164">
         <v>0.44</v>
@@ -10097,21 +10133,24 @@
         <v>0.73980000000000001</v>
       </c>
       <c r="J164" t="s">
-        <v>609</v>
+        <v>614</v>
       </c>
       <c r="K164">
         <v>0</v>
       </c>
-    </row>
-    <row r="165" spans="1:11">
+      <c r="L164" s="2" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12">
       <c r="A165" t="s">
-        <v>610</v>
+        <v>616</v>
       </c>
       <c r="B165" t="s">
-        <v>611</v>
+        <v>617</v>
       </c>
       <c r="C165" t="s">
-        <v>611</v>
+        <v>617</v>
       </c>
       <c r="D165">
         <v>1</v>
@@ -10138,15 +10177,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:11">
+    <row r="166" spans="1:12">
       <c r="A166" t="s">
-        <v>612</v>
+        <v>618</v>
       </c>
       <c r="B166" t="s">
-        <v>613</v>
+        <v>619</v>
       </c>
       <c r="C166" t="s">
-        <v>613</v>
+        <v>619</v>
       </c>
       <c r="D166">
         <v>1</v>
@@ -10173,15 +10212,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:11">
+    <row r="167" spans="1:12">
       <c r="A167" t="s">
-        <v>614</v>
+        <v>620</v>
       </c>
       <c r="B167" t="s">
-        <v>615</v>
+        <v>621</v>
       </c>
       <c r="C167" t="s">
-        <v>615</v>
+        <v>621</v>
       </c>
       <c r="D167">
         <v>1</v>
@@ -10208,15 +10247,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:11">
+    <row r="168" spans="1:12">
       <c r="A168" t="s">
-        <v>616</v>
+        <v>622</v>
       </c>
       <c r="B168" t="s">
-        <v>617</v>
+        <v>623</v>
       </c>
       <c r="C168" t="s">
-        <v>618</v>
+        <v>624</v>
       </c>
       <c r="D168">
         <v>0</v>
@@ -10228,7 +10267,7 @@
         <v>0.84370333499253347</v>
       </c>
       <c r="G168" t="s">
-        <v>619</v>
+        <v>625</v>
       </c>
       <c r="H168">
         <v>1</v>
@@ -10243,15 +10282,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:11">
+    <row r="169" spans="1:12">
       <c r="A169" t="s">
-        <v>620</v>
+        <v>626</v>
       </c>
       <c r="B169" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="C169" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="D169">
         <v>1</v>
@@ -10278,15 +10317,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:11">
+    <row r="170" spans="1:12">
       <c r="A170" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
       <c r="B170" t="s">
-        <v>623</v>
+        <v>629</v>
       </c>
       <c r="C170" t="s">
-        <v>623</v>
+        <v>629</v>
       </c>
       <c r="D170">
         <v>1</v>
@@ -10313,15 +10352,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:11">
+    <row r="171" spans="1:12">
       <c r="A171" t="s">
-        <v>624</v>
+        <v>630</v>
       </c>
       <c r="B171" t="s">
-        <v>625</v>
+        <v>631</v>
       </c>
       <c r="C171" t="s">
-        <v>625</v>
+        <v>631</v>
       </c>
       <c r="D171">
         <v>1</v>
@@ -10348,15 +10387,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:11">
+    <row r="172" spans="1:12">
       <c r="A172" t="s">
-        <v>626</v>
+        <v>632</v>
       </c>
       <c r="B172" t="s">
-        <v>627</v>
+        <v>633</v>
       </c>
       <c r="C172" t="s">
-        <v>627</v>
+        <v>633</v>
       </c>
       <c r="D172">
         <v>1</v>
@@ -10383,15 +10422,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:11">
+    <row r="173" spans="1:12">
       <c r="A173" t="s">
-        <v>628</v>
+        <v>634</v>
       </c>
       <c r="B173" t="s">
-        <v>629</v>
+        <v>635</v>
       </c>
       <c r="C173" t="s">
-        <v>629</v>
+        <v>635</v>
       </c>
       <c r="D173">
         <v>1</v>
@@ -10418,15 +10457,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:11">
+    <row r="174" spans="1:12">
       <c r="A174" t="s">
-        <v>630</v>
+        <v>636</v>
       </c>
       <c r="B174" t="s">
-        <v>631</v>
+        <v>637</v>
       </c>
       <c r="C174" t="s">
-        <v>631</v>
+        <v>637</v>
       </c>
       <c r="D174">
         <v>1</v>
@@ -10453,15 +10492,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:11">
+    <row r="175" spans="1:12">
       <c r="A175" t="s">
-        <v>632</v>
+        <v>638</v>
       </c>
       <c r="B175" t="s">
-        <v>633</v>
+        <v>639</v>
       </c>
       <c r="C175" t="s">
-        <v>634</v>
+        <v>640</v>
       </c>
       <c r="D175">
         <v>0</v>
@@ -10473,7 +10512,7 @@
         <v>0.80942443581920065</v>
       </c>
       <c r="G175" t="s">
-        <v>635</v>
+        <v>641</v>
       </c>
       <c r="H175">
         <v>0.65</v>
@@ -10482,21 +10521,21 @@
         <v>0.70829999999999993</v>
       </c>
       <c r="J175" t="s">
-        <v>636</v>
+        <v>642</v>
       </c>
       <c r="K175">
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:11">
+    <row r="176" spans="1:12">
       <c r="A176" t="s">
-        <v>637</v>
+        <v>643</v>
       </c>
       <c r="B176" t="s">
-        <v>638</v>
+        <v>644</v>
       </c>
       <c r="C176" t="s">
-        <v>638</v>
+        <v>644</v>
       </c>
       <c r="D176">
         <v>1</v>
@@ -10525,13 +10564,13 @@
     </row>
     <row r="177" spans="1:11">
       <c r="A177" t="s">
-        <v>639</v>
+        <v>645</v>
       </c>
       <c r="B177" t="s">
-        <v>640</v>
+        <v>646</v>
       </c>
       <c r="C177" t="s">
-        <v>641</v>
+        <v>647</v>
       </c>
       <c r="D177">
         <v>0</v>
@@ -10543,7 +10582,7 @@
         <v>0.99971064814814814</v>
       </c>
       <c r="G177" t="s">
-        <v>642</v>
+        <v>648</v>
       </c>
       <c r="H177">
         <v>1</v>
@@ -10552,7 +10591,7 @@
         <v>1</v>
       </c>
       <c r="J177" t="s">
-        <v>643</v>
+        <v>649</v>
       </c>
       <c r="K177">
         <v>0</v>
@@ -10560,13 +10599,13 @@
     </row>
     <row r="178" spans="1:11">
       <c r="A178" t="s">
-        <v>644</v>
+        <v>650</v>
       </c>
       <c r="B178" t="s">
-        <v>645</v>
+        <v>651</v>
       </c>
       <c r="C178" t="s">
-        <v>646</v>
+        <v>652</v>
       </c>
       <c r="D178">
         <v>0</v>
@@ -10578,7 +10617,7 @@
         <v>0.99989822918786897</v>
       </c>
       <c r="G178" t="s">
-        <v>647</v>
+        <v>653</v>
       </c>
       <c r="H178">
         <v>1</v>
@@ -10595,13 +10634,13 @@
     </row>
     <row r="179" spans="1:11">
       <c r="A179" t="s">
-        <v>648</v>
+        <v>654</v>
       </c>
       <c r="B179" t="s">
-        <v>649</v>
+        <v>655</v>
       </c>
       <c r="C179" t="s">
-        <v>649</v>
+        <v>655</v>
       </c>
       <c r="D179">
         <v>1</v>
@@ -10630,13 +10669,13 @@
     </row>
     <row r="180" spans="1:11">
       <c r="A180" t="s">
-        <v>650</v>
+        <v>656</v>
       </c>
       <c r="B180" t="s">
-        <v>651</v>
+        <v>657</v>
       </c>
       <c r="C180" t="s">
-        <v>652</v>
+        <v>658</v>
       </c>
       <c r="D180">
         <v>0</v>
@@ -10648,7 +10687,7 @@
         <v>0.86601307189542487</v>
       </c>
       <c r="G180" t="s">
-        <v>653</v>
+        <v>659</v>
       </c>
       <c r="H180">
         <v>0</v>
@@ -10657,7 +10696,7 @@
         <v>0.93900000000000006</v>
       </c>
       <c r="J180" t="s">
-        <v>654</v>
+        <v>660</v>
       </c>
       <c r="K180">
         <v>0</v>
@@ -10665,13 +10704,13 @@
     </row>
     <row r="181" spans="1:11">
       <c r="A181" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="B181" t="s">
-        <v>656</v>
+        <v>662</v>
       </c>
       <c r="C181" t="s">
-        <v>656</v>
+        <v>662</v>
       </c>
       <c r="D181">
         <v>1</v>
@@ -10700,13 +10739,13 @@
     </row>
     <row r="182" spans="1:11">
       <c r="A182" t="s">
-        <v>657</v>
+        <v>663</v>
       </c>
       <c r="B182" t="s">
-        <v>658</v>
+        <v>664</v>
       </c>
       <c r="C182" t="s">
-        <v>658</v>
+        <v>664</v>
       </c>
       <c r="D182">
         <v>1</v>
@@ -10735,13 +10774,13 @@
     </row>
     <row r="183" spans="1:11">
       <c r="A183" t="s">
-        <v>659</v>
+        <v>665</v>
       </c>
       <c r="B183" t="s">
-        <v>660</v>
+        <v>666</v>
       </c>
       <c r="C183" t="s">
-        <v>660</v>
+        <v>666</v>
       </c>
       <c r="D183">
         <v>1</v>
@@ -10770,13 +10809,13 @@
     </row>
     <row r="184" spans="1:11">
       <c r="A184" t="s">
-        <v>661</v>
+        <v>667</v>
       </c>
       <c r="B184" t="s">
-        <v>662</v>
+        <v>668</v>
       </c>
       <c r="C184" t="s">
-        <v>663</v>
+        <v>669</v>
       </c>
       <c r="D184">
         <v>0</v>
@@ -10788,7 +10827,7 @@
         <v>0.93532986111111116</v>
       </c>
       <c r="G184" t="s">
-        <v>664</v>
+        <v>670</v>
       </c>
       <c r="H184">
         <v>0.49</v>
@@ -10805,13 +10844,13 @@
     </row>
     <row r="185" spans="1:11">
       <c r="A185" t="s">
-        <v>665</v>
+        <v>671</v>
       </c>
       <c r="B185" t="s">
-        <v>666</v>
+        <v>672</v>
       </c>
       <c r="C185" t="s">
-        <v>667</v>
+        <v>673</v>
       </c>
       <c r="D185">
         <v>0</v>
@@ -10823,7 +10862,7 @@
         <v>0.93532986111111116</v>
       </c>
       <c r="G185" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="H185">
         <v>0.49</v>
@@ -10840,13 +10879,13 @@
     </row>
     <row r="186" spans="1:11">
       <c r="A186" t="s">
-        <v>668</v>
+        <v>674</v>
       </c>
       <c r="B186" t="s">
-        <v>669</v>
+        <v>675</v>
       </c>
       <c r="C186" t="s">
-        <v>669</v>
+        <v>675</v>
       </c>
       <c r="D186">
         <v>1</v>
@@ -10875,13 +10914,13 @@
     </row>
     <row r="187" spans="1:11">
       <c r="A187" t="s">
-        <v>670</v>
+        <v>676</v>
       </c>
       <c r="B187" t="s">
-        <v>671</v>
+        <v>677</v>
       </c>
       <c r="C187" t="s">
-        <v>671</v>
+        <v>677</v>
       </c>
       <c r="D187">
         <v>1</v>
@@ -10910,13 +10949,13 @@
     </row>
     <row r="188" spans="1:11">
       <c r="A188" t="s">
-        <v>672</v>
+        <v>678</v>
       </c>
       <c r="B188" t="s">
-        <v>673</v>
+        <v>679</v>
       </c>
       <c r="C188" t="s">
-        <v>673</v>
+        <v>679</v>
       </c>
       <c r="D188">
         <v>1</v>
@@ -10945,13 +10984,13 @@
     </row>
     <row r="189" spans="1:11">
       <c r="A189" t="s">
-        <v>674</v>
+        <v>680</v>
       </c>
       <c r="B189" t="s">
-        <v>675</v>
+        <v>681</v>
       </c>
       <c r="C189" t="s">
-        <v>675</v>
+        <v>681</v>
       </c>
       <c r="D189">
         <v>1</v>
@@ -10980,13 +11019,13 @@
     </row>
     <row r="190" spans="1:11">
       <c r="A190" t="s">
-        <v>676</v>
+        <v>682</v>
       </c>
       <c r="B190" t="s">
-        <v>677</v>
+        <v>683</v>
       </c>
       <c r="C190" t="s">
-        <v>677</v>
+        <v>683</v>
       </c>
       <c r="D190">
         <v>1</v>
@@ -11015,13 +11054,13 @@
     </row>
     <row r="191" spans="1:11">
       <c r="A191" t="s">
-        <v>678</v>
+        <v>684</v>
       </c>
       <c r="B191" t="s">
-        <v>679</v>
+        <v>685</v>
       </c>
       <c r="C191" t="s">
-        <v>680</v>
+        <v>686</v>
       </c>
       <c r="D191">
         <v>0</v>
@@ -11033,7 +11072,7 @@
         <v>0.9244156318480643</v>
       </c>
       <c r="G191" t="s">
-        <v>681</v>
+        <v>687</v>
       </c>
       <c r="H191">
         <v>0.64</v>
@@ -11050,13 +11089,13 @@
     </row>
     <row r="192" spans="1:11">
       <c r="A192" t="s">
-        <v>682</v>
+        <v>688</v>
       </c>
       <c r="B192" t="s">
-        <v>683</v>
+        <v>689</v>
       </c>
       <c r="C192" t="s">
-        <v>683</v>
+        <v>689</v>
       </c>
       <c r="D192">
         <v>1</v>
@@ -11085,13 +11124,13 @@
     </row>
     <row r="193" spans="1:11">
       <c r="A193" t="s">
-        <v>684</v>
+        <v>690</v>
       </c>
       <c r="B193" t="s">
-        <v>685</v>
+        <v>691</v>
       </c>
       <c r="C193" t="s">
-        <v>685</v>
+        <v>691</v>
       </c>
       <c r="D193">
         <v>1</v>
@@ -11120,13 +11159,13 @@
     </row>
     <row r="194" spans="1:11">
       <c r="A194" t="s">
-        <v>686</v>
+        <v>692</v>
       </c>
       <c r="B194" t="s">
-        <v>687</v>
+        <v>693</v>
       </c>
       <c r="C194" t="s">
-        <v>687</v>
+        <v>693</v>
       </c>
       <c r="D194">
         <v>1</v>
@@ -11155,13 +11194,13 @@
     </row>
     <row r="195" spans="1:11">
       <c r="A195" t="s">
-        <v>688</v>
+        <v>694</v>
       </c>
       <c r="B195" t="s">
-        <v>689</v>
+        <v>695</v>
       </c>
       <c r="C195" t="s">
-        <v>689</v>
+        <v>695</v>
       </c>
       <c r="D195">
         <v>1</v>
@@ -11190,13 +11229,13 @@
     </row>
     <row r="196" spans="1:11">
       <c r="A196" t="s">
-        <v>690</v>
+        <v>696</v>
       </c>
       <c r="B196" t="s">
-        <v>691</v>
+        <v>697</v>
       </c>
       <c r="C196" t="s">
-        <v>691</v>
+        <v>697</v>
       </c>
       <c r="D196">
         <v>1</v>
@@ -11225,13 +11264,13 @@
     </row>
     <row r="197" spans="1:11">
       <c r="A197" t="s">
-        <v>692</v>
+        <v>698</v>
       </c>
       <c r="B197" t="s">
-        <v>693</v>
+        <v>699</v>
       </c>
       <c r="C197" t="s">
-        <v>693</v>
+        <v>699</v>
       </c>
       <c r="D197">
         <v>1</v>
@@ -11260,13 +11299,13 @@
     </row>
     <row r="198" spans="1:11">
       <c r="A198" t="s">
-        <v>694</v>
+        <v>700</v>
       </c>
       <c r="B198" t="s">
-        <v>695</v>
+        <v>701</v>
       </c>
       <c r="C198" t="s">
-        <v>695</v>
+        <v>701</v>
       </c>
       <c r="D198">
         <v>1</v>
@@ -11295,13 +11334,13 @@
     </row>
     <row r="199" spans="1:11">
       <c r="A199" t="s">
-        <v>696</v>
+        <v>702</v>
       </c>
       <c r="B199" t="s">
-        <v>697</v>
+        <v>703</v>
       </c>
       <c r="C199" t="s">
-        <v>698</v>
+        <v>704</v>
       </c>
       <c r="D199">
         <v>0</v>
@@ -11313,7 +11352,7 @@
         <v>0.88554720133667497</v>
       </c>
       <c r="G199" t="s">
-        <v>699</v>
+        <v>705</v>
       </c>
       <c r="H199">
         <v>0.41</v>
@@ -11322,7 +11361,7 @@
         <v>0.59560000000000002</v>
       </c>
       <c r="J199" t="s">
-        <v>700</v>
+        <v>706</v>
       </c>
       <c r="K199">
         <v>0</v>
@@ -11330,13 +11369,13 @@
     </row>
     <row r="200" spans="1:11">
       <c r="A200" t="s">
-        <v>701</v>
+        <v>707</v>
       </c>
       <c r="B200" t="s">
-        <v>702</v>
+        <v>708</v>
       </c>
       <c r="C200" t="s">
-        <v>703</v>
+        <v>709</v>
       </c>
       <c r="D200">
         <v>0</v>
@@ -11348,7 +11387,7 @@
         <v>0.44856459330143528</v>
       </c>
       <c r="G200" t="s">
-        <v>704</v>
+        <v>710</v>
       </c>
       <c r="H200">
         <v>0</v>
@@ -11357,7 +11396,7 @@
         <v>0.82550000000000001</v>
       </c>
       <c r="J200" t="s">
-        <v>705</v>
+        <v>711</v>
       </c>
       <c r="K200">
         <v>0</v>
@@ -11365,13 +11404,13 @@
     </row>
     <row r="201" spans="1:11">
       <c r="A201" t="s">
-        <v>706</v>
+        <v>712</v>
       </c>
       <c r="B201" t="s">
-        <v>707</v>
+        <v>713</v>
       </c>
       <c r="C201" t="s">
-        <v>708</v>
+        <v>714</v>
       </c>
       <c r="D201">
         <v>0</v>
@@ -11383,7 +11422,7 @@
         <v>0.93829296424452135</v>
       </c>
       <c r="G201" t="s">
-        <v>709</v>
+        <v>715</v>
       </c>
       <c r="H201">
         <v>0.68</v>
@@ -11392,7 +11431,7 @@
         <v>1</v>
       </c>
       <c r="J201" t="s">
-        <v>710</v>
+        <v>716</v>
       </c>
       <c r="K201">
         <v>0</v>
@@ -11400,13 +11439,13 @@
     </row>
     <row r="202" spans="1:11">
       <c r="A202" t="s">
-        <v>711</v>
+        <v>717</v>
       </c>
       <c r="B202" t="s">
-        <v>712</v>
+        <v>718</v>
       </c>
       <c r="C202" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
       <c r="D202">
         <v>0</v>
@@ -11418,7 +11457,7 @@
         <v>0.76138561631791823</v>
       </c>
       <c r="G202" t="s">
-        <v>714</v>
+        <v>720</v>
       </c>
       <c r="H202">
         <v>0.28000000000000003</v>
@@ -11427,7 +11466,7 @@
         <v>0.51049999999999995</v>
       </c>
       <c r="J202" t="s">
-        <v>715</v>
+        <v>721</v>
       </c>
       <c r="K202">
         <v>0</v>
@@ -11435,13 +11474,13 @@
     </row>
     <row r="203" spans="1:11">
       <c r="A203" t="s">
-        <v>716</v>
+        <v>722</v>
       </c>
       <c r="B203" t="s">
-        <v>717</v>
+        <v>723</v>
       </c>
       <c r="C203" t="s">
-        <v>718</v>
+        <v>724</v>
       </c>
       <c r="D203">
         <v>0</v>
@@ -11453,7 +11492,7 @@
         <v>0.71009825633550128</v>
       </c>
       <c r="G203" t="s">
-        <v>719</v>
+        <v>725</v>
       </c>
       <c r="H203">
         <v>0.3</v>
@@ -11462,7 +11501,7 @@
         <v>0.69379999999999997</v>
       </c>
       <c r="J203" t="s">
-        <v>720</v>
+        <v>726</v>
       </c>
       <c r="K203">
         <v>0</v>
@@ -11470,13 +11509,13 @@
     </row>
     <row r="204" spans="1:11">
       <c r="A204" t="s">
-        <v>721</v>
+        <v>727</v>
       </c>
       <c r="B204" t="s">
-        <v>722</v>
+        <v>728</v>
       </c>
       <c r="C204" t="s">
-        <v>723</v>
+        <v>729</v>
       </c>
       <c r="D204">
         <v>0</v>
@@ -11488,7 +11527,7 @@
         <v>0.91097560975609748</v>
       </c>
       <c r="G204" t="s">
-        <v>642</v>
+        <v>648</v>
       </c>
       <c r="H204">
         <v>0.74</v>
@@ -11497,7 +11536,7 @@
         <v>0.87780000000000002</v>
       </c>
       <c r="J204" t="s">
-        <v>724</v>
+        <v>730</v>
       </c>
       <c r="K204">
         <v>0</v>
@@ -11505,13 +11544,13 @@
     </row>
     <row r="205" spans="1:11">
       <c r="A205" t="s">
-        <v>725</v>
+        <v>731</v>
       </c>
       <c r="B205" t="s">
-        <v>726</v>
+        <v>732</v>
       </c>
       <c r="C205" t="s">
-        <v>727</v>
+        <v>733</v>
       </c>
       <c r="D205">
         <v>0</v>
@@ -11523,7 +11562,7 @@
         <v>8.8888888888888892E-2</v>
       </c>
       <c r="G205" t="s">
-        <v>728</v>
+        <v>734</v>
       </c>
       <c r="H205">
         <v>0.08</v>
@@ -11532,7 +11571,7 @@
         <v>0.87819999999999998</v>
       </c>
       <c r="J205" t="s">
-        <v>729</v>
+        <v>735</v>
       </c>
       <c r="K205">
         <v>0</v>
@@ -11540,13 +11579,13 @@
     </row>
     <row r="206" spans="1:11">
       <c r="A206" t="s">
-        <v>730</v>
+        <v>736</v>
       </c>
       <c r="B206" t="s">
-        <v>726</v>
+        <v>732</v>
       </c>
       <c r="C206" t="s">
-        <v>731</v>
+        <v>737</v>
       </c>
       <c r="D206">
         <v>0</v>
@@ -11558,7 +11597,7 @@
         <v>6.6518847006651879E-2</v>
       </c>
       <c r="G206" t="s">
-        <v>728</v>
+        <v>734</v>
       </c>
       <c r="H206">
         <v>0.08</v>
@@ -11567,7 +11606,7 @@
         <v>0.4642</v>
       </c>
       <c r="J206" t="s">
-        <v>732</v>
+        <v>738</v>
       </c>
       <c r="K206">
         <v>0</v>
@@ -11575,13 +11614,13 @@
     </row>
     <row r="207" spans="1:11">
       <c r="A207" t="s">
-        <v>733</v>
+        <v>739</v>
       </c>
       <c r="B207" t="s">
-        <v>734</v>
+        <v>740</v>
       </c>
       <c r="C207" t="s">
-        <v>735</v>
+        <v>741</v>
       </c>
       <c r="D207">
         <v>0</v>
@@ -11593,7 +11632,7 @@
         <v>0.83604522267319026</v>
       </c>
       <c r="G207" t="s">
-        <v>736</v>
+        <v>742</v>
       </c>
       <c r="H207">
         <v>0.68</v>
@@ -11602,7 +11641,7 @@
         <v>0.89659999999999995</v>
       </c>
       <c r="J207" t="s">
-        <v>737</v>
+        <v>743</v>
       </c>
       <c r="K207">
         <v>0</v>
@@ -11610,13 +11649,13 @@
     </row>
     <row r="208" spans="1:11">
       <c r="A208" t="s">
-        <v>738</v>
+        <v>744</v>
       </c>
       <c r="B208" t="s">
-        <v>739</v>
+        <v>745</v>
       </c>
       <c r="C208" t="s">
-        <v>740</v>
+        <v>746</v>
       </c>
       <c r="D208">
         <v>0</v>
@@ -11628,7 +11667,7 @@
         <v>0.40426361627453522</v>
       </c>
       <c r="G208" t="s">
-        <v>741</v>
+        <v>747</v>
       </c>
       <c r="H208">
         <v>0.14000000000000001</v>
@@ -11637,7 +11676,7 @@
         <v>0.39850000000000002</v>
       </c>
       <c r="J208" t="s">
-        <v>742</v>
+        <v>748</v>
       </c>
       <c r="K208">
         <v>0</v>
@@ -11645,13 +11684,13 @@
     </row>
     <row r="209" spans="1:11">
       <c r="A209" t="s">
-        <v>743</v>
+        <v>749</v>
       </c>
       <c r="B209" t="s">
-        <v>744</v>
+        <v>750</v>
       </c>
       <c r="C209" t="s">
-        <v>745</v>
+        <v>751</v>
       </c>
       <c r="D209">
         <v>0</v>
@@ -11663,7 +11702,7 @@
         <v>0.42501822157434388</v>
       </c>
       <c r="G209" t="s">
-        <v>746</v>
+        <v>752</v>
       </c>
       <c r="H209">
         <v>0.13</v>
@@ -11672,7 +11711,7 @@
         <v>0.74309999999999998</v>
       </c>
       <c r="J209" t="s">
-        <v>747</v>
+        <v>753</v>
       </c>
       <c r="K209">
         <v>0</v>
@@ -11680,13 +11719,13 @@
     </row>
     <row r="210" spans="1:11">
       <c r="A210" t="s">
-        <v>748</v>
+        <v>754</v>
       </c>
       <c r="B210" t="s">
-        <v>749</v>
+        <v>755</v>
       </c>
       <c r="C210" t="s">
-        <v>750</v>
+        <v>756</v>
       </c>
       <c r="D210">
         <v>0</v>
@@ -11698,7 +11737,7 @@
         <v>0.76005746690954712</v>
       </c>
       <c r="G210" t="s">
-        <v>751</v>
+        <v>757</v>
       </c>
       <c r="H210">
         <v>0.54</v>
@@ -11707,7 +11746,7 @@
         <v>0.88890000000000002</v>
       </c>
       <c r="J210" t="s">
-        <v>752</v>
+        <v>758</v>
       </c>
       <c r="K210">
         <v>0</v>
@@ -11715,13 +11754,13 @@
     </row>
     <row r="211" spans="1:11">
       <c r="A211" t="s">
-        <v>753</v>
+        <v>759</v>
       </c>
       <c r="B211" t="s">
-        <v>754</v>
+        <v>760</v>
       </c>
       <c r="C211" t="s">
-        <v>754</v>
+        <v>760</v>
       </c>
       <c r="D211">
         <v>1</v>
@@ -11750,13 +11789,13 @@
     </row>
     <row r="212" spans="1:11">
       <c r="A212" t="s">
-        <v>755</v>
+        <v>761</v>
       </c>
       <c r="B212" t="s">
-        <v>756</v>
+        <v>762</v>
       </c>
       <c r="C212" t="s">
-        <v>756</v>
+        <v>762</v>
       </c>
       <c r="D212">
         <v>1</v>
@@ -11785,13 +11824,13 @@
     </row>
     <row r="213" spans="1:11">
       <c r="A213" t="s">
-        <v>757</v>
+        <v>763</v>
       </c>
       <c r="B213" t="s">
-        <v>758</v>
+        <v>764</v>
       </c>
       <c r="C213" t="s">
-        <v>758</v>
+        <v>764</v>
       </c>
       <c r="D213">
         <v>1</v>
@@ -11820,13 +11859,13 @@
     </row>
     <row r="214" spans="1:11">
       <c r="A214" t="s">
-        <v>759</v>
+        <v>765</v>
       </c>
       <c r="B214" t="s">
-        <v>760</v>
+        <v>766</v>
       </c>
       <c r="C214" t="s">
-        <v>761</v>
+        <v>767</v>
       </c>
       <c r="D214">
         <v>0</v>
@@ -11838,7 +11877,7 @@
         <v>0.92688081149619617</v>
       </c>
       <c r="G214" t="s">
-        <v>762</v>
+        <v>768</v>
       </c>
       <c r="H214">
         <v>0.69</v>
@@ -11855,13 +11894,13 @@
     </row>
     <row r="215" spans="1:11">
       <c r="A215" t="s">
-        <v>763</v>
+        <v>769</v>
       </c>
       <c r="B215" t="s">
-        <v>764</v>
+        <v>770</v>
       </c>
       <c r="C215" t="s">
-        <v>765</v>
+        <v>771</v>
       </c>
       <c r="D215">
         <v>0</v>
@@ -11873,7 +11912,7 @@
         <v>0.6463768115942029</v>
       </c>
       <c r="G215" t="s">
-        <v>766</v>
+        <v>772</v>
       </c>
       <c r="H215">
         <v>0.14000000000000001</v>
@@ -11882,7 +11921,7 @@
         <v>0.88170000000000004</v>
       </c>
       <c r="J215" t="s">
-        <v>767</v>
+        <v>773</v>
       </c>
       <c r="K215">
         <v>0</v>
@@ -11890,13 +11929,13 @@
     </row>
     <row r="216" spans="1:11">
       <c r="A216" t="s">
-        <v>768</v>
+        <v>774</v>
       </c>
       <c r="B216" t="s">
-        <v>769</v>
+        <v>775</v>
       </c>
       <c r="C216" t="s">
-        <v>770</v>
+        <v>776</v>
       </c>
       <c r="D216">
         <v>0</v>
@@ -11908,7 +11947,7 @@
         <v>0.7947059528087197</v>
       </c>
       <c r="G216" t="s">
-        <v>771</v>
+        <v>777</v>
       </c>
       <c r="H216">
         <v>0.69</v>
@@ -11917,7 +11956,7 @@
         <v>0.90959999999999996</v>
       </c>
       <c r="J216" t="s">
-        <v>772</v>
+        <v>778</v>
       </c>
       <c r="K216">
         <v>0</v>
@@ -11925,13 +11964,13 @@
     </row>
     <row r="217" spans="1:11">
       <c r="A217" t="s">
-        <v>773</v>
+        <v>779</v>
       </c>
       <c r="B217" t="s">
-        <v>774</v>
+        <v>780</v>
       </c>
       <c r="C217" t="s">
-        <v>775</v>
+        <v>781</v>
       </c>
       <c r="D217">
         <v>0</v>
@@ -11943,7 +11982,7 @@
         <v>0.52686803357644141</v>
       </c>
       <c r="G217" t="s">
-        <v>776</v>
+        <v>782</v>
       </c>
       <c r="H217">
         <v>0.33</v>
@@ -11952,7 +11991,7 @@
         <v>0.78839999999999999</v>
       </c>
       <c r="J217" t="s">
-        <v>777</v>
+        <v>783</v>
       </c>
       <c r="K217">
         <v>0</v>
@@ -11960,13 +11999,13 @@
     </row>
     <row r="218" spans="1:11">
       <c r="A218" t="s">
-        <v>778</v>
+        <v>784</v>
       </c>
       <c r="B218" t="s">
-        <v>779</v>
+        <v>785</v>
       </c>
       <c r="C218" t="s">
-        <v>780</v>
+        <v>786</v>
       </c>
       <c r="D218">
         <v>0</v>
@@ -11978,7 +12017,7 @@
         <v>0.73827261087184259</v>
       </c>
       <c r="G218" t="s">
-        <v>781</v>
+        <v>787</v>
       </c>
       <c r="H218">
         <v>0.45</v>
@@ -11987,7 +12026,7 @@
         <v>0.82950000000000002</v>
       </c>
       <c r="J218" t="s">
-        <v>777</v>
+        <v>783</v>
       </c>
       <c r="K218">
         <v>0</v>
@@ -11995,13 +12034,13 @@
     </row>
     <row r="219" spans="1:11">
       <c r="A219" t="s">
-        <v>782</v>
+        <v>788</v>
       </c>
       <c r="B219" t="s">
-        <v>783</v>
+        <v>789</v>
       </c>
       <c r="C219" t="s">
-        <v>784</v>
+        <v>790</v>
       </c>
       <c r="D219">
         <v>0</v>
@@ -12013,7 +12052,7 @@
         <v>0.73827261087184259</v>
       </c>
       <c r="G219" t="s">
-        <v>785</v>
+        <v>791</v>
       </c>
       <c r="H219">
         <v>0.51</v>
@@ -12022,7 +12061,7 @@
         <v>0.73080000000000001</v>
       </c>
       <c r="J219" t="s">
-        <v>777</v>
+        <v>783</v>
       </c>
       <c r="K219">
         <v>0</v>
@@ -12030,13 +12069,13 @@
     </row>
     <row r="220" spans="1:11">
       <c r="A220" t="s">
-        <v>786</v>
+        <v>792</v>
       </c>
       <c r="B220" t="s">
-        <v>787</v>
+        <v>793</v>
       </c>
       <c r="C220" t="s">
-        <v>788</v>
+        <v>794</v>
       </c>
       <c r="D220">
         <v>0</v>
@@ -12048,7 +12087,7 @@
         <v>0.7947059528087197</v>
       </c>
       <c r="G220" t="s">
-        <v>789</v>
+        <v>795</v>
       </c>
       <c r="H220">
         <v>0.69</v>
@@ -12057,7 +12096,7 @@
         <v>0.83939999999999992</v>
       </c>
       <c r="J220" t="s">
-        <v>772</v>
+        <v>778</v>
       </c>
       <c r="K220">
         <v>0</v>
@@ -12065,13 +12104,13 @@
     </row>
     <row r="221" spans="1:11">
       <c r="A221" t="s">
-        <v>790</v>
+        <v>796</v>
       </c>
       <c r="B221" t="s">
-        <v>791</v>
+        <v>797</v>
       </c>
       <c r="C221" t="s">
-        <v>791</v>
+        <v>797</v>
       </c>
       <c r="D221">
         <v>1</v>
@@ -12100,13 +12139,13 @@
     </row>
     <row r="222" spans="1:11">
       <c r="A222" t="s">
-        <v>792</v>
+        <v>798</v>
       </c>
       <c r="B222" t="s">
-        <v>793</v>
+        <v>799</v>
       </c>
       <c r="C222" t="s">
-        <v>794</v>
+        <v>800</v>
       </c>
       <c r="D222">
         <v>0</v>
@@ -12118,7 +12157,7 @@
         <v>0.98148148148148151</v>
       </c>
       <c r="G222" t="s">
-        <v>795</v>
+        <v>801</v>
       </c>
       <c r="H222">
         <v>0.59</v>
@@ -12135,13 +12174,13 @@
     </row>
     <row r="223" spans="1:11">
       <c r="A223" t="s">
-        <v>796</v>
+        <v>802</v>
       </c>
       <c r="B223" t="s">
-        <v>791</v>
+        <v>797</v>
       </c>
       <c r="C223" t="s">
-        <v>797</v>
+        <v>803</v>
       </c>
       <c r="D223">
         <v>0</v>
@@ -12162,7 +12201,7 @@
         <v>0.95540000000000003</v>
       </c>
       <c r="J223" t="s">
-        <v>798</v>
+        <v>804</v>
       </c>
       <c r="K223">
         <v>0</v>
@@ -12170,13 +12209,13 @@
     </row>
     <row r="224" spans="1:11">
       <c r="A224" t="s">
-        <v>799</v>
+        <v>805</v>
       </c>
       <c r="B224" t="s">
-        <v>800</v>
+        <v>806</v>
       </c>
       <c r="C224" t="s">
-        <v>801</v>
+        <v>807</v>
       </c>
       <c r="D224">
         <v>0</v>
@@ -12188,7 +12227,7 @@
         <v>0.49097772930794348</v>
       </c>
       <c r="G224" t="s">
-        <v>802</v>
+        <v>808</v>
       </c>
       <c r="H224">
         <v>0.2</v>
@@ -12197,7 +12236,7 @@
         <v>0.95180000000000009</v>
       </c>
       <c r="J224" t="s">
-        <v>803</v>
+        <v>809</v>
       </c>
       <c r="K224">
         <v>0</v>
@@ -12205,13 +12244,13 @@
     </row>
     <row r="225" spans="1:11">
       <c r="A225" t="s">
-        <v>804</v>
+        <v>810</v>
       </c>
       <c r="B225" t="s">
-        <v>805</v>
+        <v>811</v>
       </c>
       <c r="C225" t="s">
-        <v>806</v>
+        <v>812</v>
       </c>
       <c r="D225">
         <v>0</v>
@@ -12223,7 +12262,7 @@
         <v>0.27755604075691409</v>
       </c>
       <c r="G225" t="s">
-        <v>807</v>
+        <v>813</v>
       </c>
       <c r="H225">
         <v>0.05</v>
@@ -12232,7 +12271,7 @@
         <v>0.87049999999999994</v>
       </c>
       <c r="J225" t="s">
-        <v>808</v>
+        <v>814</v>
       </c>
       <c r="K225">
         <v>0</v>
@@ -12240,13 +12279,13 @@
     </row>
     <row r="226" spans="1:11">
       <c r="A226" t="s">
-        <v>809</v>
+        <v>815</v>
       </c>
       <c r="B226" t="s">
-        <v>810</v>
+        <v>816</v>
       </c>
       <c r="C226" t="s">
-        <v>811</v>
+        <v>817</v>
       </c>
       <c r="D226">
         <v>0</v>
@@ -12258,7 +12297,7 @@
         <v>0.65867520412974945</v>
       </c>
       <c r="G226" t="s">
-        <v>812</v>
+        <v>818</v>
       </c>
       <c r="H226">
         <v>0.37</v>
@@ -12267,7 +12306,7 @@
         <v>0.96889999999999998</v>
       </c>
       <c r="J226" t="s">
-        <v>813</v>
+        <v>819</v>
       </c>
       <c r="K226">
         <v>0</v>
@@ -12275,13 +12314,13 @@
     </row>
     <row r="227" spans="1:11">
       <c r="A227" t="s">
-        <v>814</v>
+        <v>820</v>
       </c>
       <c r="B227" t="s">
-        <v>815</v>
+        <v>821</v>
       </c>
       <c r="C227" t="s">
-        <v>815</v>
+        <v>821</v>
       </c>
       <c r="D227">
         <v>1</v>
@@ -12310,13 +12349,13 @@
     </row>
     <row r="228" spans="1:11">
       <c r="A228" t="s">
-        <v>816</v>
+        <v>822</v>
       </c>
       <c r="B228" t="s">
-        <v>817</v>
+        <v>823</v>
       </c>
       <c r="C228" t="s">
-        <v>818</v>
+        <v>824</v>
       </c>
       <c r="D228">
         <v>0</v>
@@ -12328,7 +12367,7 @@
         <v>0.16682546586852809</v>
       </c>
       <c r="G228" t="s">
-        <v>819</v>
+        <v>825</v>
       </c>
       <c r="H228">
         <v>0.03</v>
@@ -12337,7 +12376,7 @@
         <v>0.71569999999999989</v>
       </c>
       <c r="J228" t="s">
-        <v>820</v>
+        <v>826</v>
       </c>
       <c r="K228">
         <v>0</v>
@@ -12345,13 +12384,13 @@
     </row>
     <row r="229" spans="1:11">
       <c r="A229" t="s">
-        <v>821</v>
+        <v>827</v>
       </c>
       <c r="B229" t="s">
-        <v>822</v>
+        <v>828</v>
       </c>
       <c r="C229" t="s">
-        <v>823</v>
+        <v>829</v>
       </c>
       <c r="D229">
         <v>0</v>
@@ -12363,7 +12402,7 @@
         <v>0.82096733176166536</v>
       </c>
       <c r="G229" t="s">
-        <v>824</v>
+        <v>830</v>
       </c>
       <c r="H229">
         <v>0</v>
@@ -12372,7 +12411,7 @@
         <v>0.93730000000000002</v>
       </c>
       <c r="J229" t="s">
-        <v>825</v>
+        <v>831</v>
       </c>
       <c r="K229">
         <v>0</v>
@@ -12380,13 +12419,13 @@
     </row>
     <row r="230" spans="1:11">
       <c r="A230" t="s">
-        <v>826</v>
+        <v>832</v>
       </c>
       <c r="B230" t="s">
-        <v>827</v>
+        <v>833</v>
       </c>
       <c r="C230" t="s">
-        <v>828</v>
+        <v>834</v>
       </c>
       <c r="D230">
         <v>0</v>
@@ -12398,7 +12437,7 @@
         <v>0.27737352968664458</v>
       </c>
       <c r="G230" t="s">
-        <v>829</v>
+        <v>835</v>
       </c>
       <c r="H230">
         <v>0</v>
@@ -12407,7 +12446,7 @@
         <v>0.61799999999999999</v>
       </c>
       <c r="J230" t="s">
-        <v>830</v>
+        <v>836</v>
       </c>
       <c r="K230">
         <v>0</v>
@@ -12415,13 +12454,13 @@
     </row>
     <row r="231" spans="1:11">
       <c r="A231" t="s">
-        <v>831</v>
+        <v>837</v>
       </c>
       <c r="B231" t="s">
-        <v>832</v>
+        <v>838</v>
       </c>
       <c r="C231" t="s">
-        <v>833</v>
+        <v>839</v>
       </c>
       <c r="D231">
         <v>0</v>
@@ -12433,7 +12472,7 @@
         <v>0.89534564636420666</v>
       </c>
       <c r="G231" t="s">
-        <v>834</v>
+        <v>840</v>
       </c>
       <c r="H231">
         <v>0.51</v>
@@ -12442,7 +12481,7 @@
         <v>0.90599999999999992</v>
       </c>
       <c r="J231" t="s">
-        <v>835</v>
+        <v>841</v>
       </c>
       <c r="K231">
         <v>0</v>
@@ -12450,13 +12489,13 @@
     </row>
     <row r="232" spans="1:11">
       <c r="A232" t="s">
-        <v>836</v>
+        <v>842</v>
       </c>
       <c r="B232" t="s">
-        <v>837</v>
+        <v>843</v>
       </c>
       <c r="C232" t="s">
-        <v>838</v>
+        <v>844</v>
       </c>
       <c r="D232">
         <v>0</v>
@@ -12468,7 +12507,7 @@
         <v>0.16981635668396081</v>
       </c>
       <c r="G232" t="s">
-        <v>839</v>
+        <v>845</v>
       </c>
       <c r="H232">
         <v>0.03</v>
@@ -12477,7 +12516,7 @@
         <v>0.83550000000000002</v>
       </c>
       <c r="J232" t="s">
-        <v>840</v>
+        <v>846</v>
       </c>
       <c r="K232">
         <v>0</v>
@@ -12485,13 +12524,13 @@
     </row>
     <row r="233" spans="1:11">
       <c r="A233" t="s">
-        <v>841</v>
+        <v>847</v>
       </c>
       <c r="B233" t="s">
-        <v>842</v>
+        <v>848</v>
       </c>
       <c r="C233" t="s">
-        <v>843</v>
+        <v>849</v>
       </c>
       <c r="D233">
         <v>0</v>
@@ -12503,7 +12542,7 @@
         <v>0.1004648975558651</v>
       </c>
       <c r="G233" t="s">
-        <v>844</v>
+        <v>850</v>
       </c>
       <c r="H233">
         <v>0</v>
@@ -12512,7 +12551,7 @@
         <v>0.92189999999999994</v>
       </c>
       <c r="J233" t="s">
-        <v>845</v>
+        <v>851</v>
       </c>
       <c r="K233">
         <v>0</v>
@@ -12520,13 +12559,13 @@
     </row>
     <row r="234" spans="1:11">
       <c r="A234" t="s">
-        <v>846</v>
+        <v>852</v>
       </c>
       <c r="B234" t="s">
-        <v>847</v>
+        <v>853</v>
       </c>
       <c r="C234" t="s">
-        <v>848</v>
+        <v>854</v>
       </c>
       <c r="D234">
         <v>0</v>
@@ -12538,7 +12577,7 @@
         <v>0.124827859121488</v>
       </c>
       <c r="G234" t="s">
-        <v>849</v>
+        <v>855</v>
       </c>
       <c r="H234">
         <v>7.0000000000000007E-2</v>
@@ -12547,7 +12586,7 @@
         <v>0.83930000000000005</v>
       </c>
       <c r="J234" t="s">
-        <v>850</v>
+        <v>856</v>
       </c>
       <c r="K234">
         <v>0</v>
@@ -12555,13 +12594,13 @@
     </row>
     <row r="235" spans="1:11">
       <c r="A235" t="s">
-        <v>851</v>
+        <v>857</v>
       </c>
       <c r="B235" t="s">
-        <v>852</v>
+        <v>858</v>
       </c>
       <c r="C235" t="s">
-        <v>853</v>
+        <v>859</v>
       </c>
       <c r="D235">
         <v>0</v>
@@ -12573,7 +12612,7 @@
         <v>0.298013533069102</v>
       </c>
       <c r="G235" t="s">
-        <v>854</v>
+        <v>860</v>
       </c>
       <c r="H235">
         <v>0</v>
@@ -12582,7 +12621,7 @@
         <v>0.74250000000000005</v>
       </c>
       <c r="J235" t="s">
-        <v>855</v>
+        <v>861</v>
       </c>
       <c r="K235">
         <v>0</v>
@@ -12590,13 +12629,13 @@
     </row>
     <row r="236" spans="1:11">
       <c r="A236" t="s">
-        <v>856</v>
+        <v>862</v>
       </c>
       <c r="B236" t="s">
-        <v>857</v>
+        <v>863</v>
       </c>
       <c r="C236" t="s">
-        <v>858</v>
+        <v>864</v>
       </c>
       <c r="D236">
         <v>0</v>
@@ -12608,7 +12647,7 @@
         <v>0.37996325255940638</v>
       </c>
       <c r="G236" t="s">
-        <v>859</v>
+        <v>865</v>
       </c>
       <c r="H236">
         <v>0.2</v>
@@ -12617,7 +12656,7 @@
         <v>0.67830000000000001</v>
       </c>
       <c r="J236" t="s">
-        <v>860</v>
+        <v>866</v>
       </c>
       <c r="K236">
         <v>0</v>
@@ -12625,13 +12664,13 @@
     </row>
     <row r="237" spans="1:11">
       <c r="A237" t="s">
-        <v>861</v>
+        <v>867</v>
       </c>
       <c r="B237" t="s">
-        <v>862</v>
+        <v>868</v>
       </c>
       <c r="C237" t="s">
-        <v>863</v>
+        <v>869</v>
       </c>
       <c r="D237">
         <v>0</v>
@@ -12643,7 +12682,7 @@
         <v>0.45569919741260889</v>
       </c>
       <c r="G237" t="s">
-        <v>864</v>
+        <v>870</v>
       </c>
       <c r="H237">
         <v>0</v>
@@ -12652,7 +12691,7 @@
         <v>0.70950000000000002</v>
       </c>
       <c r="J237" t="s">
-        <v>865</v>
+        <v>871</v>
       </c>
       <c r="K237">
         <v>0</v>
@@ -12660,13 +12699,13 @@
     </row>
     <row r="238" spans="1:11">
       <c r="A238" t="s">
-        <v>866</v>
+        <v>872</v>
       </c>
       <c r="B238" t="s">
-        <v>867</v>
+        <v>873</v>
       </c>
       <c r="C238" t="s">
-        <v>868</v>
+        <v>874</v>
       </c>
       <c r="D238">
         <v>0</v>
@@ -12678,7 +12717,7 @@
         <v>0.70736905762791857</v>
       </c>
       <c r="G238" t="s">
-        <v>869</v>
+        <v>875</v>
       </c>
       <c r="H238">
         <v>0.16</v>
@@ -12687,7 +12726,7 @@
         <v>0.7752</v>
       </c>
       <c r="J238" t="s">
-        <v>870</v>
+        <v>876</v>
       </c>
       <c r="K238">
         <v>0</v>
@@ -12695,13 +12734,13 @@
     </row>
     <row r="239" spans="1:11">
       <c r="A239" t="s">
-        <v>871</v>
+        <v>877</v>
       </c>
       <c r="B239" t="s">
-        <v>872</v>
+        <v>878</v>
       </c>
       <c r="C239" t="s">
-        <v>873</v>
+        <v>879</v>
       </c>
       <c r="D239">
         <v>0</v>
@@ -12713,7 +12752,7 @@
         <v>0.27256789330652959</v>
       </c>
       <c r="G239" t="s">
-        <v>874</v>
+        <v>880</v>
       </c>
       <c r="H239">
         <v>0</v>
@@ -12722,7 +12761,7 @@
         <v>0.72129999999999994</v>
       </c>
       <c r="J239" t="s">
-        <v>875</v>
+        <v>881</v>
       </c>
       <c r="K239">
         <v>0</v>
@@ -12730,13 +12769,13 @@
     </row>
     <row r="240" spans="1:11">
       <c r="A240" t="s">
-        <v>876</v>
+        <v>882</v>
       </c>
       <c r="B240" t="s">
-        <v>877</v>
+        <v>883</v>
       </c>
       <c r="C240" t="s">
-        <v>878</v>
+        <v>884</v>
       </c>
       <c r="D240">
         <v>0</v>
@@ -12748,7 +12787,7 @@
         <v>0.27864545050301509</v>
       </c>
       <c r="G240" t="s">
-        <v>879</v>
+        <v>885</v>
       </c>
       <c r="H240">
         <v>0.03</v>
@@ -12757,7 +12796,7 @@
         <v>0.60870000000000002</v>
       </c>
       <c r="J240" t="s">
-        <v>880</v>
+        <v>886</v>
       </c>
       <c r="K240">
         <v>0</v>
@@ -12765,13 +12804,13 @@
     </row>
     <row r="241" spans="1:11">
       <c r="A241" t="s">
-        <v>881</v>
+        <v>887</v>
       </c>
       <c r="B241" t="s">
-        <v>882</v>
+        <v>888</v>
       </c>
       <c r="C241" t="s">
-        <v>883</v>
+        <v>889</v>
       </c>
       <c r="D241">
         <v>0</v>
@@ -12783,7 +12822,7 @@
         <v>0.96651525483381362</v>
       </c>
       <c r="G241" t="s">
-        <v>884</v>
+        <v>890</v>
       </c>
       <c r="H241">
         <v>0.86</v>
@@ -12792,7 +12831,7 @@
         <v>0.96950000000000003</v>
       </c>
       <c r="J241" t="s">
-        <v>885</v>
+        <v>891</v>
       </c>
       <c r="K241">
         <v>0</v>
@@ -12800,13 +12839,13 @@
     </row>
     <row r="242" spans="1:11">
       <c r="A242" t="s">
-        <v>886</v>
+        <v>892</v>
       </c>
       <c r="B242" t="s">
-        <v>887</v>
+        <v>893</v>
       </c>
       <c r="C242" t="s">
-        <v>888</v>
+        <v>894</v>
       </c>
       <c r="D242">
         <v>0</v>
@@ -12818,7 +12857,7 @@
         <v>8.9249754321524669E-2</v>
       </c>
       <c r="G242" t="s">
-        <v>889</v>
+        <v>895</v>
       </c>
       <c r="H242">
         <v>0</v>
@@ -12827,7 +12866,7 @@
         <v>0.73219999999999996</v>
       </c>
       <c r="J242" t="s">
-        <v>890</v>
+        <v>896</v>
       </c>
       <c r="K242">
         <v>0</v>
@@ -12835,13 +12874,13 @@
     </row>
     <row r="243" spans="1:11">
       <c r="A243" t="s">
-        <v>891</v>
+        <v>897</v>
       </c>
       <c r="B243" t="s">
-        <v>892</v>
+        <v>898</v>
       </c>
       <c r="C243" t="s">
-        <v>893</v>
+        <v>899</v>
       </c>
       <c r="D243">
         <v>0</v>
@@ -12853,7 +12892,7 @@
         <v>0.15237096840070249</v>
       </c>
       <c r="G243" t="s">
-        <v>894</v>
+        <v>900</v>
       </c>
       <c r="H243">
         <v>0</v>
@@ -12862,7 +12901,7 @@
         <v>0.70819999999999994</v>
       </c>
       <c r="J243" t="s">
-        <v>895</v>
+        <v>901</v>
       </c>
       <c r="K243">
         <v>0</v>
@@ -12870,13 +12909,13 @@
     </row>
     <row r="244" spans="1:11">
       <c r="A244" t="s">
-        <v>896</v>
+        <v>902</v>
       </c>
       <c r="B244" t="s">
-        <v>897</v>
+        <v>903</v>
       </c>
       <c r="C244" t="s">
-        <v>898</v>
+        <v>904</v>
       </c>
       <c r="D244">
         <v>0</v>
@@ -12888,7 +12927,7 @@
         <v>0.75117324462824775</v>
       </c>
       <c r="G244" t="s">
-        <v>899</v>
+        <v>905</v>
       </c>
       <c r="H244">
         <v>0.28999999999999998</v>
@@ -12897,7 +12936,7 @@
         <v>0.81129999999999991</v>
       </c>
       <c r="J244" t="s">
-        <v>900</v>
+        <v>906</v>
       </c>
       <c r="K244">
         <v>0</v>
@@ -12905,13 +12944,13 @@
     </row>
     <row r="245" spans="1:11">
       <c r="A245" t="s">
-        <v>901</v>
+        <v>907</v>
       </c>
       <c r="B245" t="s">
-        <v>902</v>
+        <v>908</v>
       </c>
       <c r="C245" t="s">
-        <v>903</v>
+        <v>909</v>
       </c>
       <c r="D245">
         <v>0</v>
@@ -12923,7 +12962,7 @@
         <v>0.29680449441082968</v>
       </c>
       <c r="G245" t="s">
-        <v>904</v>
+        <v>910</v>
       </c>
       <c r="H245">
         <v>0.04</v>
@@ -12932,7 +12971,7 @@
         <v>0.81669999999999998</v>
       </c>
       <c r="J245" t="s">
-        <v>905</v>
+        <v>911</v>
       </c>
       <c r="K245">
         <v>0</v>
@@ -12940,13 +12979,13 @@
     </row>
     <row r="246" spans="1:11">
       <c r="A246" t="s">
-        <v>906</v>
+        <v>912</v>
       </c>
       <c r="B246" t="s">
-        <v>907</v>
+        <v>913</v>
       </c>
       <c r="C246" t="s">
-        <v>908</v>
+        <v>914</v>
       </c>
       <c r="D246">
         <v>0</v>
@@ -12958,7 +12997,7 @@
         <v>0.33845776719428478</v>
       </c>
       <c r="G246" t="s">
-        <v>909</v>
+        <v>915</v>
       </c>
       <c r="H246">
         <v>0</v>
@@ -12967,7 +13006,7 @@
         <v>0.69290000000000007</v>
       </c>
       <c r="J246" t="s">
-        <v>910</v>
+        <v>916</v>
       </c>
       <c r="K246">
         <v>0</v>
@@ -12975,13 +13014,13 @@
     </row>
     <row r="247" spans="1:11">
       <c r="A247" t="s">
-        <v>911</v>
+        <v>917</v>
       </c>
       <c r="B247" t="s">
-        <v>912</v>
+        <v>918</v>
       </c>
       <c r="C247" t="s">
-        <v>913</v>
+        <v>919</v>
       </c>
       <c r="D247">
         <v>0</v>
@@ -12993,7 +13032,7 @@
         <v>8.6234675756186985E-2</v>
       </c>
       <c r="G247" t="s">
-        <v>914</v>
+        <v>920</v>
       </c>
       <c r="H247">
         <v>0</v>
@@ -13002,7 +13041,7 @@
         <v>0.8993000000000001</v>
       </c>
       <c r="J247" t="s">
-        <v>915</v>
+        <v>921</v>
       </c>
       <c r="K247">
         <v>0</v>
@@ -13010,13 +13049,13 @@
     </row>
     <row r="248" spans="1:11">
       <c r="A248" t="s">
-        <v>916</v>
+        <v>922</v>
       </c>
       <c r="B248" t="s">
-        <v>917</v>
+        <v>923</v>
       </c>
       <c r="C248" t="s">
-        <v>918</v>
+        <v>924</v>
       </c>
       <c r="D248">
         <v>0</v>
@@ -13028,7 +13067,7 @@
         <v>5.639240512414085E-2</v>
       </c>
       <c r="G248" t="s">
-        <v>919</v>
+        <v>925</v>
       </c>
       <c r="H248">
         <v>0</v>
@@ -13037,7 +13076,7 @@
         <v>0.8498</v>
       </c>
       <c r="J248" t="s">
-        <v>920</v>
+        <v>926</v>
       </c>
       <c r="K248">
         <v>0</v>
@@ -13045,13 +13084,13 @@
     </row>
     <row r="249" spans="1:11">
       <c r="A249" t="s">
-        <v>921</v>
+        <v>927</v>
       </c>
       <c r="B249" t="s">
-        <v>922</v>
+        <v>928</v>
       </c>
       <c r="C249" t="s">
-        <v>923</v>
+        <v>929</v>
       </c>
       <c r="D249">
         <v>0</v>
@@ -13063,7 +13102,7 @@
         <v>0.10007043108682449</v>
       </c>
       <c r="G249" t="s">
-        <v>924</v>
+        <v>930</v>
       </c>
       <c r="H249">
         <v>0</v>
@@ -13072,7 +13111,7 @@
         <v>0.70739999999999992</v>
       </c>
       <c r="J249" t="s">
-        <v>925</v>
+        <v>931</v>
       </c>
       <c r="K249">
         <v>0</v>
@@ -13080,13 +13119,13 @@
     </row>
     <row r="250" spans="1:11">
       <c r="A250" t="s">
-        <v>926</v>
+        <v>932</v>
       </c>
       <c r="B250" t="s">
-        <v>927</v>
+        <v>933</v>
       </c>
       <c r="C250" t="s">
-        <v>928</v>
+        <v>934</v>
       </c>
       <c r="D250">
         <v>0</v>
@@ -13098,7 +13137,7 @@
         <v>0.83747428311028627</v>
       </c>
       <c r="G250" t="s">
-        <v>929</v>
+        <v>935</v>
       </c>
       <c r="H250">
         <v>0.64</v>
@@ -13115,13 +13154,13 @@
     </row>
     <row r="251" spans="1:11">
       <c r="A251" t="s">
-        <v>930</v>
+        <v>936</v>
       </c>
       <c r="B251" t="s">
-        <v>931</v>
+        <v>937</v>
       </c>
       <c r="C251" t="s">
-        <v>932</v>
+        <v>938</v>
       </c>
       <c r="D251">
         <v>0</v>
@@ -13133,7 +13172,7 @@
         <v>0.43239795918367352</v>
       </c>
       <c r="G251" t="s">
-        <v>933</v>
+        <v>939</v>
       </c>
       <c r="H251">
         <v>0.24</v>
@@ -13142,7 +13181,7 @@
         <v>1</v>
       </c>
       <c r="J251" t="s">
-        <v>934</v>
+        <v>940</v>
       </c>
       <c r="K251">
         <v>0</v>
@@ -13150,13 +13189,13 @@
     </row>
     <row r="252" spans="1:11">
       <c r="A252" t="s">
-        <v>935</v>
+        <v>941</v>
       </c>
       <c r="B252" t="s">
-        <v>936</v>
+        <v>942</v>
       </c>
       <c r="C252" t="s">
-        <v>937</v>
+        <v>943</v>
       </c>
       <c r="D252">
         <v>0</v>
@@ -13168,7 +13207,7 @@
         <v>6.6207552980039747E-2</v>
       </c>
       <c r="G252" t="s">
-        <v>938</v>
+        <v>944</v>
       </c>
       <c r="H252">
         <v>0</v>
@@ -13177,7 +13216,7 @@
         <v>0.41860000000000003</v>
       </c>
       <c r="J252" t="s">
-        <v>939</v>
+        <v>945</v>
       </c>
       <c r="K252">
         <v>0</v>
@@ -13185,13 +13224,13 @@
     </row>
     <row r="253" spans="1:11">
       <c r="A253" t="s">
-        <v>940</v>
+        <v>946</v>
       </c>
       <c r="B253" t="s">
-        <v>941</v>
+        <v>947</v>
       </c>
       <c r="C253" t="s">
-        <v>942</v>
+        <v>948</v>
       </c>
       <c r="D253">
         <v>0</v>
@@ -13203,7 +13242,7 @@
         <v>0.18341659250582151</v>
       </c>
       <c r="G253" t="s">
-        <v>943</v>
+        <v>949</v>
       </c>
       <c r="H253">
         <v>0.02</v>
@@ -13212,7 +13251,7 @@
         <v>0.69359999999999999</v>
       </c>
       <c r="J253" t="s">
-        <v>944</v>
+        <v>950</v>
       </c>
       <c r="K253">
         <v>0</v>
@@ -13220,13 +13259,13 @@
     </row>
     <row r="254" spans="1:11">
       <c r="A254" t="s">
-        <v>945</v>
+        <v>951</v>
       </c>
       <c r="B254" t="s">
-        <v>946</v>
+        <v>952</v>
       </c>
       <c r="C254" t="s">
-        <v>947</v>
+        <v>953</v>
       </c>
       <c r="D254">
         <v>0</v>
@@ -13238,7 +13277,7 @@
         <v>5.4456654456654457E-2</v>
       </c>
       <c r="G254" t="s">
-        <v>948</v>
+        <v>954</v>
       </c>
       <c r="H254">
         <v>0</v>
@@ -13247,7 +13286,7 @@
         <v>0.52459999999999996</v>
       </c>
       <c r="J254" t="s">
-        <v>949</v>
+        <v>955</v>
       </c>
       <c r="K254">
         <v>0</v>
@@ -13255,13 +13294,13 @@
     </row>
     <row r="255" spans="1:11">
       <c r="A255" t="s">
-        <v>950</v>
+        <v>956</v>
       </c>
       <c r="B255" t="s">
-        <v>951</v>
+        <v>957</v>
       </c>
       <c r="C255" t="s">
-        <v>952</v>
+        <v>958</v>
       </c>
       <c r="D255">
         <v>0</v>
@@ -13273,7 +13312,7 @@
         <v>0.75857558139534875</v>
       </c>
       <c r="G255" t="s">
-        <v>953</v>
+        <v>959</v>
       </c>
       <c r="H255">
         <v>0.69</v>
@@ -13282,7 +13321,7 @@
         <v>0.93180000000000007</v>
       </c>
       <c r="J255" t="s">
-        <v>954</v>
+        <v>960</v>
       </c>
       <c r="K255">
         <v>0</v>
@@ -13290,13 +13329,13 @@
     </row>
     <row r="256" spans="1:11">
       <c r="A256" t="s">
-        <v>955</v>
+        <v>961</v>
       </c>
       <c r="B256" t="s">
-        <v>956</v>
+        <v>962</v>
       </c>
       <c r="C256" t="s">
-        <v>957</v>
+        <v>963</v>
       </c>
       <c r="D256">
         <v>0</v>
@@ -13308,7 +13347,7 @@
         <v>0.76666235488147982</v>
       </c>
       <c r="G256" t="s">
-        <v>958</v>
+        <v>964</v>
       </c>
       <c r="H256">
         <v>0</v>
@@ -13325,13 +13364,13 @@
     </row>
     <row r="257" spans="1:11">
       <c r="A257" t="s">
-        <v>959</v>
+        <v>965</v>
       </c>
       <c r="B257" t="s">
-        <v>960</v>
+        <v>966</v>
       </c>
       <c r="C257" t="s">
-        <v>961</v>
+        <v>967</v>
       </c>
       <c r="D257">
         <v>0</v>
@@ -13343,7 +13382,7 @@
         <v>0.62949517303113756</v>
       </c>
       <c r="G257" t="s">
-        <v>962</v>
+        <v>968</v>
       </c>
       <c r="H257">
         <v>0.43</v>
@@ -13352,7 +13391,7 @@
         <v>0.72199999999999998</v>
       </c>
       <c r="J257" t="s">
-        <v>963</v>
+        <v>969</v>
       </c>
       <c r="K257">
         <v>0</v>
@@ -13360,13 +13399,13 @@
     </row>
     <row r="258" spans="1:11">
       <c r="A258" t="s">
-        <v>964</v>
+        <v>970</v>
       </c>
       <c r="B258" t="s">
-        <v>965</v>
+        <v>971</v>
       </c>
       <c r="C258" t="s">
-        <v>966</v>
+        <v>972</v>
       </c>
       <c r="D258">
         <v>0</v>
@@ -13378,7 +13417,7 @@
         <v>0.43086150486664188</v>
       </c>
       <c r="G258" t="s">
-        <v>967</v>
+        <v>973</v>
       </c>
       <c r="H258">
         <v>7.0000000000000007E-2</v>
@@ -13387,7 +13426,7 @@
         <v>0.57320000000000004</v>
       </c>
       <c r="J258" t="s">
-        <v>968</v>
+        <v>974</v>
       </c>
       <c r="K258">
         <v>0</v>
@@ -13395,13 +13434,13 @@
     </row>
     <row r="259" spans="1:11">
       <c r="A259" t="s">
-        <v>969</v>
+        <v>975</v>
       </c>
       <c r="B259" t="s">
-        <v>970</v>
+        <v>976</v>
       </c>
       <c r="C259" t="s">
-        <v>971</v>
+        <v>977</v>
       </c>
       <c r="D259">
         <v>0</v>
@@ -13413,7 +13452,7 @@
         <v>0.13508963739573679</v>
       </c>
       <c r="G259" t="s">
-        <v>972</v>
+        <v>978</v>
       </c>
       <c r="H259">
         <v>0</v>
@@ -13422,7 +13461,7 @@
         <v>0.5998</v>
       </c>
       <c r="J259" t="s">
-        <v>973</v>
+        <v>979</v>
       </c>
       <c r="K259">
         <v>0</v>
@@ -13430,13 +13469,13 @@
     </row>
     <row r="260" spans="1:11">
       <c r="A260" t="s">
-        <v>974</v>
+        <v>980</v>
       </c>
       <c r="B260" t="s">
-        <v>975</v>
+        <v>981</v>
       </c>
       <c r="C260" t="s">
-        <v>976</v>
+        <v>982</v>
       </c>
       <c r="D260">
         <v>0</v>
@@ -13448,7 +13487,7 @@
         <v>0.18014527845036321</v>
       </c>
       <c r="G260" t="s">
-        <v>977</v>
+        <v>983</v>
       </c>
       <c r="H260">
         <v>0.01</v>
@@ -13457,7 +13496,7 @@
         <v>0.88129999999999997</v>
       </c>
       <c r="J260" t="s">
-        <v>978</v>
+        <v>984</v>
       </c>
       <c r="K260">
         <v>0</v>
@@ -13465,13 +13504,13 @@
     </row>
     <row r="261" spans="1:11">
       <c r="A261" t="s">
-        <v>979</v>
+        <v>985</v>
       </c>
       <c r="B261" t="s">
-        <v>980</v>
+        <v>986</v>
       </c>
       <c r="C261" t="s">
-        <v>981</v>
+        <v>987</v>
       </c>
       <c r="D261">
         <v>0</v>
@@ -13483,7 +13522,7 @@
         <v>0.36611125901660141</v>
       </c>
       <c r="G261" t="s">
-        <v>982</v>
+        <v>988</v>
       </c>
       <c r="H261">
         <v>0.2</v>
@@ -13492,7 +13531,7 @@
         <v>0.45760000000000001</v>
       </c>
       <c r="J261" t="s">
-        <v>983</v>
+        <v>989</v>
       </c>
       <c r="K261">
         <v>0</v>
@@ -13500,13 +13539,13 @@
     </row>
     <row r="262" spans="1:11">
       <c r="A262" t="s">
-        <v>984</v>
+        <v>990</v>
       </c>
       <c r="B262" t="s">
-        <v>985</v>
+        <v>991</v>
       </c>
       <c r="C262" t="s">
-        <v>986</v>
+        <v>992</v>
       </c>
       <c r="D262">
         <v>0</v>
@@ -13518,7 +13557,7 @@
         <v>0.31861181972789121</v>
       </c>
       <c r="G262" t="s">
-        <v>987</v>
+        <v>993</v>
       </c>
       <c r="H262">
         <v>0.1</v>
@@ -13527,7 +13566,7 @@
         <v>0.74560000000000004</v>
       </c>
       <c r="J262" t="s">
-        <v>988</v>
+        <v>994</v>
       </c>
       <c r="K262">
         <v>0</v>
@@ -13535,13 +13574,13 @@
     </row>
     <row r="263" spans="1:11">
       <c r="A263" t="s">
-        <v>989</v>
+        <v>995</v>
       </c>
       <c r="B263" t="s">
-        <v>990</v>
+        <v>996</v>
       </c>
       <c r="C263" t="s">
-        <v>991</v>
+        <v>997</v>
       </c>
       <c r="D263">
         <v>0</v>
@@ -13553,7 +13592,7 @@
         <v>0.2177152715732775</v>
       </c>
       <c r="G263" t="s">
-        <v>992</v>
+        <v>998</v>
       </c>
       <c r="H263">
         <v>0.03</v>
@@ -13562,7 +13601,7 @@
         <v>0.63719999999999999</v>
       </c>
       <c r="J263" t="s">
-        <v>993</v>
+        <v>999</v>
       </c>
       <c r="K263">
         <v>0</v>
@@ -13570,13 +13609,13 @@
     </row>
     <row r="264" spans="1:11">
       <c r="A264" t="s">
-        <v>994</v>
+        <v>1000</v>
       </c>
       <c r="B264" t="s">
-        <v>995</v>
+        <v>1001</v>
       </c>
       <c r="C264" t="s">
-        <v>996</v>
+        <v>1002</v>
       </c>
       <c r="D264">
         <v>0</v>
@@ -13588,7 +13627,7 @@
         <v>0.84416716690964189</v>
       </c>
       <c r="G264" t="s">
-        <v>997</v>
+        <v>1003</v>
       </c>
       <c r="H264">
         <v>0.35</v>
@@ -13597,7 +13636,7 @@
         <v>0.90930000000000011</v>
       </c>
       <c r="J264" t="s">
-        <v>998</v>
+        <v>1004</v>
       </c>
       <c r="K264">
         <v>0</v>
@@ -13605,13 +13644,13 @@
     </row>
     <row r="265" spans="1:11">
       <c r="A265" t="s">
-        <v>999</v>
+        <v>1005</v>
       </c>
       <c r="B265" t="s">
-        <v>1000</v>
+        <v>1006</v>
       </c>
       <c r="C265" t="s">
-        <v>1001</v>
+        <v>1007</v>
       </c>
       <c r="D265">
         <v>0</v>
@@ -13623,7 +13662,7 @@
         <v>0.1251506024096386</v>
       </c>
       <c r="G265" t="s">
-        <v>1002</v>
+        <v>1008</v>
       </c>
       <c r="H265">
         <v>0.06</v>
@@ -13632,7 +13671,7 @@
         <v>0.76980000000000004</v>
       </c>
       <c r="J265" t="s">
-        <v>1003</v>
+        <v>1009</v>
       </c>
       <c r="K265">
         <v>0</v>
@@ -13640,13 +13679,13 @@
     </row>
     <row r="266" spans="1:11">
       <c r="A266" t="s">
-        <v>1004</v>
+        <v>1010</v>
       </c>
       <c r="B266" t="s">
-        <v>1005</v>
+        <v>1011</v>
       </c>
       <c r="C266" t="s">
-        <v>1006</v>
+        <v>1012</v>
       </c>
       <c r="D266">
         <v>0</v>
@@ -13658,7 +13697,7 @@
         <v>0.37008194888083268</v>
       </c>
       <c r="G266" t="s">
-        <v>1007</v>
+        <v>1013</v>
       </c>
       <c r="H266">
         <v>0</v>
@@ -13667,7 +13706,7 @@
         <v>0.63029999999999997</v>
       </c>
       <c r="J266" t="s">
-        <v>1008</v>
+        <v>1014</v>
       </c>
       <c r="K266">
         <v>0</v>
@@ -13675,13 +13714,13 @@
     </row>
     <row r="267" spans="1:11">
       <c r="A267" t="s">
-        <v>1009</v>
+        <v>1015</v>
       </c>
       <c r="B267" t="s">
-        <v>1010</v>
+        <v>1016</v>
       </c>
       <c r="C267" t="s">
-        <v>1011</v>
+        <v>1017</v>
       </c>
       <c r="D267">
         <v>0</v>
@@ -13693,7 +13732,7 @@
         <v>0.34369246118287677</v>
       </c>
       <c r="G267" t="s">
-        <v>1012</v>
+        <v>1018</v>
       </c>
       <c r="H267">
         <v>0</v>
@@ -13702,7 +13741,7 @@
         <v>0.75950000000000006</v>
       </c>
       <c r="J267" t="s">
-        <v>1013</v>
+        <v>1019</v>
       </c>
       <c r="K267">
         <v>0</v>
@@ -13710,13 +13749,13 @@
     </row>
     <row r="268" spans="1:11">
       <c r="A268" t="s">
-        <v>1014</v>
+        <v>1020</v>
       </c>
       <c r="B268" t="s">
-        <v>1015</v>
+        <v>1021</v>
       </c>
       <c r="C268" t="s">
-        <v>1016</v>
+        <v>1022</v>
       </c>
       <c r="D268">
         <v>0</v>
@@ -13728,7 +13767,7 @@
         <v>0.39675422756399409</v>
       </c>
       <c r="G268" t="s">
-        <v>1017</v>
+        <v>1023</v>
       </c>
       <c r="H268">
         <v>0.02</v>
@@ -13737,7 +13776,7 @@
         <v>0.77049999999999996</v>
       </c>
       <c r="J268" t="s">
-        <v>1018</v>
+        <v>1024</v>
       </c>
       <c r="K268">
         <v>0</v>
@@ -13745,13 +13784,13 @@
     </row>
     <row r="269" spans="1:11">
       <c r="A269" t="s">
-        <v>1019</v>
+        <v>1025</v>
       </c>
       <c r="B269" t="s">
-        <v>1020</v>
+        <v>1026</v>
       </c>
       <c r="C269" t="s">
-        <v>1021</v>
+        <v>1027</v>
       </c>
       <c r="D269">
         <v>0</v>
@@ -13763,7 +13802,7 @@
         <v>0.51819301340860968</v>
       </c>
       <c r="G269" t="s">
-        <v>1022</v>
+        <v>1028</v>
       </c>
       <c r="H269">
         <v>0.33</v>
@@ -13772,7 +13811,7 @@
         <v>0.75029999999999997</v>
       </c>
       <c r="J269" t="s">
-        <v>1023</v>
+        <v>1029</v>
       </c>
       <c r="K269">
         <v>0</v>
@@ -13780,13 +13819,13 @@
     </row>
     <row r="270" spans="1:11">
       <c r="A270" t="s">
-        <v>1024</v>
+        <v>1030</v>
       </c>
       <c r="B270" t="s">
-        <v>1025</v>
+        <v>1031</v>
       </c>
       <c r="C270" t="s">
-        <v>1026</v>
+        <v>1032</v>
       </c>
       <c r="D270">
         <v>0</v>
@@ -13798,7 +13837,7 @@
         <v>0.9534105229993699</v>
       </c>
       <c r="G270" t="s">
-        <v>1027</v>
+        <v>1033</v>
       </c>
       <c r="H270">
         <v>0</v>
@@ -13807,7 +13846,7 @@
         <v>0.77689999999999992</v>
       </c>
       <c r="J270" t="s">
-        <v>1028</v>
+        <v>1034</v>
       </c>
       <c r="K270">
         <v>0</v>
@@ -13815,13 +13854,13 @@
     </row>
     <row r="271" spans="1:11">
       <c r="A271" t="s">
-        <v>1029</v>
+        <v>1035</v>
       </c>
       <c r="B271" t="s">
-        <v>1030</v>
+        <v>1036</v>
       </c>
       <c r="C271" t="s">
-        <v>1031</v>
+        <v>1037</v>
       </c>
       <c r="D271">
         <v>0</v>
@@ -13833,7 +13872,7 @@
         <v>0.24438254450451111</v>
       </c>
       <c r="G271" t="s">
-        <v>1032</v>
+        <v>1038</v>
       </c>
       <c r="H271">
         <v>0.02</v>
@@ -13842,7 +13881,7 @@
         <v>0.47339999999999999</v>
       </c>
       <c r="J271" t="s">
-        <v>1033</v>
+        <v>1039</v>
       </c>
       <c r="K271">
         <v>0</v>
@@ -13850,13 +13889,13 @@
     </row>
     <row r="272" spans="1:11">
       <c r="A272" t="s">
-        <v>1034</v>
+        <v>1040</v>
       </c>
       <c r="B272" t="s">
-        <v>1035</v>
+        <v>1041</v>
       </c>
       <c r="C272" t="s">
-        <v>1036</v>
+        <v>1042</v>
       </c>
       <c r="D272">
         <v>0</v>
@@ -13868,7 +13907,7 @@
         <v>0.64418346204022925</v>
       </c>
       <c r="G272" t="s">
-        <v>1037</v>
+        <v>1043</v>
       </c>
       <c r="H272">
         <v>0.31</v>
@@ -13877,7 +13916,7 @@
         <v>0.8909999999999999</v>
       </c>
       <c r="J272" t="s">
-        <v>1038</v>
+        <v>1044</v>
       </c>
       <c r="K272">
         <v>0</v>
@@ -13885,13 +13924,13 @@
     </row>
     <row r="273" spans="1:11">
       <c r="A273" t="s">
-        <v>1039</v>
+        <v>1045</v>
       </c>
       <c r="B273" t="s">
-        <v>1040</v>
+        <v>1046</v>
       </c>
       <c r="C273" t="s">
-        <v>1041</v>
+        <v>1047</v>
       </c>
       <c r="D273">
         <v>0</v>
@@ -13903,7 +13942,7 @@
         <v>6.5000763591936475E-2</v>
       </c>
       <c r="G273" t="s">
-        <v>1042</v>
+        <v>1048</v>
       </c>
       <c r="H273">
         <v>0</v>
@@ -13912,7 +13951,7 @@
         <v>0.74400000000000011</v>
       </c>
       <c r="J273" t="s">
-        <v>1043</v>
+        <v>1049</v>
       </c>
       <c r="K273">
         <v>0</v>
@@ -13920,13 +13959,13 @@
     </row>
     <row r="274" spans="1:11">
       <c r="A274" t="s">
-        <v>1044</v>
+        <v>1050</v>
       </c>
       <c r="B274" t="s">
-        <v>1045</v>
+        <v>1051</v>
       </c>
       <c r="C274" t="s">
-        <v>1046</v>
+        <v>1052</v>
       </c>
       <c r="D274">
         <v>0</v>
@@ -13938,7 +13977,7 @@
         <v>0.33160074536381162</v>
       </c>
       <c r="G274" t="s">
-        <v>1047</v>
+        <v>1053</v>
       </c>
       <c r="H274">
         <v>0</v>
@@ -13947,7 +13986,7 @@
         <v>0.76439999999999997</v>
       </c>
       <c r="J274" t="s">
-        <v>1048</v>
+        <v>1054</v>
       </c>
       <c r="K274">
         <v>0</v>
@@ -13955,13 +13994,13 @@
     </row>
     <row r="275" spans="1:11">
       <c r="A275" t="s">
-        <v>1049</v>
+        <v>1055</v>
       </c>
       <c r="B275" t="s">
-        <v>1050</v>
+        <v>1056</v>
       </c>
       <c r="C275" t="s">
-        <v>1051</v>
+        <v>1057</v>
       </c>
       <c r="D275">
         <v>0</v>
@@ -13973,7 +14012,7 @@
         <v>0.36656284712390819</v>
       </c>
       <c r="G275" t="s">
-        <v>1052</v>
+        <v>1058</v>
       </c>
       <c r="H275">
         <v>0</v>
@@ -13982,7 +14021,7 @@
         <v>0.77849999999999997</v>
       </c>
       <c r="J275" t="s">
-        <v>1053</v>
+        <v>1059</v>
       </c>
       <c r="K275">
         <v>0</v>
@@ -13990,13 +14029,13 @@
     </row>
     <row r="276" spans="1:11">
       <c r="A276" t="s">
-        <v>1054</v>
+        <v>1060</v>
       </c>
       <c r="B276" t="s">
-        <v>1055</v>
+        <v>1061</v>
       </c>
       <c r="C276" t="s">
-        <v>1056</v>
+        <v>1062</v>
       </c>
       <c r="D276">
         <v>0</v>
@@ -14008,7 +14047,7 @@
         <v>0.26366390187782968</v>
       </c>
       <c r="G276" t="s">
-        <v>1057</v>
+        <v>1063</v>
       </c>
       <c r="H276">
         <v>0</v>
@@ -14017,7 +14056,7 @@
         <v>0.22750000000000001</v>
       </c>
       <c r="J276" t="s">
-        <v>1058</v>
+        <v>1064</v>
       </c>
       <c r="K276">
         <v>0</v>
@@ -14025,13 +14064,13 @@
     </row>
     <row r="277" spans="1:11">
       <c r="A277" t="s">
-        <v>1059</v>
+        <v>1065</v>
       </c>
       <c r="B277" t="s">
-        <v>1060</v>
+        <v>1066</v>
       </c>
       <c r="C277" t="s">
-        <v>1061</v>
+        <v>1067</v>
       </c>
       <c r="D277">
         <v>0</v>
@@ -14043,7 +14082,7 @@
         <v>0.54521926556252653</v>
       </c>
       <c r="G277" t="s">
-        <v>1062</v>
+        <v>1068</v>
       </c>
       <c r="H277">
         <v>0.32</v>
@@ -14052,7 +14091,7 @@
         <v>0.64119999999999999</v>
       </c>
       <c r="J277" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="K277">
         <v>0</v>
@@ -14060,13 +14099,13 @@
     </row>
     <row r="278" spans="1:11">
       <c r="A278" t="s">
-        <v>1063</v>
+        <v>1069</v>
       </c>
       <c r="B278" t="s">
-        <v>1064</v>
+        <v>1070</v>
       </c>
       <c r="C278" t="s">
-        <v>1065</v>
+        <v>1071</v>
       </c>
       <c r="D278">
         <v>0</v>
@@ -14078,7 +14117,7 @@
         <v>0.98151497216733619</v>
       </c>
       <c r="G278" t="s">
-        <v>1066</v>
+        <v>1072</v>
       </c>
       <c r="H278">
         <v>0.88</v>
@@ -14087,7 +14126,7 @@
         <v>0.9456</v>
       </c>
       <c r="J278" t="s">
-        <v>1067</v>
+        <v>1073</v>
       </c>
       <c r="K278">
         <v>0</v>
@@ -14095,13 +14134,13 @@
     </row>
     <row r="279" spans="1:11">
       <c r="A279" t="s">
-        <v>1068</v>
+        <v>1074</v>
       </c>
       <c r="B279" t="s">
-        <v>1069</v>
+        <v>1075</v>
       </c>
       <c r="C279" t="s">
-        <v>1070</v>
+        <v>1076</v>
       </c>
       <c r="D279">
         <v>0</v>
@@ -14113,7 +14152,7 @@
         <v>0.71942500020697597</v>
       </c>
       <c r="G279" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="H279">
         <v>0.64</v>
@@ -14122,7 +14161,7 @@
         <v>0.93290000000000006</v>
       </c>
       <c r="J279" t="s">
-        <v>1072</v>
+        <v>1078</v>
       </c>
       <c r="K279">
         <v>0</v>
@@ -14130,13 +14169,13 @@
     </row>
     <row r="280" spans="1:11">
       <c r="A280" t="s">
-        <v>1073</v>
+        <v>1079</v>
       </c>
       <c r="B280" t="s">
-        <v>1074</v>
+        <v>1080</v>
       </c>
       <c r="C280" t="s">
-        <v>1075</v>
+        <v>1081</v>
       </c>
       <c r="D280">
         <v>0</v>
@@ -14148,7 +14187,7 @@
         <v>0.91697247706422014</v>
       </c>
       <c r="G280" t="s">
-        <v>1076</v>
+        <v>1082</v>
       </c>
       <c r="H280">
         <v>0.8</v>
@@ -14157,7 +14196,7 @@
         <v>0.95420000000000005</v>
       </c>
       <c r="J280" t="s">
-        <v>1077</v>
+        <v>1083</v>
       </c>
       <c r="K280">
         <v>0</v>
@@ -14165,13 +14204,13 @@
     </row>
     <row r="281" spans="1:11">
       <c r="A281" t="s">
-        <v>1078</v>
+        <v>1084</v>
       </c>
       <c r="B281" t="s">
-        <v>1079</v>
+        <v>1085</v>
       </c>
       <c r="C281" t="s">
-        <v>1080</v>
+        <v>1086</v>
       </c>
       <c r="D281">
         <v>0</v>
@@ -14183,7 +14222,7 @@
         <v>0.95888877000712913</v>
       </c>
       <c r="G281" t="s">
-        <v>1081</v>
+        <v>1087</v>
       </c>
       <c r="H281">
         <v>0.94</v>
@@ -14192,7 +14231,7 @@
         <v>0.97930000000000006</v>
       </c>
       <c r="J281" t="s">
-        <v>1082</v>
+        <v>1088</v>
       </c>
       <c r="K281">
         <v>0</v>
@@ -14200,13 +14239,13 @@
     </row>
     <row r="282" spans="1:11">
       <c r="A282" t="s">
-        <v>1083</v>
+        <v>1089</v>
       </c>
       <c r="B282" t="s">
-        <v>1084</v>
+        <v>1090</v>
       </c>
       <c r="C282" t="s">
-        <v>1085</v>
+        <v>1091</v>
       </c>
       <c r="D282">
         <v>0</v>
@@ -14218,7 +14257,7 @@
         <v>0.7648210692727796</v>
       </c>
       <c r="G282" t="s">
-        <v>1086</v>
+        <v>1092</v>
       </c>
       <c r="H282">
         <v>0.45</v>
@@ -14227,7 +14266,7 @@
         <v>0.79579999999999995</v>
       </c>
       <c r="J282" t="s">
-        <v>1087</v>
+        <v>1093</v>
       </c>
       <c r="K282">
         <v>0</v>
@@ -14235,13 +14274,13 @@
     </row>
     <row r="283" spans="1:11">
       <c r="A283" t="s">
-        <v>1088</v>
+        <v>1094</v>
       </c>
       <c r="B283" t="s">
-        <v>1089</v>
+        <v>1095</v>
       </c>
       <c r="C283" t="s">
-        <v>1090</v>
+        <v>1096</v>
       </c>
       <c r="D283">
         <v>0</v>
@@ -14253,7 +14292,7 @@
         <v>0.51308676160337541</v>
       </c>
       <c r="G283" t="s">
-        <v>1091</v>
+        <v>1097</v>
       </c>
       <c r="H283">
         <v>0.24</v>
@@ -14262,7 +14301,7 @@
         <v>0.80349999999999999</v>
       </c>
       <c r="J283" t="s">
-        <v>1092</v>
+        <v>1098</v>
       </c>
       <c r="K283">
         <v>0</v>
@@ -14270,13 +14309,13 @@
     </row>
     <row r="284" spans="1:11">
       <c r="A284" t="s">
-        <v>1093</v>
+        <v>1099</v>
       </c>
       <c r="B284" t="s">
-        <v>1094</v>
+        <v>1100</v>
       </c>
       <c r="C284" t="s">
-        <v>1095</v>
+        <v>1101</v>
       </c>
       <c r="D284">
         <v>0</v>
@@ -14288,7 +14327,7 @@
         <v>0.7903310628307747</v>
       </c>
       <c r="G284" t="s">
-        <v>1096</v>
+        <v>1102</v>
       </c>
       <c r="H284">
         <v>0.63</v>
@@ -14297,7 +14336,7 @@
         <v>0.87690000000000001</v>
       </c>
       <c r="J284" t="s">
-        <v>1097</v>
+        <v>1103</v>
       </c>
       <c r="K284">
         <v>0</v>
@@ -14305,13 +14344,13 @@
     </row>
     <row r="285" spans="1:11">
       <c r="A285" t="s">
-        <v>1098</v>
+        <v>1104</v>
       </c>
       <c r="B285" t="s">
-        <v>1099</v>
+        <v>1105</v>
       </c>
       <c r="C285" t="s">
-        <v>1100</v>
+        <v>1106</v>
       </c>
       <c r="D285">
         <v>0</v>
@@ -14323,7 +14362,7 @@
         <v>0.84015179301977827</v>
       </c>
       <c r="G285" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="H285">
         <v>0.37</v>
@@ -14340,13 +14379,13 @@
     </row>
     <row r="286" spans="1:11">
       <c r="A286" t="s">
-        <v>1101</v>
+        <v>1107</v>
       </c>
       <c r="B286" t="s">
-        <v>1102</v>
+        <v>1108</v>
       </c>
       <c r="C286" t="s">
-        <v>1103</v>
+        <v>1109</v>
       </c>
       <c r="D286">
         <v>0</v>
@@ -14367,7 +14406,7 @@
         <v>0.92989999999999995</v>
       </c>
       <c r="J286" t="s">
-        <v>1104</v>
+        <v>1110</v>
       </c>
       <c r="K286">
         <v>0</v>
@@ -14375,13 +14414,13 @@
     </row>
     <row r="287" spans="1:11">
       <c r="A287" t="s">
-        <v>1105</v>
+        <v>1111</v>
       </c>
       <c r="B287" t="s">
-        <v>1106</v>
+        <v>1112</v>
       </c>
       <c r="C287" t="s">
-        <v>1107</v>
+        <v>1113</v>
       </c>
       <c r="D287">
         <v>0</v>
@@ -14393,7 +14432,7 @@
         <v>0.99993750000000003</v>
       </c>
       <c r="G287" t="s">
-        <v>1108</v>
+        <v>1114</v>
       </c>
       <c r="H287">
         <v>0.91</v>
@@ -14402,7 +14441,7 @@
         <v>0.98349999999999993</v>
       </c>
       <c r="J287" t="s">
-        <v>1109</v>
+        <v>1115</v>
       </c>
       <c r="K287">
         <v>0</v>
@@ -14410,13 +14449,13 @@
     </row>
     <row r="288" spans="1:11">
       <c r="A288" t="s">
-        <v>1110</v>
+        <v>1116</v>
       </c>
       <c r="B288" t="s">
-        <v>1111</v>
+        <v>1117</v>
       </c>
       <c r="C288" t="s">
-        <v>1112</v>
+        <v>1118</v>
       </c>
       <c r="D288">
         <v>0</v>
@@ -14428,7 +14467,7 @@
         <v>0.82735042735042752</v>
       </c>
       <c r="G288" t="s">
-        <v>1113</v>
+        <v>1119</v>
       </c>
       <c r="H288">
         <v>0.3</v>
@@ -14437,7 +14476,7 @@
         <v>0.63190000000000002</v>
       </c>
       <c r="J288" t="s">
-        <v>1114</v>
+        <v>1120</v>
       </c>
       <c r="K288">
         <v>0</v>
@@ -14445,13 +14484,13 @@
     </row>
     <row r="289" spans="1:11">
       <c r="A289" t="s">
-        <v>1115</v>
+        <v>1121</v>
       </c>
       <c r="B289" t="s">
-        <v>1116</v>
+        <v>1122</v>
       </c>
       <c r="C289" t="s">
-        <v>1117</v>
+        <v>1123</v>
       </c>
       <c r="D289">
         <v>0</v>
@@ -14463,7 +14502,7 @@
         <v>0.97554878048780491</v>
       </c>
       <c r="G289" t="s">
-        <v>1118</v>
+        <v>1124</v>
       </c>
       <c r="H289">
         <v>0.89</v>
@@ -14472,7 +14511,7 @@
         <v>0.96530000000000005</v>
       </c>
       <c r="J289" t="s">
-        <v>1119</v>
+        <v>1125</v>
       </c>
       <c r="K289">
         <v>0</v>
@@ -14480,13 +14519,13 @@
     </row>
     <row r="290" spans="1:11">
       <c r="A290" t="s">
-        <v>1120</v>
+        <v>1126</v>
       </c>
       <c r="B290" t="s">
-        <v>1121</v>
+        <v>1127</v>
       </c>
       <c r="C290" t="s">
-        <v>1122</v>
+        <v>1128</v>
       </c>
       <c r="D290">
         <v>0</v>
@@ -14498,7 +14537,7 @@
         <v>0.9003281771919136</v>
       </c>
       <c r="G290" t="s">
-        <v>1123</v>
+        <v>1129</v>
       </c>
       <c r="H290">
         <v>0.64</v>
@@ -14507,7 +14546,7 @@
         <v>0.8417</v>
       </c>
       <c r="J290" t="s">
-        <v>1124</v>
+        <v>1130</v>
       </c>
       <c r="K290">
         <v>0</v>
@@ -14515,13 +14554,13 @@
     </row>
     <row r="291" spans="1:11">
       <c r="A291" t="s">
-        <v>1125</v>
+        <v>1131</v>
       </c>
       <c r="B291" t="s">
-        <v>1126</v>
+        <v>1132</v>
       </c>
       <c r="C291" t="s">
-        <v>1127</v>
+        <v>1133</v>
       </c>
       <c r="D291">
         <v>0</v>
@@ -14533,7 +14572,7 @@
         <v>0.93197278911564618</v>
       </c>
       <c r="G291" t="s">
-        <v>1128</v>
+        <v>1134</v>
       </c>
       <c r="H291">
         <v>0.69</v>
@@ -14542,7 +14581,7 @@
         <v>0.95340000000000003</v>
       </c>
       <c r="J291" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="K291">
         <v>0</v>
@@ -14550,13 +14589,13 @@
     </row>
     <row r="292" spans="1:11">
       <c r="A292" t="s">
-        <v>1129</v>
+        <v>1135</v>
       </c>
       <c r="B292" t="s">
-        <v>1130</v>
+        <v>1136</v>
       </c>
       <c r="C292" t="s">
-        <v>1131</v>
+        <v>1137</v>
       </c>
       <c r="D292">
         <v>0</v>
@@ -14568,7 +14607,7 @@
         <v>0.65260257994526893</v>
       </c>
       <c r="G292" t="s">
-        <v>1132</v>
+        <v>1138</v>
       </c>
       <c r="H292">
         <v>0.34</v>
@@ -14577,7 +14616,7 @@
         <v>0.74900000000000011</v>
       </c>
       <c r="J292" t="s">
-        <v>1133</v>
+        <v>1139</v>
       </c>
       <c r="K292">
         <v>0</v>
@@ -14585,13 +14624,13 @@
     </row>
     <row r="293" spans="1:11">
       <c r="A293" t="s">
-        <v>1134</v>
+        <v>1140</v>
       </c>
       <c r="B293" t="s">
-        <v>1135</v>
+        <v>1141</v>
       </c>
       <c r="C293" t="s">
-        <v>1136</v>
+        <v>1142</v>
       </c>
       <c r="D293">
         <v>0</v>
@@ -14603,7 +14642,7 @@
         <v>0.91703661742883691</v>
       </c>
       <c r="G293" t="s">
-        <v>1137</v>
+        <v>1143</v>
       </c>
       <c r="H293">
         <v>1</v>
@@ -14612,7 +14651,7 @@
         <v>0.94</v>
       </c>
       <c r="J293" t="s">
-        <v>1138</v>
+        <v>1144</v>
       </c>
       <c r="K293">
         <v>0</v>
@@ -14620,13 +14659,13 @@
     </row>
     <row r="294" spans="1:11">
       <c r="A294" t="s">
-        <v>1139</v>
+        <v>1145</v>
       </c>
       <c r="B294" t="s">
-        <v>1140</v>
+        <v>1146</v>
       </c>
       <c r="C294" t="s">
-        <v>1141</v>
+        <v>1147</v>
       </c>
       <c r="D294">
         <v>0</v>
@@ -14638,7 +14677,7 @@
         <v>0.73776919828678289</v>
       </c>
       <c r="G294" t="s">
-        <v>1142</v>
+        <v>1148</v>
       </c>
       <c r="H294">
         <v>0.62</v>
@@ -14647,7 +14686,7 @@
         <v>0.80400000000000005</v>
       </c>
       <c r="J294" t="s">
-        <v>1143</v>
+        <v>1149</v>
       </c>
       <c r="K294">
         <v>0</v>
@@ -14655,13 +14694,13 @@
     </row>
     <row r="295" spans="1:11">
       <c r="A295" t="s">
-        <v>1144</v>
+        <v>1150</v>
       </c>
       <c r="B295" t="s">
-        <v>1145</v>
+        <v>1151</v>
       </c>
       <c r="C295" t="s">
-        <v>1146</v>
+        <v>1152</v>
       </c>
       <c r="D295">
         <v>0</v>
@@ -14673,7 +14712,7 @@
         <v>0.89711883308721962</v>
       </c>
       <c r="G295" t="s">
-        <v>1147</v>
+        <v>1153</v>
       </c>
       <c r="H295">
         <v>0.75</v>
@@ -14682,7 +14721,7 @@
         <v>0.93019999999999992</v>
       </c>
       <c r="J295" t="s">
-        <v>1148</v>
+        <v>1154</v>
       </c>
       <c r="K295">
         <v>0</v>
@@ -14690,13 +14729,13 @@
     </row>
     <row r="296" spans="1:11">
       <c r="A296" t="s">
-        <v>1149</v>
+        <v>1155</v>
       </c>
       <c r="B296" t="s">
-        <v>1150</v>
+        <v>1156</v>
       </c>
       <c r="C296" t="s">
-        <v>1151</v>
+        <v>1157</v>
       </c>
       <c r="D296">
         <v>0</v>
@@ -14708,7 +14747,7 @@
         <v>0.79250589368334379</v>
       </c>
       <c r="G296" t="s">
-        <v>1152</v>
+        <v>1158</v>
       </c>
       <c r="H296">
         <v>0.71</v>
@@ -14717,7 +14756,7 @@
         <v>0.91689999999999994</v>
       </c>
       <c r="J296" t="s">
-        <v>1153</v>
+        <v>1159</v>
       </c>
       <c r="K296">
         <v>0</v>
@@ -14725,13 +14764,13 @@
     </row>
     <row r="297" spans="1:11">
       <c r="A297" t="s">
-        <v>1154</v>
+        <v>1160</v>
       </c>
       <c r="B297" t="s">
-        <v>1155</v>
+        <v>1161</v>
       </c>
       <c r="C297" t="s">
-        <v>1155</v>
+        <v>1161</v>
       </c>
       <c r="D297">
         <v>1</v>
@@ -14760,13 +14799,13 @@
     </row>
     <row r="298" spans="1:11">
       <c r="A298" t="s">
-        <v>1156</v>
+        <v>1162</v>
       </c>
       <c r="B298" t="s">
-        <v>1157</v>
+        <v>1163</v>
       </c>
       <c r="C298" t="s">
-        <v>1158</v>
+        <v>1164</v>
       </c>
       <c r="D298">
         <v>0</v>
@@ -14778,7 +14817,7 @@
         <v>0.99735703251328245</v>
       </c>
       <c r="G298" t="s">
-        <v>1159</v>
+        <v>1165</v>
       </c>
       <c r="H298">
         <v>0.9</v>
@@ -14787,7 +14826,7 @@
         <v>0.95909999999999995</v>
       </c>
       <c r="J298" t="s">
-        <v>1160</v>
+        <v>1166</v>
       </c>
       <c r="K298">
         <v>0</v>
@@ -14795,13 +14834,13 @@
     </row>
     <row r="299" spans="1:11">
       <c r="A299" t="s">
-        <v>1161</v>
+        <v>1167</v>
       </c>
       <c r="B299" t="s">
-        <v>1162</v>
+        <v>1168</v>
       </c>
       <c r="C299" t="s">
-        <v>1163</v>
+        <v>1169</v>
       </c>
       <c r="D299">
         <v>0</v>
@@ -14813,7 +14852,7 @@
         <v>0.85687569193583235</v>
       </c>
       <c r="G299" t="s">
-        <v>1164</v>
+        <v>1170</v>
       </c>
       <c r="H299">
         <v>0.79</v>
@@ -14822,7 +14861,7 @@
         <v>0.98640000000000005</v>
       </c>
       <c r="J299" t="s">
-        <v>1165</v>
+        <v>1171</v>
       </c>
       <c r="K299">
         <v>0</v>
@@ -14830,13 +14869,13 @@
     </row>
     <row r="300" spans="1:11">
       <c r="A300" t="s">
-        <v>1166</v>
+        <v>1172</v>
       </c>
       <c r="B300" t="s">
-        <v>1167</v>
+        <v>1173</v>
       </c>
       <c r="C300" t="s">
-        <v>1168</v>
+        <v>1174</v>
       </c>
       <c r="D300">
         <v>0</v>
@@ -14848,7 +14887,7 @@
         <v>0.86221105326895342</v>
       </c>
       <c r="G300" t="s">
-        <v>1169</v>
+        <v>1175</v>
       </c>
       <c r="H300">
         <v>0.71</v>
@@ -14857,7 +14896,7 @@
         <v>0.93730000000000002</v>
       </c>
       <c r="J300" t="s">
-        <v>1170</v>
+        <v>1176</v>
       </c>
       <c r="K300">
         <v>0</v>
@@ -14865,13 +14904,13 @@
     </row>
     <row r="301" spans="1:11">
       <c r="A301" t="s">
-        <v>1171</v>
+        <v>1177</v>
       </c>
       <c r="B301" t="s">
-        <v>1172</v>
+        <v>1178</v>
       </c>
       <c r="C301" t="s">
-        <v>1173</v>
+        <v>1179</v>
       </c>
       <c r="D301">
         <v>0</v>
@@ -14883,7 +14922,7 @@
         <v>0.99610749193911696</v>
       </c>
       <c r="G301" t="s">
-        <v>1174</v>
+        <v>1180</v>
       </c>
       <c r="H301">
         <v>0.85</v>
@@ -14892,7 +14931,7 @@
         <v>0.96879999999999999</v>
       </c>
       <c r="J301" t="s">
-        <v>1175</v>
+        <v>1181</v>
       </c>
       <c r="K301">
         <v>0</v>
@@ -14900,13 +14939,13 @@
     </row>
     <row r="302" spans="1:11">
       <c r="A302" t="s">
-        <v>1176</v>
+        <v>1182</v>
       </c>
       <c r="B302" t="s">
-        <v>1177</v>
+        <v>1183</v>
       </c>
       <c r="C302" t="s">
-        <v>1178</v>
+        <v>1184</v>
       </c>
       <c r="D302">
         <v>0</v>
@@ -14918,7 +14957,7 @@
         <v>0.78805201069249298</v>
       </c>
       <c r="G302" t="s">
-        <v>1179</v>
+        <v>1185</v>
       </c>
       <c r="H302">
         <v>0.7</v>
@@ -14927,7 +14966,7 @@
         <v>0.93129999999999991</v>
       </c>
       <c r="J302" t="s">
-        <v>1180</v>
+        <v>1186</v>
       </c>
       <c r="K302">
         <v>0</v>
@@ -14935,13 +14974,13 @@
     </row>
     <row r="303" spans="1:11">
       <c r="A303" t="s">
-        <v>1181</v>
+        <v>1187</v>
       </c>
       <c r="B303" t="s">
-        <v>1182</v>
+        <v>1188</v>
       </c>
       <c r="C303" t="s">
-        <v>1183</v>
+        <v>1189</v>
       </c>
       <c r="D303">
         <v>0</v>
@@ -14953,7 +14992,7 @@
         <v>0.96943863981762923</v>
       </c>
       <c r="G303" t="s">
-        <v>1184</v>
+        <v>1190</v>
       </c>
       <c r="H303">
         <v>0.39</v>
@@ -14962,7 +15001,7 @@
         <v>0.8</v>
       </c>
       <c r="J303" t="s">
-        <v>1185</v>
+        <v>1191</v>
       </c>
       <c r="K303">
         <v>0</v>
@@ -14970,13 +15009,13 @@
     </row>
     <row r="304" spans="1:11">
       <c r="A304" t="s">
-        <v>1186</v>
+        <v>1192</v>
       </c>
       <c r="B304" t="s">
-        <v>1187</v>
+        <v>1193</v>
       </c>
       <c r="C304" t="s">
-        <v>1188</v>
+        <v>1194</v>
       </c>
       <c r="D304">
         <v>0</v>
@@ -14988,7 +15027,7 @@
         <v>0.93118385612182153</v>
       </c>
       <c r="G304" t="s">
-        <v>1189</v>
+        <v>1195</v>
       </c>
       <c r="H304">
         <v>1</v>
@@ -14997,7 +15036,7 @@
         <v>0.97329999999999994</v>
       </c>
       <c r="J304" t="s">
-        <v>1190</v>
+        <v>1196</v>
       </c>
       <c r="K304">
         <v>0</v>
@@ -15005,13 +15044,13 @@
     </row>
     <row r="305" spans="1:11">
       <c r="A305" t="s">
-        <v>1191</v>
+        <v>1197</v>
       </c>
       <c r="B305" t="s">
-        <v>1192</v>
+        <v>1198</v>
       </c>
       <c r="C305" t="s">
-        <v>1193</v>
+        <v>1199</v>
       </c>
       <c r="D305">
         <v>0</v>
@@ -15023,7 +15062,7 @@
         <v>0.92150987268919982</v>
       </c>
       <c r="G305" t="s">
-        <v>1194</v>
+        <v>1200</v>
       </c>
       <c r="H305">
         <v>0.73</v>
@@ -15032,7 +15071,7 @@
         <v>0.86599999999999999</v>
       </c>
       <c r="J305" t="s">
-        <v>1195</v>
+        <v>1201</v>
       </c>
       <c r="K305">
         <v>0</v>
@@ -15040,13 +15079,13 @@
     </row>
     <row r="306" spans="1:11">
       <c r="A306" t="s">
-        <v>1196</v>
+        <v>1202</v>
       </c>
       <c r="B306" t="s">
-        <v>1197</v>
+        <v>1203</v>
       </c>
       <c r="C306" t="s">
-        <v>1197</v>
+        <v>1203</v>
       </c>
       <c r="D306">
         <v>1</v>
@@ -15075,13 +15114,13 @@
     </row>
     <row r="307" spans="1:11">
       <c r="A307" t="s">
-        <v>1198</v>
+        <v>1204</v>
       </c>
       <c r="B307" t="s">
-        <v>1199</v>
+        <v>1205</v>
       </c>
       <c r="C307" t="s">
-        <v>1200</v>
+        <v>1206</v>
       </c>
       <c r="D307">
         <v>0</v>
@@ -15093,7 +15132,7 @@
         <v>0.84459459459459441</v>
       </c>
       <c r="G307" t="s">
-        <v>1201</v>
+        <v>1207</v>
       </c>
       <c r="H307">
         <v>0.62</v>
@@ -15102,7 +15141,7 @@
         <v>0.95609999999999995</v>
       </c>
       <c r="J307" t="s">
-        <v>1202</v>
+        <v>1208</v>
       </c>
       <c r="K307">
         <v>0</v>
@@ -15110,13 +15149,13 @@
     </row>
     <row r="308" spans="1:11">
       <c r="A308" t="s">
-        <v>1203</v>
+        <v>1209</v>
       </c>
       <c r="B308" t="s">
-        <v>1204</v>
+        <v>1210</v>
       </c>
       <c r="C308" t="s">
-        <v>1205</v>
+        <v>1211</v>
       </c>
       <c r="D308">
         <v>0</v>
@@ -15128,7 +15167,7 @@
         <v>0.88969017094017089</v>
       </c>
       <c r="G308" t="s">
-        <v>1206</v>
+        <v>1212</v>
       </c>
       <c r="H308">
         <v>0.52</v>
@@ -15137,7 +15176,7 @@
         <v>0.79569999999999996</v>
       </c>
       <c r="J308" t="s">
-        <v>1207</v>
+        <v>1213</v>
       </c>
       <c r="K308">
         <v>0</v>
@@ -15145,13 +15184,13 @@
     </row>
     <row r="309" spans="1:11">
       <c r="A309" t="s">
-        <v>1208</v>
+        <v>1214</v>
       </c>
       <c r="B309" t="s">
-        <v>1209</v>
+        <v>1215</v>
       </c>
       <c r="C309" t="s">
-        <v>1210</v>
+        <v>1216</v>
       </c>
       <c r="D309">
         <v>0</v>
@@ -15163,7 +15202,7 @@
         <v>0.91395863315515335</v>
       </c>
       <c r="G309" t="s">
-        <v>1211</v>
+        <v>1217</v>
       </c>
       <c r="H309">
         <v>0.71</v>
@@ -15172,7 +15211,7 @@
         <v>0.9173</v>
       </c>
       <c r="J309" t="s">
-        <v>1212</v>
+        <v>1218</v>
       </c>
       <c r="K309">
         <v>0</v>
@@ -15180,13 +15219,13 @@
     </row>
     <row r="310" spans="1:11">
       <c r="A310" t="s">
-        <v>1213</v>
+        <v>1219</v>
       </c>
       <c r="B310" t="s">
-        <v>1214</v>
+        <v>1220</v>
       </c>
       <c r="C310" t="s">
-        <v>1214</v>
+        <v>1220</v>
       </c>
       <c r="D310">
         <v>1</v>
@@ -15215,13 +15254,13 @@
     </row>
     <row r="311" spans="1:11">
       <c r="A311" t="s">
-        <v>1215</v>
+        <v>1221</v>
       </c>
       <c r="B311" t="s">
-        <v>1216</v>
+        <v>1222</v>
       </c>
       <c r="C311" t="s">
-        <v>1217</v>
+        <v>1223</v>
       </c>
       <c r="D311">
         <v>0</v>
@@ -15233,7 +15272,7 @@
         <v>0.58455728246307592</v>
       </c>
       <c r="G311" t="s">
-        <v>1218</v>
+        <v>1224</v>
       </c>
       <c r="H311">
         <v>0.22</v>
@@ -15242,7 +15281,7 @@
         <v>0.86419999999999997</v>
       </c>
       <c r="J311" t="s">
-        <v>1219</v>
+        <v>1225</v>
       </c>
       <c r="K311">
         <v>0</v>
@@ -15250,13 +15289,13 @@
     </row>
     <row r="312" spans="1:11">
       <c r="A312" t="s">
-        <v>1220</v>
+        <v>1226</v>
       </c>
       <c r="B312" t="s">
-        <v>1221</v>
+        <v>1227</v>
       </c>
       <c r="C312" t="s">
-        <v>1222</v>
+        <v>1228</v>
       </c>
       <c r="D312">
         <v>0</v>
@@ -15268,7 +15307,7 @@
         <v>0.96341746046674104</v>
       </c>
       <c r="G312" t="s">
-        <v>1223</v>
+        <v>1229</v>
       </c>
       <c r="H312">
         <v>0.82</v>
@@ -15277,7 +15316,7 @@
         <v>0.9375</v>
       </c>
       <c r="J312" t="s">
-        <v>1224</v>
+        <v>1230</v>
       </c>
       <c r="K312">
         <v>0</v>
@@ -15285,13 +15324,13 @@
     </row>
     <row r="313" spans="1:11">
       <c r="A313" t="s">
-        <v>1225</v>
+        <v>1231</v>
       </c>
       <c r="B313" t="s">
-        <v>1226</v>
+        <v>1232</v>
       </c>
       <c r="C313" t="s">
-        <v>1227</v>
+        <v>1233</v>
       </c>
       <c r="D313">
         <v>0</v>
@@ -15303,7 +15342,7 @@
         <v>0.78049017672603971</v>
       </c>
       <c r="G313" t="s">
-        <v>1228</v>
+        <v>1234</v>
       </c>
       <c r="H313">
         <v>0.84</v>
@@ -15312,7 +15351,7 @@
         <v>0.94830000000000003</v>
       </c>
       <c r="J313" t="s">
-        <v>1229</v>
+        <v>1235</v>
       </c>
       <c r="K313">
         <v>0</v>
@@ -15320,13 +15359,13 @@
     </row>
     <row r="314" spans="1:11">
       <c r="A314" t="s">
-        <v>1230</v>
+        <v>1236</v>
       </c>
       <c r="B314" t="s">
-        <v>1231</v>
+        <v>1237</v>
       </c>
       <c r="C314" t="s">
-        <v>1232</v>
+        <v>1238</v>
       </c>
       <c r="D314">
         <v>0</v>
@@ -15338,7 +15377,7 @@
         <v>0.90394202898550713</v>
       </c>
       <c r="G314" t="s">
-        <v>1233</v>
+        <v>1239</v>
       </c>
       <c r="H314">
         <v>0.92</v>
@@ -15347,7 +15386,7 @@
         <v>0.96870000000000001</v>
       </c>
       <c r="J314" t="s">
-        <v>1234</v>
+        <v>1240</v>
       </c>
       <c r="K314">
         <v>0</v>
@@ -15355,13 +15394,13 @@
     </row>
     <row r="315" spans="1:11">
       <c r="A315" t="s">
-        <v>1235</v>
+        <v>1241</v>
       </c>
       <c r="B315" t="s">
-        <v>1236</v>
+        <v>1242</v>
       </c>
       <c r="C315" t="s">
-        <v>1237</v>
+        <v>1243</v>
       </c>
       <c r="D315">
         <v>0</v>
@@ -15373,7 +15412,7 @@
         <v>0.87517556179775269</v>
       </c>
       <c r="G315" t="s">
-        <v>1238</v>
+        <v>1244</v>
       </c>
       <c r="H315">
         <v>0.5</v>
@@ -15390,13 +15429,13 @@
     </row>
     <row r="316" spans="1:11">
       <c r="A316" t="s">
-        <v>1239</v>
+        <v>1245</v>
       </c>
       <c r="B316" t="s">
-        <v>1240</v>
+        <v>1246</v>
       </c>
       <c r="C316" t="s">
-        <v>1241</v>
+        <v>1247</v>
       </c>
       <c r="D316">
         <v>0</v>
@@ -15408,7 +15447,7 @@
         <v>0.77401692384270782</v>
       </c>
       <c r="G316" t="s">
-        <v>1242</v>
+        <v>1248</v>
       </c>
       <c r="H316">
         <v>0.49</v>
@@ -15417,7 +15456,7 @@
         <v>0.88280000000000003</v>
       </c>
       <c r="J316" t="s">
-        <v>1243</v>
+        <v>1249</v>
       </c>
       <c r="K316">
         <v>0</v>
@@ -15425,13 +15464,13 @@
     </row>
     <row r="317" spans="1:11">
       <c r="A317" t="s">
-        <v>1244</v>
+        <v>1250</v>
       </c>
       <c r="B317" t="s">
-        <v>1245</v>
+        <v>1251</v>
       </c>
       <c r="C317" t="s">
-        <v>1246</v>
+        <v>1252</v>
       </c>
       <c r="D317">
         <v>0</v>
@@ -15443,7 +15482,7 @@
         <v>0.70448824816204658</v>
       </c>
       <c r="G317" t="s">
-        <v>1247</v>
+        <v>1253</v>
       </c>
       <c r="H317">
         <v>0.53</v>
@@ -15452,7 +15491,7 @@
         <v>0.9103</v>
       </c>
       <c r="J317" t="s">
-        <v>1248</v>
+        <v>1254</v>
       </c>
       <c r="K317">
         <v>0</v>
@@ -15460,13 +15499,13 @@
     </row>
     <row r="318" spans="1:11">
       <c r="A318" t="s">
-        <v>1249</v>
+        <v>1255</v>
       </c>
       <c r="B318" t="s">
-        <v>1250</v>
+        <v>1256</v>
       </c>
       <c r="C318" t="s">
-        <v>1251</v>
+        <v>1257</v>
       </c>
       <c r="D318">
         <v>0</v>
@@ -15478,7 +15517,7 @@
         <v>0.8578868267449582</v>
       </c>
       <c r="G318" t="s">
-        <v>1252</v>
+        <v>1258</v>
       </c>
       <c r="H318">
         <v>1</v>
@@ -15487,7 +15526,7 @@
         <v>0.93700000000000006</v>
       </c>
       <c r="J318" t="s">
-        <v>1253</v>
+        <v>1259</v>
       </c>
       <c r="K318">
         <v>0</v>
@@ -15495,13 +15534,13 @@
     </row>
     <row r="319" spans="1:11">
       <c r="A319" t="s">
-        <v>1254</v>
+        <v>1260</v>
       </c>
       <c r="B319" t="s">
-        <v>1255</v>
+        <v>1261</v>
       </c>
       <c r="C319" t="s">
-        <v>1256</v>
+        <v>1262</v>
       </c>
       <c r="D319">
         <v>0</v>
@@ -15513,7 +15552,7 @@
         <v>0.98576950809165209</v>
       </c>
       <c r="G319" t="s">
-        <v>1257</v>
+        <v>1263</v>
       </c>
       <c r="H319">
         <v>0.91</v>
@@ -15522,7 +15561,7 @@
         <v>0.96109999999999995</v>
       </c>
       <c r="J319" t="s">
-        <v>1258</v>
+        <v>1264</v>
       </c>
       <c r="K319">
         <v>0</v>
@@ -15530,13 +15569,13 @@
     </row>
     <row r="320" spans="1:11">
       <c r="A320" t="s">
-        <v>1259</v>
+        <v>1265</v>
       </c>
       <c r="B320" t="s">
-        <v>1260</v>
+        <v>1266</v>
       </c>
       <c r="C320" t="s">
-        <v>1261</v>
+        <v>1267</v>
       </c>
       <c r="D320">
         <v>0</v>
@@ -15548,7 +15587,7 @@
         <v>0.99142030393168623</v>
       </c>
       <c r="G320" t="s">
-        <v>1262</v>
+        <v>1268</v>
       </c>
       <c r="H320">
         <v>0.84</v>
@@ -15565,13 +15604,13 @@
     </row>
     <row r="321" spans="1:11">
       <c r="A321" t="s">
-        <v>1263</v>
+        <v>1269</v>
       </c>
       <c r="B321" t="s">
-        <v>1264</v>
+        <v>1270</v>
       </c>
       <c r="C321" t="s">
-        <v>1264</v>
+        <v>1270</v>
       </c>
       <c r="D321">
         <v>1</v>
@@ -15600,13 +15639,13 @@
     </row>
     <row r="322" spans="1:11">
       <c r="A322" t="s">
-        <v>1265</v>
+        <v>1271</v>
       </c>
       <c r="B322" t="s">
-        <v>1266</v>
+        <v>1272</v>
       </c>
       <c r="C322" t="s">
-        <v>1267</v>
+        <v>1273</v>
       </c>
       <c r="D322">
         <v>0</v>
@@ -15618,7 +15657,7 @@
         <v>0.95990232827825017</v>
       </c>
       <c r="G322" t="s">
-        <v>1268</v>
+        <v>1274</v>
       </c>
       <c r="H322">
         <v>0.59</v>
@@ -15627,7 +15666,7 @@
         <v>0.8427</v>
       </c>
       <c r="J322" t="s">
-        <v>1269</v>
+        <v>1275</v>
       </c>
       <c r="K322">
         <v>0</v>
@@ -15635,13 +15674,13 @@
     </row>
     <row r="323" spans="1:11">
       <c r="A323" t="s">
-        <v>1270</v>
+        <v>1276</v>
       </c>
       <c r="B323" t="s">
-        <v>1271</v>
+        <v>1277</v>
       </c>
       <c r="C323" t="s">
-        <v>1272</v>
+        <v>1278</v>
       </c>
       <c r="D323">
         <v>0</v>
@@ -15653,7 +15692,7 @@
         <v>0.91487850396871861</v>
       </c>
       <c r="G323" t="s">
-        <v>1273</v>
+        <v>1279</v>
       </c>
       <c r="H323">
         <v>0.88</v>
@@ -15662,7 +15701,7 @@
         <v>0.95950000000000002</v>
       </c>
       <c r="J323" t="s">
-        <v>1274</v>
+        <v>1280</v>
       </c>
       <c r="K323">
         <v>0</v>
@@ -15670,13 +15709,13 @@
     </row>
     <row r="324" spans="1:11">
       <c r="A324" t="s">
-        <v>1275</v>
+        <v>1281</v>
       </c>
       <c r="B324" t="s">
-        <v>1276</v>
+        <v>1282</v>
       </c>
       <c r="C324" t="s">
-        <v>1277</v>
+        <v>1283</v>
       </c>
       <c r="D324">
         <v>0</v>
@@ -15688,7 +15727,7 @@
         <v>0.84168421052631581</v>
       </c>
       <c r="G324" t="s">
-        <v>1278</v>
+        <v>1284</v>
       </c>
       <c r="H324">
         <v>0.62</v>
@@ -15697,7 +15736,7 @@
         <v>0.92590000000000006</v>
       </c>
       <c r="J324" t="s">
-        <v>1224</v>
+        <v>1230</v>
       </c>
       <c r="K324">
         <v>0</v>
@@ -15705,13 +15744,13 @@
     </row>
     <row r="325" spans="1:11">
       <c r="A325" t="s">
-        <v>1279</v>
+        <v>1285</v>
       </c>
       <c r="B325" t="s">
-        <v>1280</v>
+        <v>1286</v>
       </c>
       <c r="C325" t="s">
-        <v>1281</v>
+        <v>1287</v>
       </c>
       <c r="D325">
         <v>0</v>
@@ -15723,7 +15762,7 @@
         <v>0.89947226617328602</v>
       </c>
       <c r="G325" t="s">
-        <v>1282</v>
+        <v>1288</v>
       </c>
       <c r="H325">
         <v>0.74</v>
@@ -15732,7 +15771,7 @@
         <v>0.93849999999999989</v>
       </c>
       <c r="J325" t="s">
-        <v>1283</v>
+        <v>1289</v>
       </c>
       <c r="K325">
         <v>0</v>
@@ -15740,13 +15779,13 @@
     </row>
     <row r="326" spans="1:11">
       <c r="A326" t="s">
-        <v>1284</v>
+        <v>1290</v>
       </c>
       <c r="B326" t="s">
-        <v>1285</v>
+        <v>1291</v>
       </c>
       <c r="C326" t="s">
-        <v>1286</v>
+        <v>1292</v>
       </c>
       <c r="D326">
         <v>0</v>
@@ -15758,7 +15797,7 @@
         <v>0.98131106566689386</v>
       </c>
       <c r="G326" t="s">
-        <v>1287</v>
+        <v>1293</v>
       </c>
       <c r="H326">
         <v>0.92</v>
@@ -15767,7 +15806,7 @@
         <v>0.98769999999999991</v>
       </c>
       <c r="J326" t="s">
-        <v>1288</v>
+        <v>1294</v>
       </c>
       <c r="K326">
         <v>0</v>
@@ -15775,13 +15814,13 @@
     </row>
     <row r="327" spans="1:11">
       <c r="A327" t="s">
-        <v>1289</v>
+        <v>1295</v>
       </c>
       <c r="B327" t="s">
-        <v>1290</v>
+        <v>1296</v>
       </c>
       <c r="C327" t="s">
-        <v>1291</v>
+        <v>1297</v>
       </c>
       <c r="D327">
         <v>0</v>
@@ -15793,7 +15832,7 @@
         <v>0.78317639673571882</v>
       </c>
       <c r="G327" t="s">
-        <v>1292</v>
+        <v>1298</v>
       </c>
       <c r="H327">
         <v>0.6</v>
@@ -15802,7 +15841,7 @@
         <v>0.7742</v>
       </c>
       <c r="J327" t="s">
-        <v>1293</v>
+        <v>1299</v>
       </c>
       <c r="K327">
         <v>0</v>
